--- a/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>139</v>
       </c>
       <c r="E2">
-        <v>0.03276641155262696</v>
+        <v>0.03245730786473743</v>
       </c>
       <c r="F2">
         <v>0.5008043596442856</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.02395320311220842</v>
+        <v>0.02336815654301692</v>
       </c>
       <c r="F3">
         <v>0.5148374148248424</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>128</v>
       </c>
       <c r="E4">
-        <v>0.02640742061675338</v>
+        <v>0.02640150572725969</v>
       </c>
       <c r="F4">
         <v>0.5015192560847286</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.007970916764094641</v>
+        <v>0.007875619107061919</v>
       </c>
       <c r="F5">
         <v>0.5287060997115062</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.01367229811025818</v>
+        <v>0.01343193811605964</v>
       </c>
       <c r="F6">
         <v>0.5211676509340194</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>163</v>
       </c>
       <c r="E2">
-        <v>0.03276641155262696</v>
+        <v>0.03245730786473743</v>
       </c>
       <c r="F2">
         <v>0.7176659474119412</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.02395320311220842</v>
+        <v>0.02336815654301692</v>
       </c>
       <c r="F3">
         <v>0.7109084845563041</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>161</v>
       </c>
       <c r="E4">
-        <v>0.02640742061675338</v>
+        <v>0.02640150572725969</v>
       </c>
       <c r="F4">
         <v>0.7016093393456185</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>159</v>
       </c>
       <c r="E5">
-        <v>0.007970916764094641</v>
+        <v>0.007875619107061919</v>
       </c>
       <c r="F5">
         <v>0.7004097678043884</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>156</v>
       </c>
       <c r="E6">
-        <v>0.01367229811025818</v>
+        <v>0.01343193811605964</v>
       </c>
       <c r="F6">
         <v>0.7179197549555582</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.03276641155262696</v>
+        <v>0.03245730786473743</v>
       </c>
       <c r="F2">
         <v>0.8023436195732465</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>162</v>
       </c>
       <c r="E3">
-        <v>0.02395320311220842</v>
+        <v>0.02336815654301692</v>
       </c>
       <c r="F3">
         <v>0.8031682066288079</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.02640742061675338</v>
+        <v>0.02640150572725969</v>
       </c>
       <c r="F4">
         <v>0.8262157019993686</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.007970916764094641</v>
+        <v>0.007875619107061919</v>
       </c>
       <c r="F5">
         <v>0.805531400046659</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.01367229811025818</v>
+        <v>0.01343193811605964</v>
       </c>
       <c r="F6">
         <v>0.8001388999124066</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>177</v>
       </c>
       <c r="E2">
-        <v>0.03276641155262696</v>
+        <v>0.03245730786473743</v>
       </c>
       <c r="F2">
         <v>0.935221039854798</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>175</v>
       </c>
       <c r="E3">
-        <v>0.02395320311220842</v>
+        <v>0.02336815654301692</v>
       </c>
       <c r="F3">
         <v>0.9042554196951128</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>176</v>
       </c>
       <c r="E4">
-        <v>0.02640742061675338</v>
+        <v>0.02640150572725969</v>
       </c>
       <c r="F4">
         <v>0.9043291036857855</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>175</v>
       </c>
       <c r="E5">
-        <v>0.007970916764094641</v>
+        <v>0.007875619107061919</v>
       </c>
       <c r="F5">
         <v>0.9059353257902998</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>176</v>
       </c>
       <c r="E6">
-        <v>0.01367229811025818</v>
+        <v>0.01343193811605964</v>
       </c>
       <c r="F6">
         <v>0.9355812627032566</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>39</v>

--- a/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0006617659168908541</v>
+        <v>0.000642132182936659</v>
       </c>
       <c r="C2">
-        <v>0.0006162993157303687</v>
+        <v>0.0005964727601560329</v>
       </c>
       <c r="D2">
-        <v>0.0007548547792668458</v>
+        <v>0.0007356158306012419</v>
       </c>
       <c r="E2">
-        <v>0.0008284547611454052</v>
+        <v>0.0008095279463843802</v>
       </c>
       <c r="F2">
-        <v>0.0005294672135140738</v>
+        <v>0.0005092724072633684</v>
       </c>
       <c r="G2">
-        <v>0.0005553643141750691</v>
+        <v>0.0005352793362550272</v>
       </c>
       <c r="H2">
-        <v>0.0003397096686707192</v>
+        <v>0.0003187101100018271</v>
       </c>
       <c r="I2">
-        <v>0.0001855950247371108</v>
+        <v>0.000163941873440395</v>
       </c>
       <c r="J2">
-        <v>4.453093913660371E-05</v>
+        <v>2.227954198831968E-05</v>
       </c>
       <c r="K2">
-        <v>2.234548457034415E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.397272061187757E-07</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.156090255031855E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001265653732304432</v>
+        <v>0.0001046618800839004</v>
       </c>
       <c r="O2">
-        <v>0.0001763037944999623</v>
+        <v>0.0001546112395526172</v>
       </c>
       <c r="P2">
-        <v>0.0004231882408014188</v>
+        <v>0.0004025427106526807</v>
       </c>
       <c r="Q2">
-        <v>0.0003499614889323858</v>
+        <v>0.0003290054077291892</v>
       </c>
       <c r="R2">
-        <v>0.0004498353114815563</v>
+        <v>0.0004293027902494604</v>
       </c>
       <c r="S2">
-        <v>0.0006474398665251973</v>
+        <v>0.0006277453764957466</v>
       </c>
       <c r="T2">
-        <v>0.0008124163207360415</v>
+        <v>0.0007934214877377757</v>
       </c>
       <c r="U2">
-        <v>0.0006616648168882736</v>
+        <v>0.0006420306541739381</v>
       </c>
       <c r="V2">
-        <v>0.0004347036110953361</v>
+        <v>0.0004141069170658574</v>
       </c>
       <c r="W2">
-        <v>0.000605692415459639</v>
+        <v>0.0005858208765427468</v>
       </c>
       <c r="X2">
-        <v>0.0007737341197487205</v>
+        <v>0.000754575237437891</v>
       </c>
       <c r="Y2">
-        <v>0.0004916937425499471</v>
+        <v>0.0004713387408660283</v>
       </c>
       <c r="Z2">
-        <v>0.0001895728048386393</v>
+        <v>0.0001679365231117652</v>
       </c>
       <c r="AA2">
-        <v>0.0001221884331187266</v>
+        <v>0.0001002663775843638</v>
       </c>
       <c r="AB2">
-        <v>4.942063326140783E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.310038058961205E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.607412168646997E-05</v>
+        <v>4.391408811620205E-05</v>
       </c>
       <c r="AE2">
-        <v>0.0003067901778304851</v>
+        <v>0.0002856510092194375</v>
       </c>
       <c r="AF2">
-        <v>0.0005654295144319723</v>
+        <v>0.000545387222531361</v>
       </c>
       <c r="AG2">
-        <v>0.0003469821088563403</v>
+        <v>0.0003260133922487235</v>
       </c>
       <c r="AH2">
-        <v>0.0006057891154621071</v>
+        <v>0.0005859179866451712</v>
       </c>
       <c r="AI2">
-        <v>0.0006984394178269053</v>
+        <v>0.0006789612143871149</v>
       </c>
       <c r="AJ2">
-        <v>0.0005461535139399734</v>
+        <v>0.0005260294734689867</v>
       </c>
       <c r="AK2">
-        <v>0.0005654295144319723</v>
+        <v>0.000545387222531361</v>
       </c>
       <c r="AL2">
-        <v>0.0006162993157303687</v>
+        <v>0.0005964727601560329</v>
       </c>
       <c r="AM2">
-        <v>0.0005041884128688599</v>
+        <v>0.0004838864004674589</v>
       </c>
       <c r="AN2">
-        <v>0.000373674009537622</v>
+        <v>0.0003528184919684781</v>
       </c>
       <c r="AO2">
-        <v>0.0003265769683355213</v>
+        <v>0.0003055217145301813</v>
       </c>
       <c r="AP2">
-        <v>0.0002579228665832002</v>
+        <v>0.0002365764541077307</v>
       </c>
       <c r="AQ2">
-        <v>4.173879706533733E-05</v>
+        <v>1.947555857980567E-05</v>
       </c>
       <c r="AR2">
-        <v>2.038077852019717E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.484045488926466E-05</v>
+        <v>1.25479608737236E-05</v>
       </c>
       <c r="AT2">
-        <v>2.358040260186409E-05</v>
+        <v>1.240155258176448E-06</v>
       </c>
       <c r="AU2">
-        <v>5.223245133317642E-05</v>
+        <v>3.001371591947059E-05</v>
       </c>
       <c r="AV2">
-        <v>0.000123638853155747</v>
+        <v>0.0001017229487814508</v>
       </c>
       <c r="AW2">
-        <v>0.0001780451745444091</v>
+        <v>0.000156360004704217</v>
       </c>
       <c r="AX2">
-        <v>0.0002170728555405481</v>
+        <v>0.0001955532001766515</v>
       </c>
       <c r="AY2">
-        <v>0.0003118982779608638</v>
+        <v>0.0002907807725513276</v>
       </c>
       <c r="AZ2">
-        <v>0.0006227140658940981</v>
+        <v>0.0006029147149598233</v>
       </c>
       <c r="BA2">
-        <v>0.0009878555252139359</v>
+        <v>0.0009696047212563329</v>
       </c>
       <c r="BB2">
-        <v>0.000781029419934925</v>
+        <v>0.0007619014766335093</v>
       </c>
       <c r="BC2">
-        <v>0.0006300812160821366</v>
+        <v>0.0006103131088696007</v>
       </c>
       <c r="BD2">
-        <v>0.0007131062182012593</v>
+        <v>0.0006936902159407583</v>
       </c>
       <c r="BE2">
-        <v>0.0005653361144295884</v>
+        <v>0.000545293426424159</v>
       </c>
       <c r="BF2">
-        <v>0.0004463735113931976</v>
+        <v>0.0004258263088371276</v>
       </c>
       <c r="BG2">
-        <v>0.0002782037871008486</v>
+        <v>0.0002569433850121761</v>
       </c>
       <c r="BH2">
-        <v>0.0001651933642163807</v>
+        <v>0.000143453690480451</v>
       </c>
       <c r="BI2">
-        <v>2.358040260186409E-05</v>
+        <v>1.240155258176448E-06</v>
       </c>
       <c r="BJ2">
-        <v>5.237180733673333E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>3.008271376782849E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.83185912332794E-05</v>
+        <v>2.608325733131617E-05</v>
       </c>
       <c r="BM2">
-        <v>0.0001581736740372107</v>
+        <v>0.0001364042301403566</v>
       </c>
       <c r="BN2">
-        <v>0.0002424054761871357</v>
+        <v>0.0002209932552219143</v>
       </c>
       <c r="BO2">
-        <v>0.0004917808825521712</v>
+        <v>0.0004714262504247176</v>
       </c>
       <c r="BP2">
-        <v>0.0006949863177387685</v>
+        <v>0.0006754934698712772</v>
       </c>
       <c r="BQ2">
-        <v>0.0008569372218723889</v>
+        <v>0.0008381311998269573</v>
       </c>
       <c r="BR2">
-        <v>0.0008859010626116595</v>
+        <v>0.000867217874790786</v>
       </c>
       <c r="BS2">
-        <v>0.0007930678702421934</v>
+        <v>0.0007739909814166563</v>
       </c>
       <c r="BT2">
-        <v>0.0006269000160009399</v>
+        <v>0.0006071184174752646</v>
       </c>
       <c r="BU2">
-        <v>0.0003295389584111229</v>
+        <v>0.0003084962662600663</v>
       </c>
       <c r="BV2">
-        <v>0.0002558260765296819</v>
+        <v>0.0002344707716706849</v>
       </c>
       <c r="BW2">
-        <v>0.0001444971736881329</v>
+        <v>0.0001226697284257082</v>
       </c>
       <c r="BX2">
-        <v>3.239828682693097E-05</v>
+        <v>1.009543569670758E-05</v>
       </c>
       <c r="BY2">
-        <v>8.467612216126577E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.156090255031855E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001397714035675128</v>
+        <v>0.0001179239165463505</v>
       </c>
       <c r="CB2">
-        <v>0.0001855415847357468</v>
+        <v>0.0001638882068026126</v>
       </c>
       <c r="CC2">
-        <v>0.0003021560377122036</v>
+        <v>0.0002809972159407535</v>
       </c>
       <c r="CD2">
-        <v>0.000552193164094129</v>
+        <v>0.0005320947374825045</v>
       </c>
       <c r="CE2">
-        <v>0.000494599012624101</v>
+        <v>0.0004742563320477281</v>
       </c>
       <c r="CF2">
-        <v>0.0003844223798119625</v>
+        <v>0.0003636124455527048</v>
       </c>
       <c r="CG2">
-        <v>0.0004581980316950056</v>
+        <v>0.000437700976348179</v>
       </c>
       <c r="CH2">
-        <v>0.0004617052417845233</v>
+        <v>0.0004412230603432531</v>
       </c>
       <c r="CI2">
-        <v>0.0004463735113931976</v>
+        <v>0.0004258263088371276</v>
       </c>
       <c r="CJ2">
-        <v>0.0003573422191207708</v>
+        <v>0.0003364174392314271</v>
       </c>
       <c r="CK2">
-        <v>0.0002469484863030911</v>
+        <v>0.0002255555320204129</v>
       </c>
       <c r="CL2">
-        <v>0.0002089581753334298</v>
+        <v>0.0001874041060097357</v>
       </c>
       <c r="CM2">
-        <v>0.0001001455125561051</v>
+        <v>7.812997407938384E-05</v>
       </c>
       <c r="CN2">
-        <v>0.007546057692604901</v>
+        <v>0.007555619901602972</v>
       </c>
       <c r="CO2">
-        <v>0.06723537171610962</v>
+        <v>0.06749807337123602</v>
       </c>
       <c r="CP2">
-        <v>0.0001873278847813402</v>
+        <v>0.0001656820824588753</v>
       </c>
       <c r="CQ2">
-        <v>0.07256206185206757</v>
+        <v>0.07284735373817204</v>
       </c>
       <c r="CR2">
-        <v>0.04640034118431816</v>
+        <v>0.04657468249932057</v>
       </c>
       <c r="CS2">
-        <v>0.0092402102358463</v>
+        <v>0.009256957262486673</v>
       </c>
       <c r="CT2">
-        <v>0.01513973538642525</v>
+        <v>0.01518150200917708</v>
       </c>
       <c r="CU2">
-        <v>0.008789957724354095</v>
+        <v>0.008804795252230048</v>
       </c>
       <c r="CV2">
-        <v>0.0004151528505963242</v>
+        <v>0.000394473242752789</v>
       </c>
       <c r="CW2">
-        <v>2.779092770933315E-06</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.003010332076835447</v>
+        <v>0.003000658496497525</v>
       </c>
       <c r="CY2">
-        <v>0.02223347356748519</v>
+        <v>0.02230532438509685</v>
       </c>
       <c r="CZ2">
-        <v>0.05543118841482069</v>
+        <v>0.055643829108923</v>
       </c>
       <c r="DA2">
-        <v>0.02084639553208154</v>
+        <v>0.02091236381994121</v>
       </c>
       <c r="DB2">
-        <v>0.006838949574556737</v>
+        <v>0.006845512972791375</v>
       </c>
       <c r="DC2">
-        <v>0.005412952138159706</v>
+        <v>0.005413467951376232</v>
       </c>
       <c r="DD2">
-        <v>0.001363448034800526</v>
+        <v>0.001346790100209947</v>
       </c>
       <c r="DE2">
-        <v>0.003789019896710605</v>
+        <v>0.003782648693132324</v>
       </c>
       <c r="DF2">
-        <v>0.01637948141806842</v>
+        <v>0.01642650574278791</v>
       </c>
       <c r="DG2">
-        <v>0.01993626750885151</v>
+        <v>0.01999837598851142</v>
       </c>
       <c r="DH2">
-        <v>0.001859746947468015</v>
+        <v>0.001845193792165354</v>
       </c>
       <c r="DI2">
-        <v>0.000316536408079247</v>
+        <v>0.0002954385727515077</v>
       </c>
       <c r="DJ2">
-        <v>0.008814505224980644</v>
+        <v>0.008829446857599867</v>
       </c>
       <c r="DK2">
-        <v>0.003454494088172198</v>
+        <v>0.00344670417708698</v>
       </c>
       <c r="DL2">
-        <v>0.012662205323189</v>
+        <v>0.01269346486275124</v>
       </c>
       <c r="DM2">
-        <v>0.000306721377828729</v>
+        <v>0.0002855819174402566</v>
       </c>
       <c r="DN2">
-        <v>0.008971807228995606</v>
+        <v>0.008987415971680051</v>
       </c>
       <c r="DO2">
-        <v>0.00126286603223328</v>
+        <v>0.001245781534314961</v>
       </c>
       <c r="DP2">
-        <v>0.0009786254249783478</v>
+        <v>0.0009603354766194467</v>
       </c>
       <c r="DQ2">
-        <v>1.929471449247657E-06</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>3.333579385085982E-05</v>
+        <v>1.103691864183206E-05</v>
       </c>
       <c r="DS2">
-        <v>0.005683349145061295</v>
+        <v>0.005685011698689931</v>
       </c>
       <c r="DT2">
-        <v>0.002242812057245334</v>
+        <v>0.002229883462239713</v>
       </c>
       <c r="DU2">
-        <v>0.0009838710251122362</v>
+        <v>0.0009656033230856012</v>
       </c>
       <c r="DV2">
-        <v>1.929471449247657E-06</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.005412952138159706</v>
+        <v>0.005413467951376232</v>
       </c>
       <c r="DX2">
-        <v>0.00997381025457064</v>
+        <v>0.009993668442822731</v>
       </c>
       <c r="DY2">
-        <v>0.002995777976463969</v>
+        <v>0.00298604267290193</v>
       </c>
       <c r="DZ2">
-        <v>0.001005408425661955</v>
+        <v>0.0009872320626921577</v>
       </c>
       <c r="EA2">
-        <v>0.002845546572629476</v>
+        <v>0.002835174145069953</v>
       </c>
       <c r="EB2">
-        <v>0.000309661207903765</v>
+        <v>0.000288534215190103</v>
       </c>
       <c r="EC2">
-        <v>0.002289708758442322</v>
+        <v>0.002276979050040785</v>
       </c>
       <c r="ED2">
-        <v>2.234548457034415E-05</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001828678046675015</v>
+        <v>0.001813993129691604</v>
       </c>
       <c r="EF2">
-        <v>4.171344406469021E-05</v>
+        <v>1.945009805832929E-05</v>
       </c>
       <c r="EG2">
-        <v>0.002662128867947939</v>
+        <v>0.002650978574920655</v>
       </c>
       <c r="EH2">
-        <v>0.002138902754593163</v>
+        <v>0.00212553348534373</v>
       </c>
       <c r="EI2">
-        <v>0.00270618526907243</v>
+        <v>0.002695221817076267</v>
       </c>
       <c r="EJ2">
-        <v>0.003469890088565165</v>
+        <v>0.003462165471160664</v>
       </c>
       <c r="EK2">
-        <v>0.0006984394178269053</v>
+        <v>0.0006789612143871149</v>
       </c>
       <c r="EL2">
-        <v>0.003469890088565165</v>
+        <v>0.003462165471160664</v>
       </c>
       <c r="EM2">
-        <v>0.005291211135052399</v>
+        <v>0.005291210650660185</v>
       </c>
       <c r="EN2">
-        <v>0.003040915877616065</v>
+        <v>0.003031372001673591</v>
       </c>
       <c r="EO2">
-        <v>0.001032679226358012</v>
+        <v>0.001014618517513189</v>
       </c>
       <c r="EP2">
-        <v>6.265232659913238E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001123949928687597</v>
+        <v>0.001106276294403999</v>
       </c>
       <c r="ER2">
-        <v>0.001805145346074368</v>
+        <v>0.001790360628064703</v>
       </c>
       <c r="ES2">
-        <v>0.0006949863177387685</v>
+        <v>0.0006754934698712772</v>
       </c>
       <c r="ET2">
-        <v>0.0003786726296652063</v>
+        <v>0.0003578383109982647</v>
       </c>
       <c r="EU2">
-        <v>0.004246756508393833</v>
+        <v>0.004242326543280925</v>
       </c>
       <c r="EV2">
-        <v>0.004429857813067295</v>
+        <v>0.004426204371585269</v>
       </c>
       <c r="EW2">
-        <v>0.004174597706552058</v>
+        <v>0.004169861719508251</v>
       </c>
       <c r="EX2">
-        <v>0.007740493597567667</v>
+        <v>0.007750880399679177</v>
       </c>
       <c r="EY2">
-        <v>0.01779378445416696</v>
+        <v>0.01784680676852786</v>
       </c>
       <c r="EZ2">
-        <v>0.03260062683209548</v>
+        <v>0.03271644423699775</v>
       </c>
       <c r="FA2">
-        <v>0.02946161375197559</v>
+        <v>0.02956411875673572</v>
       </c>
       <c r="FB2">
-        <v>0.01491473138068227</v>
+        <v>0.01495554377250814</v>
       </c>
       <c r="FC2">
-        <v>0.0100983192577486</v>
+        <v>0.01011870548256164</v>
       </c>
       <c r="FD2">
-        <v>0.00251386006416354</v>
+        <v>0.002502080970429092</v>
       </c>
       <c r="FE2">
-        <v>0.0003954793900941806</v>
+        <v>0.0003747163480719081</v>
       </c>
       <c r="FF2">
-        <v>0.007729333197282809</v>
+        <v>0.007739672668685416</v>
       </c>
       <c r="FG2">
-        <v>0.02080919453113202</v>
+        <v>0.02087500505137567</v>
       </c>
       <c r="FH2">
-        <v>0.04241078408248906</v>
+        <v>0.04256820588197054</v>
       </c>
       <c r="FI2">
-        <v>0.05220024133235429</v>
+        <v>0.05239917973873047</v>
       </c>
       <c r="FJ2">
-        <v>0.03247743082895104</v>
+        <v>0.03259272576566095</v>
       </c>
       <c r="FK2">
-        <v>0.01811422446234585</v>
+        <v>0.01816860574702689</v>
       </c>
       <c r="FL2">
-        <v>0.007691997196329848</v>
+        <v>0.007702178327588051</v>
       </c>
       <c r="FM2">
-        <v>0.002289708758442322</v>
+        <v>0.002276979050040785</v>
       </c>
       <c r="FN2">
-        <v>0.0001014985425906397</v>
+        <v>7.948874224777272E-05</v>
       </c>
       <c r="FO2">
-        <v>0.0005890019150336322</v>
+        <v>0.0005690595925250274</v>
       </c>
       <c r="FP2">
-        <v>0.002222906356737263</v>
+        <v>0.002209893342634457</v>
       </c>
       <c r="FQ2">
-        <v>0.001358766234681028</v>
+        <v>0.001342088444806324</v>
       </c>
       <c r="FR2">
-        <v>0.000339637258668871</v>
+        <v>0.0003186373929127211</v>
       </c>
       <c r="FS2">
-        <v>0.002222721056732534</v>
+        <v>0.002209707256781518</v>
       </c>
       <c r="FT2">
-        <v>0.02157516655068262</v>
+        <v>0.02164422552060191</v>
       </c>
       <c r="FU2">
-        <v>0.03882500099096585</v>
+        <v>0.03896721566065243</v>
       </c>
       <c r="FV2">
-        <v>0.03754679095834093</v>
+        <v>0.03768358480212278</v>
       </c>
       <c r="FW2">
-        <v>0.02176293455547519</v>
+        <v>0.02183278984027113</v>
       </c>
       <c r="FX2">
-        <v>0.01384805735345658</v>
+        <v>0.01388434603317637</v>
       </c>
       <c r="FY2">
-        <v>0.00497232152691309</v>
+        <v>0.004970968647371072</v>
       </c>
       <c r="FZ2">
-        <v>2.569029365571676E-05</v>
+        <v>3.358994256255E-06</v>
       </c>
       <c r="GA2">
-        <v>0.0005623229143526797</v>
+        <v>0.0005422674475138692</v>
       </c>
       <c r="GB2">
-        <v>0.001353948134558051</v>
+        <v>0.001337249911357609</v>
       </c>
       <c r="GC2">
-        <v>0.002486255363458959</v>
+        <v>0.002474359199546017</v>
       </c>
       <c r="GD2">
-        <v>0.005960639152138821</v>
+        <v>0.005963477679054414</v>
       </c>
       <c r="GE2">
-        <v>0.00472213382052732</v>
+        <v>0.004719719907223084</v>
       </c>
       <c r="GF2">
-        <v>0.002655382767775752</v>
+        <v>0.002644203864869312</v>
       </c>
       <c r="GG2">
-        <v>0.001549485839548938</v>
+        <v>0.001533616882141685</v>
       </c>
       <c r="GH2">
-        <v>6.939555577124596E-07</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0004887971124760139</v>
+        <v>0.0004684298263263653</v>
       </c>
       <c r="GJ2">
-        <v>0.0003524131689949622</v>
+        <v>0.0003314674852463734</v>
       </c>
       <c r="GK2">
-        <v>1.016285525939581E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>2.50511066394022E-05</v>
+        <v>2.717096479230104E-06</v>
       </c>
       <c r="GM2">
-        <v>4.408249412515764E-09</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>5.015450528013911E-05</v>
+        <v>2.792695739938527E-05</v>
       </c>
       <c r="GO2">
-        <v>0.0001618974341322556</v>
+        <v>0.0001401437825188847</v>
       </c>
       <c r="GP2">
-        <v>0.0004354677611148402</v>
+        <v>0.0004148743078080245</v>
       </c>
       <c r="GQ2">
-        <v>0.0008732909522898001</v>
+        <v>0.0008545542856110319</v>
       </c>
       <c r="GR2">
-        <v>0.001571449840109545</v>
+        <v>0.001555674030948802</v>
       </c>
       <c r="GS2">
-        <v>0.0009104053232371039</v>
+        <v>0.0008918260567807826</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.039329498563723E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.037713394420176E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001001473198616037</v>
+        <v>2.056229387666622E-06</v>
       </c>
       <c r="E3">
-        <v>8.352491988457468E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002809317696117729</v>
+        <v>0.0001860220916626279</v>
       </c>
       <c r="G3">
-        <v>0.0003711033794871623</v>
+        <v>0.0002777805254569699</v>
       </c>
       <c r="H3">
-        <v>0.0002078165297128127</v>
+        <v>0.0001116201828035377</v>
       </c>
       <c r="I3">
-        <v>0.0001697556697654101</v>
+        <v>7.288953462651491E-05</v>
       </c>
       <c r="J3">
-        <v>0.0002682281796293283</v>
+        <v>0.0001730949461678822</v>
       </c>
       <c r="K3">
-        <v>0.0001709329097637832</v>
+        <v>7.408749148455535E-05</v>
       </c>
       <c r="L3">
-        <v>7.587718589514328E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.509351989622626E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.000138709959808313</v>
+        <v>4.12974877989897E-05</v>
       </c>
       <c r="O3">
-        <v>9.812664986439614E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0002730506996226639</v>
+        <v>0.0001780023320085242</v>
       </c>
       <c r="Q3">
-        <v>0.0001928188697335384</v>
+        <v>9.635859667703906E-05</v>
       </c>
       <c r="R3">
-        <v>9.06788298746885E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3.867597994655263E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.708433696257143E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.838191996077826E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>6.969161990369128E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001508742097915029</v>
+        <v>5.367580208530247E-05</v>
       </c>
       <c r="X3">
-        <v>0.0001741437197593461</v>
+        <v>7.735480474214509E-05</v>
       </c>
       <c r="Y3">
-        <v>0.0003445923195237986</v>
+        <v>0.0002508029285855396</v>
       </c>
       <c r="Z3">
-        <v>0.0005824012291951641</v>
+        <v>0.0004927967570637006</v>
       </c>
       <c r="AA3">
-        <v>0.0005775137692019183</v>
+        <v>0.0004878232884206045</v>
       </c>
       <c r="AB3">
-        <v>0.0005661897592175672</v>
+        <v>0.0004763000005268709</v>
       </c>
       <c r="AC3">
-        <v>0.0009017861987537975</v>
+        <v>0.0008178022063914091</v>
       </c>
       <c r="AD3">
-        <v>0.0007527632389597363</v>
+        <v>0.0006661567671118301</v>
       </c>
       <c r="AE3">
-        <v>0.0003483699695185782</v>
+        <v>0.0002546470569916221</v>
       </c>
       <c r="AF3">
-        <v>0.0002900145495992211</v>
+        <v>0.0001952647087934363</v>
       </c>
       <c r="AG3">
-        <v>0.0001044439398556661</v>
+        <v>6.428460534581325E-06</v>
       </c>
       <c r="AH3">
-        <v>1.006779298608705E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.812919097494679E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>6.310807991278926E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0002318808696795576</v>
+        <v>0.0001361080027359371</v>
       </c>
       <c r="AL3">
-        <v>0.0005113334992933745</v>
+        <v>0.0004204783899177755</v>
       </c>
       <c r="AM3">
-        <v>0.000549234499240998</v>
+        <v>0.0004590463649072356</v>
       </c>
       <c r="AN3">
-        <v>0.0008406677488382587</v>
+        <v>0.0007556082048876342</v>
       </c>
       <c r="AO3">
-        <v>0.0006798574490604868</v>
+        <v>0.0005919679941162144</v>
       </c>
       <c r="AP3">
-        <v>0.000558255299228532</v>
+        <v>0.0004682259113251381</v>
       </c>
       <c r="AQ3">
-        <v>0.0006257120391353118</v>
+        <v>0.000536869742917722</v>
       </c>
       <c r="AR3">
-        <v>0.0006279702991321911</v>
+        <v>0.0005391677433715279</v>
       </c>
       <c r="AS3">
-        <v>0.0003838078694696056</v>
+        <v>0.0002907085867897539</v>
       </c>
       <c r="AT3">
-        <v>0.0001222335398310822</v>
+        <v>2.453111871965561E-05</v>
       </c>
       <c r="AU3">
-        <v>4.943205593168852E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1.975411097270126E-07</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>2.36581289673062E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0001533773497880437</v>
+        <v>5.622299189335811E-05</v>
       </c>
       <c r="AY3">
-        <v>0.0003099301195716993</v>
+        <v>0.0002155307494166611</v>
       </c>
       <c r="AZ3">
-        <v>0.000237351919671997</v>
+        <v>0.000141675331291017</v>
       </c>
       <c r="BA3">
-        <v>0.0002659580796324654</v>
+        <v>0.0001707848973558832</v>
       </c>
       <c r="BB3">
-        <v>0.0002270441196862417</v>
+        <v>0.0001311861364783114</v>
       </c>
       <c r="BC3">
-        <v>0.0003500555495162489</v>
+        <v>0.0002563622995256644</v>
       </c>
       <c r="BD3">
-        <v>0.0003736446394836505</v>
+        <v>0.0002803665060939376</v>
       </c>
       <c r="BE3">
-        <v>0.0003701656794884581</v>
+        <v>0.0002768263239808184</v>
       </c>
       <c r="BF3">
-        <v>0.0005824012291951641</v>
+        <v>0.0004927967570637006</v>
       </c>
       <c r="BG3">
-        <v>0.0002536016396495411</v>
+        <v>0.0001582110109444755</v>
       </c>
       <c r="BH3">
-        <v>0.0001145884998416471</v>
+        <v>1.675154267909145E-05</v>
       </c>
       <c r="BI3">
-        <v>0.0001326273198167188</v>
+        <v>3.510780659295581E-05</v>
       </c>
       <c r="BJ3">
-        <v>9.302144987145116E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>5.679670692151111E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>3.377122295333064E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>2.94627029592847E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.231376898298327E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>5.940226391791042E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0001119868198452424</v>
+        <v>1.410407878181753E-05</v>
       </c>
       <c r="BQ3">
-        <v>0.0002515087796524333</v>
+        <v>0.0001560813211701571</v>
       </c>
       <c r="BR3">
-        <v>0.00059948179917156</v>
+        <v>0.0005101779078662051</v>
       </c>
       <c r="BS3">
-        <v>0.0005694999692129927</v>
+        <v>0.0004796684630078044</v>
       </c>
       <c r="BT3">
-        <v>0.0003728429994847583</v>
+        <v>0.0002795507589772243</v>
       </c>
       <c r="BU3">
-        <v>0.0005006814593080949</v>
+        <v>0.0004096388972313892</v>
       </c>
       <c r="BV3">
-        <v>0.0007174036990086007</v>
+        <v>0.000630174976278902</v>
       </c>
       <c r="BW3">
-        <v>0.0006184006991454155</v>
+        <v>0.0005294297392698118</v>
       </c>
       <c r="BX3">
-        <v>0.0004344109593996758</v>
+        <v>0.0003422021808772292</v>
       </c>
       <c r="BY3">
-        <v>0.0003159775795633421</v>
+        <v>0.0002216846315313747</v>
       </c>
       <c r="BZ3">
-        <v>9.812664986439614E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>2.378795596712679E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>7.115089390167467E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>6.584040390901338E-06</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1.516768497903937E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0001472949497964492</v>
+        <v>5.003355491080113E-05</v>
       </c>
       <c r="CF3">
-        <v>0.0003016495295831424</v>
+        <v>0.0002071044390813672</v>
       </c>
       <c r="CG3">
-        <v>0.0003183228795601011</v>
+        <v>0.0002240712036994647</v>
       </c>
       <c r="CH3">
-        <v>0.0003908374994598912</v>
+        <v>0.0002978619229556903</v>
       </c>
       <c r="CI3">
-        <v>0.0003555617295086398</v>
+        <v>0.0002619653762921737</v>
       </c>
       <c r="CJ3">
-        <v>0.0004414137193899985</v>
+        <v>0.0003493281741897325</v>
       </c>
       <c r="CK3">
-        <v>0.0002981349795879993</v>
+        <v>0.0002035280406618214</v>
       </c>
       <c r="CL3">
-        <v>0.0002475336396579266</v>
+        <v>0.0001520362273705317</v>
       </c>
       <c r="CM3">
-        <v>0.0003375129295335819</v>
+        <v>0.0002435989567520621</v>
       </c>
       <c r="CN3">
-        <v>0.0001308569898191652</v>
+        <v>3.330632264363809E-05</v>
       </c>
       <c r="CO3">
-        <v>0.1290489698216638</v>
+        <v>0.1312200971265295</v>
       </c>
       <c r="CP3">
-        <v>0.002326058496785557</v>
+        <v>0.002267138594470375</v>
       </c>
       <c r="CQ3">
-        <v>0.05527162592361866</v>
+        <v>0.05614443268018774</v>
       </c>
       <c r="CR3">
-        <v>0.02847156996065438</v>
+        <v>0.02887275410906479</v>
       </c>
       <c r="CS3">
-        <v>0.00519625899281915</v>
+        <v>0.005187848367266237</v>
       </c>
       <c r="CT3">
-        <v>0.00249299779655486</v>
+        <v>0.002437015662282781</v>
       </c>
       <c r="CU3">
-        <v>0.02843733496070169</v>
+        <v>0.02883791664768476</v>
       </c>
       <c r="CV3">
-        <v>0.01417482098041144</v>
+        <v>0.01432441348843236</v>
       </c>
       <c r="CW3">
-        <v>0.0007696606989363854</v>
+        <v>0.0006833515855774487</v>
       </c>
       <c r="CX3">
-        <v>0.0002468812496588282</v>
+        <v>0.0001513723567285071</v>
       </c>
       <c r="CY3">
-        <v>0.0387555299464427</v>
+        <v>0.03933768938973307</v>
       </c>
       <c r="CZ3">
-        <v>0.05013688993071449</v>
+        <v>0.05091933651846429</v>
       </c>
       <c r="DA3">
-        <v>0.0004910605493213902</v>
+        <v>0.0003998486801855105</v>
       </c>
       <c r="DB3">
-        <v>0.000551350499238074</v>
+        <v>0.0004611996018951172</v>
       </c>
       <c r="DC3">
-        <v>0.009656081986656002</v>
+        <v>0.00972615453125714</v>
       </c>
       <c r="DD3">
-        <v>0.01276682198235719</v>
+        <v>0.01289163677496346</v>
       </c>
       <c r="DE3">
-        <v>0.004647762493577133</v>
+        <v>0.00462969952439121</v>
       </c>
       <c r="DF3">
-        <v>0.03037830295801941</v>
+        <v>0.03081304145387306</v>
       </c>
       <c r="DG3">
-        <v>0.01424201948031857</v>
+        <v>0.01439279453556382</v>
       </c>
       <c r="DH3">
-        <v>1.022293098587266E-05</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0008062701688857936</v>
+        <v>0.0007206053024539792</v>
       </c>
       <c r="DJ3">
-        <v>0.01946952797309454</v>
+        <v>0.01971229579107661</v>
       </c>
       <c r="DK3">
-        <v>0.01472779697964726</v>
+        <v>0.01488712066074369</v>
       </c>
       <c r="DL3">
-        <v>0.02767753796175167</v>
+        <v>0.02806474887656878</v>
       </c>
       <c r="DM3">
-        <v>0.001396494898070146</v>
+        <v>0.001321216701224483</v>
       </c>
       <c r="DN3">
-        <v>0.03767624494793419</v>
+        <v>0.03823941132618594</v>
       </c>
       <c r="DO3">
-        <v>0.002750586496198891</v>
+        <v>0.002699137361952117</v>
       </c>
       <c r="DP3">
-        <v>0.0179427039752045</v>
+        <v>0.01815860301660344</v>
       </c>
       <c r="DQ3">
-        <v>0.003057733195774437</v>
+        <v>0.00301168917440285</v>
       </c>
       <c r="DR3">
-        <v>0.004200930194194622</v>
+        <v>0.004175003949844815</v>
       </c>
       <c r="DS3">
-        <v>0.001421039598036227</v>
+        <v>0.001346193334445871</v>
       </c>
       <c r="DT3">
-        <v>0.004514734693760967</v>
+        <v>0.004494330725063939</v>
       </c>
       <c r="DU3">
-        <v>0.001025020498583497</v>
+        <v>0.0009432051614649857</v>
       </c>
       <c r="DV3">
-        <v>0.0006669836990782774</v>
+        <v>0.0005788676941763563</v>
       </c>
       <c r="DW3">
-        <v>0.003052747595781326</v>
+        <v>0.003006615838709664</v>
       </c>
       <c r="DX3">
-        <v>0.02365264896731377</v>
+        <v>0.02396903060297829</v>
       </c>
       <c r="DY3">
-        <v>0.003020439795825973</v>
+        <v>0.002973739491849041</v>
       </c>
       <c r="DZ3">
-        <v>3.734417694839308E-09</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.008845130987776676</v>
+        <v>0.008900932561238466</v>
       </c>
       <c r="EB3">
-        <v>0.002037448297184395</v>
+        <v>0.001973449484016743</v>
       </c>
       <c r="EC3">
-        <v>0.003902426994607132</v>
+        <v>0.003871247744154362</v>
       </c>
       <c r="ED3">
-        <v>0.003985980994491666</v>
+        <v>0.003956272112436712</v>
       </c>
       <c r="EE3">
-        <v>0.0005215002492793249</v>
+        <v>0.0004308240525579194</v>
       </c>
       <c r="EF3">
-        <v>0.002168765997002924</v>
+        <v>0.002107078089311417</v>
       </c>
       <c r="EG3">
-        <v>0.004023082594440394</v>
+        <v>0.003994026619728577</v>
       </c>
       <c r="EH3">
-        <v>0.006620444990851029</v>
+        <v>0.006637096936653306</v>
       </c>
       <c r="EI3">
-        <v>0.001274691898238469</v>
+        <v>0.001197270233911188</v>
       </c>
       <c r="EJ3">
-        <v>1.185765198361359E-06</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>3.786214794767729E-06</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.005781031692011037</v>
+        <v>0.005782911792192204</v>
       </c>
       <c r="EM3">
-        <v>0.005199770392814299</v>
+        <v>0.00519142156025265</v>
       </c>
       <c r="EN3">
-        <v>0.001571152197828783</v>
+        <v>0.001498947589014426</v>
       </c>
       <c r="EO3">
-        <v>0.001080623098506658</v>
+        <v>0.0009997862460313287</v>
       </c>
       <c r="EP3">
-        <v>7.334514489864238E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.001106723398470589</v>
+        <v>0.001026345854422068</v>
       </c>
       <c r="ER3">
-        <v>0.002820804996101854</v>
+        <v>0.002770591554501058</v>
       </c>
       <c r="ES3">
-        <v>0.00458189239366816</v>
+        <v>0.004562670254204322</v>
       </c>
       <c r="ET3">
-        <v>0.0002590747996419776</v>
+        <v>0.0001637804866309564</v>
       </c>
       <c r="EU3">
-        <v>0.001432111698020926</v>
+        <v>0.001357460279272677</v>
       </c>
       <c r="EV3">
-        <v>0.0004273150994094818</v>
+        <v>0.0003349814492076502</v>
       </c>
       <c r="EW3">
-        <v>5.116559292929289E-05</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.008035342988895744</v>
+        <v>0.008076894057484872</v>
       </c>
       <c r="EY3">
-        <v>0.02588795896422473</v>
+        <v>0.02624367718680695</v>
       </c>
       <c r="EZ3">
-        <v>0.03062183795768286</v>
+        <v>0.0310608621390544</v>
       </c>
       <c r="FA3">
-        <v>0.02513521996526497</v>
+        <v>0.02547769162110707</v>
       </c>
       <c r="FB3">
-        <v>0.008208076988657038</v>
+        <v>0.008252667799386918</v>
       </c>
       <c r="FC3">
-        <v>0.009722671486563981</v>
+        <v>0.009793915861315994</v>
       </c>
       <c r="FD3">
-        <v>0.004903048993224345</v>
+        <v>0.004889478510358514</v>
       </c>
       <c r="FE3">
-        <v>3.60356999502013E-05</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.002283836996843904</v>
+        <v>0.002224174088098049</v>
       </c>
       <c r="FG3">
-        <v>0.01134899398431652</v>
+        <v>0.01144885809251824</v>
       </c>
       <c r="FH3">
-        <v>0.02392797496693329</v>
+        <v>0.0242492017404667</v>
       </c>
       <c r="FI3">
-        <v>0.02848678996063334</v>
+        <v>0.02888824194789066</v>
       </c>
       <c r="FJ3">
-        <v>0.01380939898091642</v>
+        <v>0.01395256085772081</v>
       </c>
       <c r="FK3">
-        <v>0.007184233490071915</v>
+        <v>0.007210806885397277</v>
       </c>
       <c r="FL3">
-        <v>0.003889758994624638</v>
+        <v>0.003858356814966043</v>
       </c>
       <c r="FM3">
-        <v>0.002504450496539033</v>
+        <v>0.002448669904840016</v>
       </c>
       <c r="FN3">
-        <v>0.0001028735858578362</v>
+        <v>4.830471726987909E-06</v>
       </c>
       <c r="FO3">
-        <v>0.000203612039718623</v>
+        <v>0.0001073417029438128</v>
       </c>
       <c r="FP3">
-        <v>0.002660276396323693</v>
+        <v>0.002607238001035634</v>
       </c>
       <c r="FQ3">
-        <v>0.002847214996065358</v>
+        <v>0.002797466312936763</v>
       </c>
       <c r="FR3">
-        <v>0.0004836729793315993</v>
+        <v>0.0003923311050557543</v>
       </c>
       <c r="FS3">
-        <v>0.001079763198507846</v>
+        <v>0.0009989112136656012</v>
       </c>
       <c r="FT3">
-        <v>0.01390719298078128</v>
+        <v>0.01405207581896509</v>
       </c>
       <c r="FU3">
-        <v>0.03312132995422874</v>
+        <v>0.03360433975026138</v>
       </c>
       <c r="FV3">
-        <v>0.02100531797097219</v>
+        <v>0.02127511234760712</v>
       </c>
       <c r="FW3">
-        <v>0.008197864988671151</v>
+        <v>0.008242276090445403</v>
       </c>
       <c r="FX3">
-        <v>0.002989536595868679</v>
+        <v>0.002942292462886895</v>
       </c>
       <c r="FY3">
-        <v>0.0004296489994062565</v>
+        <v>0.0003373564207605882</v>
       </c>
       <c r="FZ3">
-        <v>0.001522376597896187</v>
+        <v>0.001449313644767681</v>
       </c>
       <c r="GA3">
-        <v>0.005386792592555847</v>
+        <v>0.00538173494333156</v>
       </c>
       <c r="GB3">
-        <v>0.003188992895593045</v>
+        <v>0.003145258759023943</v>
       </c>
       <c r="GC3">
-        <v>0.001807343197502384</v>
+        <v>0.001739295035803049</v>
       </c>
       <c r="GD3">
-        <v>0.00526828899271961</v>
+        <v>0.00526114593826676</v>
       </c>
       <c r="GE3">
-        <v>0.004314223994038058</v>
+        <v>0.004290291473785103</v>
       </c>
       <c r="GF3">
-        <v>0.0003989751294486456</v>
+        <v>0.0003061427575065856</v>
       </c>
       <c r="GG3">
-        <v>1.132088098435537E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0004639615993588391</v>
+        <v>0.0003722728477314689</v>
       </c>
       <c r="GI3">
-        <v>0.0002415391196662106</v>
+        <v>0.0001459362168844279</v>
       </c>
       <c r="GJ3">
-        <v>0.0001868660897417647</v>
+        <v>9.030106072395714E-05</v>
       </c>
       <c r="GK3">
-        <v>0.0004344109593996758</v>
+        <v>0.0003422021808772292</v>
       </c>
       <c r="GL3">
-        <v>0.000432533039402271</v>
+        <v>0.0003402912135784189</v>
       </c>
       <c r="GM3">
-        <v>0.001035762098568653</v>
+        <v>0.0009541357902121634</v>
       </c>
       <c r="GN3">
-        <v>0.001192991598351373</v>
+        <v>0.001114132186708439</v>
       </c>
       <c r="GO3">
-        <v>0.001900388297373802</v>
+        <v>0.001833977526758217</v>
       </c>
       <c r="GP3">
-        <v>0.001382206098089892</v>
+        <v>0.001306676449488925</v>
       </c>
       <c r="GQ3">
-        <v>0.0007764569589269933</v>
+        <v>0.0006902674449400476</v>
       </c>
       <c r="GR3">
-        <v>5.460892992453445E-05</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>8.42726198835414E-07</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0007115367051817137</v>
+        <v>0.0006744828789622734</v>
       </c>
       <c r="C4">
-        <v>0.0001370700252190195</v>
+        <v>9.560562397760979E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001500339947668383</v>
+        <v>0.0001086691268182506</v>
       </c>
       <c r="E4">
-        <v>1.660306742088767E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001783802537781253</v>
+        <v>0.0001372330195171338</v>
       </c>
       <c r="G4">
-        <v>0.0004531774841932419</v>
+        <v>0.0004141400568938204</v>
       </c>
       <c r="H4">
-        <v>0.0004740264634660328</v>
+        <v>0.0004351491080914444</v>
       </c>
       <c r="I4">
-        <v>0.0004740264634660328</v>
+        <v>0.0004351491080914444</v>
       </c>
       <c r="J4">
-        <v>0.0006117811786611704</v>
+        <v>0.0005739614607914023</v>
       </c>
       <c r="K4">
-        <v>0.001407926250891758</v>
+        <v>0.001376219085223751</v>
       </c>
       <c r="L4">
-        <v>0.001270393055688893</v>
+        <v>0.0012376299532771</v>
       </c>
       <c r="M4">
-        <v>0.00159546404435047</v>
+        <v>0.001565196735050735</v>
       </c>
       <c r="N4">
-        <v>0.001485923048171242</v>
+        <v>0.001454814717453761</v>
       </c>
       <c r="O4">
-        <v>0.0009521979067874895</v>
+        <v>0.000916991801805125</v>
       </c>
       <c r="P4">
-        <v>0.0004871380030087044</v>
+        <v>0.0004483613139230821</v>
       </c>
       <c r="Q4">
-        <v>0.0003883757064535175</v>
+        <v>0.0003488407514257748</v>
       </c>
       <c r="R4">
-        <v>0.0001155595359693019</v>
+        <v>7.392998393689891E-05</v>
       </c>
       <c r="S4">
-        <v>3.003928295223462E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3.210286888025707E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>4.219283852832055E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0003375424582265731</v>
+        <v>0.0002976172214597226</v>
       </c>
       <c r="W4">
-        <v>0.0006637446068486944</v>
+        <v>0.0006263238478853588</v>
       </c>
       <c r="X4">
-        <v>0.0008432402105879164</v>
+        <v>0.0008071975625821336</v>
       </c>
       <c r="Y4">
-        <v>0.000900417868593569</v>
+        <v>0.0008648142127156338</v>
       </c>
       <c r="Z4">
-        <v>0.001071052162641872</v>
+        <v>0.001036758583364498</v>
       </c>
       <c r="AA4">
-        <v>0.001291042954968628</v>
+        <v>0.001258438396007911</v>
       </c>
       <c r="AB4">
-        <v>0.0008391100307319764</v>
+        <v>0.0008030356725004412</v>
       </c>
       <c r="AC4">
-        <v>0.0009297099675718652</v>
+        <v>0.0008943312072441874</v>
       </c>
       <c r="AD4">
-        <v>0.0004503081542933236</v>
+        <v>0.0004112486971787226</v>
       </c>
       <c r="AE4">
-        <v>0.0003812578067017887</v>
+        <v>0.0003416682026718517</v>
       </c>
       <c r="AF4">
-        <v>0.0001400874951137706</v>
+        <v>9.864626105996561E-05</v>
       </c>
       <c r="AG4">
-        <v>4.636107238293322E-05</v>
+        <v>4.20023624703354E-06</v>
       </c>
       <c r="AH4">
-        <v>1.2379328568211E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001343295553146066</v>
+        <v>9.284411360465377E-05</v>
       </c>
       <c r="AJ4">
-        <v>0.0002823122901529925</v>
+        <v>0.0002419630134752802</v>
       </c>
       <c r="AK4">
-        <v>0.0001849055635505235</v>
+        <v>0.0001438084285716952</v>
       </c>
       <c r="AL4">
-        <v>0.0001233405556979012</v>
+        <v>8.177074389492741E-05</v>
       </c>
       <c r="AM4">
-        <v>0.0003673395371872558</v>
+        <v>0.000327643073048611</v>
       </c>
       <c r="AN4">
-        <v>0.0004405344246342298</v>
+        <v>0.0004013999278882464</v>
       </c>
       <c r="AO4">
-        <v>0.0003224052387545569</v>
+        <v>0.000282363783163475</v>
       </c>
       <c r="AP4">
-        <v>0.0003957067561978117</v>
+        <v>0.0003562280866710647</v>
       </c>
       <c r="AQ4">
-        <v>0.0003629855173391233</v>
+        <v>0.0003232556244014599</v>
       </c>
       <c r="AR4">
-        <v>6.725280165423304E-05</v>
+        <v>2.525236566424909E-05</v>
       </c>
       <c r="AS4">
-        <v>9.362956673421571E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0001287764555082978</v>
+        <v>8.724837883942657E-05</v>
       </c>
       <c r="AU4">
-        <v>0.0001359851252568606</v>
+        <v>9.451239449375485E-05</v>
       </c>
       <c r="AV4">
-        <v>2.440028914892182E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>6.634291168596987E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001027691724154277</v>
+        <v>6.104141998258324E-05</v>
       </c>
       <c r="AY4">
-        <v>7.767125229083916E-05</v>
+        <v>3.575080589772517E-05</v>
       </c>
       <c r="AZ4">
-        <v>1.380097451862422E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>2.502751912704414E-07</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>8.518943702860608E-05</v>
+        <v>4.332671290028402E-05</v>
       </c>
       <c r="BC4">
-        <v>0.0003154168889983094</v>
+        <v>0.000275321779049273</v>
       </c>
       <c r="BD4">
-        <v>0.0003443792379881073</v>
+        <v>0.0003045064918723228</v>
       </c>
       <c r="BE4">
-        <v>0.0003486205378401714</v>
+        <v>0.0003087803550946234</v>
       </c>
       <c r="BF4">
-        <v>0.000335452628299466</v>
+        <v>0.0002955113464737842</v>
       </c>
       <c r="BG4">
-        <v>0.0006419139776101433</v>
+        <v>0.0006043256099213726</v>
       </c>
       <c r="BH4">
-        <v>0.0005082701522716184</v>
+        <v>0.0004696557092012142</v>
       </c>
       <c r="BI4">
-        <v>0.0002945298197268471</v>
+        <v>0.0002542743454099124</v>
       </c>
       <c r="BJ4">
-        <v>0.0001327694253690237</v>
+        <v>9.127200547058921E-05</v>
       </c>
       <c r="BK4">
-        <v>2.793274602571029E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>3.769449868522192E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>6.61502376926903E-05</v>
+        <v>2.414133656236224E-05</v>
       </c>
       <c r="BN4">
-        <v>1.046189813509067E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.256048856189217E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001195740258292771</v>
+        <v>7.79752957911167E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0001065569362833111</v>
+        <v>6.485826511364085E-05</v>
       </c>
       <c r="BR4">
-        <v>5.586823505132491E-05</v>
+        <v>1.378039192904568E-05</v>
       </c>
       <c r="BS4">
-        <v>2.611775108901703E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>5.586823505132491E-05</v>
+        <v>1.378039192904568E-05</v>
       </c>
       <c r="BU4">
-        <v>9.679526662379661E-05</v>
+        <v>5.50216484156388E-05</v>
       </c>
       <c r="BV4">
-        <v>0.0001734693939494153</v>
+        <v>0.0001322844556466536</v>
       </c>
       <c r="BW4">
-        <v>6.154031785348357E-05</v>
+        <v>1.949602320425306E-05</v>
       </c>
       <c r="BX4">
-        <v>4.086040157479573E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>3.923829563137453E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>2.609301308987988E-07</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>3.130106890822373E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>8.750247694792761E-05</v>
+        <v>4.56575116147608E-05</v>
       </c>
       <c r="CC4">
-        <v>4.232984852354166E-05</v>
+        <v>1.38061914999507E-07</v>
       </c>
       <c r="CD4">
-        <v>7.224719348002946E-05</v>
+        <v>3.028510286429457E-05</v>
       </c>
       <c r="CE4">
-        <v>1.668905441788845E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>3.854792165545467E-06</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>2.744417604275153E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>6.819032362153243E-05</v>
+        <v>2.619708563121625E-05</v>
       </c>
       <c r="CI4">
-        <v>1.433508049999469E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>6.87560006018017E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>3.420417280696393E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.502751912704414E-07</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>5.66461430241916E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01453465449303358</v>
+        <v>0.0146037302304031</v>
       </c>
       <c r="CO4">
-        <v>0.05360296213033727</v>
+        <v>0.05397199208233051</v>
       </c>
       <c r="CP4">
-        <v>0.001683399341283301</v>
+        <v>0.00165380717161782</v>
       </c>
       <c r="CQ4">
-        <v>0.05938403092869451</v>
+        <v>0.05979744611403841</v>
       </c>
       <c r="CR4">
-        <v>0.1000106825116434</v>
+        <v>0.1007360163877452</v>
       </c>
       <c r="CS4">
-        <v>0.003447589079748645</v>
+        <v>0.003431541805663523</v>
       </c>
       <c r="CT4">
-        <v>0.01460430249060427</v>
+        <v>0.01467391296345825</v>
       </c>
       <c r="CU4">
-        <v>0.0001274868655532786</v>
+        <v>8.594888781713467E-05</v>
       </c>
       <c r="CV4">
-        <v>0.003027655794395851</v>
+        <v>0.003008384404232506</v>
       </c>
       <c r="CW4">
-        <v>3.055033293440927E-05</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.0006637446068486944</v>
+        <v>0.0006263238478853588</v>
       </c>
       <c r="CY4">
-        <v>0.02741021204393619</v>
+        <v>0.02757814227454043</v>
       </c>
       <c r="CZ4">
-        <v>0.0504269432411163</v>
+        <v>0.05077158871604464</v>
       </c>
       <c r="DA4">
-        <v>0.02901747698787505</v>
+        <v>0.02919774729469725</v>
       </c>
       <c r="DB4">
-        <v>0.008774695693940019</v>
+        <v>0.008799548273913353</v>
       </c>
       <c r="DC4">
-        <v>0.004966764826760037</v>
+        <v>0.004962381307662733</v>
       </c>
       <c r="DD4">
-        <v>0.002281150720433828</v>
+        <v>0.002256147898408841</v>
       </c>
       <c r="DE4">
-        <v>0.008479111704249942</v>
+        <v>0.008501694883042504</v>
       </c>
       <c r="DF4">
-        <v>0.01649280242473369</v>
+        <v>0.01657691220786795</v>
       </c>
       <c r="DG4">
-        <v>0.01210244357786871</v>
+        <v>0.01215284556254767</v>
       </c>
       <c r="DH4">
-        <v>0.0003154168889983094</v>
+        <v>0.000275321779049273</v>
       </c>
       <c r="DI4">
-        <v>0.0001272490155615747</v>
+        <v>8.570921168778179E-05</v>
       </c>
       <c r="DJ4">
-        <v>0.01054259863227585</v>
+        <v>0.01058102461661372</v>
       </c>
       <c r="DK4">
-        <v>0.002109385226424981</v>
+        <v>0.002083063642800869</v>
       </c>
       <c r="DL4">
-        <v>0.004259283551436871</v>
+        <v>0.004249468212966416</v>
       </c>
       <c r="DM4">
-        <v>0.00077757897287817</v>
+        <v>0.0007410321984799339</v>
       </c>
       <c r="DN4">
-        <v>0.007112419451919948</v>
+        <v>0.007124509596179616</v>
       </c>
       <c r="DO4">
-        <v>0.004957254327091763</v>
+        <v>0.004952797789360399</v>
       </c>
       <c r="DP4">
-        <v>0.0008358130708469738</v>
+        <v>0.0007997133995913338</v>
       </c>
       <c r="DQ4">
-        <v>0.0002427724115321371</v>
+        <v>0.0002021195600656691</v>
       </c>
       <c r="DR4">
-        <v>0.0001208230557857112</v>
+        <v>7.92339154078734E-05</v>
       </c>
       <c r="DS4">
-        <v>0.006533206772122793</v>
+        <v>0.00654084990306206</v>
       </c>
       <c r="DT4">
-        <v>0.0007412730241445156</v>
+        <v>0.0007044475040570708</v>
       </c>
       <c r="DU4">
-        <v>0.0006147858785563671</v>
+        <v>0.0005769892298301516</v>
       </c>
       <c r="DV4">
-        <v>2.734955704605182E-06</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.009187638679536633</v>
+        <v>0.009215661706258746</v>
       </c>
       <c r="DX4">
-        <v>0.01040775063697932</v>
+        <v>0.01044514130069624</v>
       </c>
       <c r="DY4">
-        <v>0.005155191120187759</v>
+        <v>0.005152254279082865</v>
       </c>
       <c r="DZ4">
-        <v>0.002672044206799526</v>
+        <v>0.002650042542382717</v>
       </c>
       <c r="EA4">
-        <v>0.002415008715764882</v>
+        <v>0.00239103361345157</v>
       </c>
       <c r="EB4">
-        <v>0.0002964882496585374</v>
+        <v>0.0002562478115524749</v>
       </c>
       <c r="EC4">
-        <v>0.0003133968190687692</v>
+        <v>0.0002732861996562867</v>
       </c>
       <c r="ED4">
-        <v>2.68505990634554E-05</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004498620343088842</v>
+        <v>0.004490642557451159</v>
       </c>
       <c r="EF4">
-        <v>7.014684755328918E-05</v>
+        <v>2.816863114017545E-05</v>
       </c>
       <c r="EG4">
-        <v>0.003236855287099006</v>
+        <v>0.003219190065037848</v>
       </c>
       <c r="EH4">
-        <v>0.003202916288282792</v>
+        <v>0.003184990493231641</v>
       </c>
       <c r="EI4">
-        <v>0.004931219827999842</v>
+        <v>0.004926563405548599</v>
       </c>
       <c r="EJ4">
-        <v>0.003113286891409052</v>
+        <v>0.003094672949955552</v>
       </c>
       <c r="EK4">
-        <v>0.0005224946817754692</v>
+        <v>0.0004839894501819308</v>
       </c>
       <c r="EL4">
-        <v>0.002740584404408855</v>
+        <v>0.002719108970135797</v>
       </c>
       <c r="EM4">
-        <v>0.006492430773545054</v>
+        <v>0.00649976083915417</v>
       </c>
       <c r="EN4">
-        <v>0.005837433796391243</v>
+        <v>0.005839735000610022</v>
       </c>
       <c r="EO4">
-        <v>0.001160462259523262</v>
+        <v>0.001126855142931665</v>
       </c>
       <c r="EP4">
-        <v>0.00077757897287817</v>
+        <v>0.0007410321984799339</v>
       </c>
       <c r="EQ4">
-        <v>0.002267920120895309</v>
+        <v>0.002242815718476044</v>
       </c>
       <c r="ER4">
-        <v>0.00285659510036242</v>
+        <v>0.002836010359833144</v>
       </c>
       <c r="ES4">
-        <v>0.001139215160264357</v>
+        <v>0.00110544491510752</v>
       </c>
       <c r="ET4">
-        <v>0.0005594132804877544</v>
+        <v>0.0005211914983178397</v>
       </c>
       <c r="EU4">
-        <v>0.003176761189195078</v>
+        <v>0.003158634583495099</v>
       </c>
       <c r="EV4">
-        <v>0.004581137840210646</v>
+        <v>0.004573793598039233</v>
       </c>
       <c r="EW4">
-        <v>0.00334920028318043</v>
+        <v>0.003332397610768962</v>
       </c>
       <c r="EX4">
-        <v>0.006416327076199539</v>
+        <v>0.006423072841485766</v>
       </c>
       <c r="EY4">
-        <v>0.01731383139609633</v>
+        <v>0.01740424478220656</v>
       </c>
       <c r="EZ4">
-        <v>0.03826254466540857</v>
+        <v>0.03851379570270168</v>
       </c>
       <c r="FA4">
-        <v>0.03377816882182288</v>
+        <v>0.03399499022764263</v>
       </c>
       <c r="FB4">
-        <v>0.02208185522978843</v>
+        <v>0.02220887600769099</v>
       </c>
       <c r="FC4">
-        <v>0.01516981247087937</v>
+        <v>0.01524376475202384</v>
       </c>
       <c r="FD4">
-        <v>0.002462831514096831</v>
+        <v>0.002439223580232379</v>
       </c>
       <c r="FE4">
-        <v>0.0001716958940112747</v>
+        <v>0.0001304973393321392</v>
       </c>
       <c r="FF4">
-        <v>0.004194954253680667</v>
+        <v>0.004184645015035039</v>
       </c>
       <c r="FG4">
-        <v>0.01688279741113073</v>
+        <v>0.01696990145347217</v>
       </c>
       <c r="FH4">
-        <v>0.03818603066807737</v>
+        <v>0.03843669425489296</v>
       </c>
       <c r="FI4">
-        <v>0.04276831250824811</v>
+        <v>0.04305415741807653</v>
       </c>
       <c r="FJ4">
-        <v>0.02676922206629382</v>
+        <v>0.02693223097685752</v>
       </c>
       <c r="FK4">
-        <v>0.01564800545420007</v>
+        <v>0.01572562915111413</v>
       </c>
       <c r="FL4">
-        <v>0.007276691246190174</v>
+        <v>0.007290042617772321</v>
       </c>
       <c r="FM4">
-        <v>0.002665070007042785</v>
+        <v>0.002643014796907281</v>
       </c>
       <c r="FN4">
-        <v>0.0002335426218540707</v>
+        <v>0.0001928189069568207</v>
       </c>
       <c r="FO4">
-        <v>0.002397209816385705</v>
+        <v>0.00237309805970451</v>
       </c>
       <c r="FP4">
-        <v>0.003917462863359523</v>
+        <v>0.003905023132837426</v>
       </c>
       <c r="FQ4">
-        <v>0.00225708232127333</v>
+        <v>0.002231894709627189</v>
       </c>
       <c r="FR4">
-        <v>1.433508049999469E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0007576467735734018</v>
+        <v>0.0007209469659994343</v>
       </c>
       <c r="FT4">
-        <v>0.01425785450268832</v>
+        <v>0.01432480505653357</v>
       </c>
       <c r="FU4">
-        <v>0.02868850099934968</v>
+        <v>0.02886624553169544</v>
       </c>
       <c r="FV4">
-        <v>0.03474287878817395</v>
+        <v>0.03496710693459231</v>
       </c>
       <c r="FW4">
-        <v>0.01867758634852878</v>
+        <v>0.01877847021750439</v>
       </c>
       <c r="FX4">
-        <v>0.01179962058843112</v>
+        <v>0.01184769759315933</v>
       </c>
       <c r="FY4">
-        <v>0.005286899215593802</v>
+        <v>0.005284973587943144</v>
       </c>
       <c r="FZ4">
-        <v>2.502751912704414E-07</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0008358130708469738</v>
+        <v>0.0007997133995913338</v>
       </c>
       <c r="GB4">
-        <v>0.001648524842499718</v>
+        <v>0.001618664917368857</v>
       </c>
       <c r="GC4">
-        <v>0.002999917895363344</v>
+        <v>0.002980433542309545</v>
       </c>
       <c r="GD4">
-        <v>0.0045220706422709</v>
+        <v>0.004514272900676566</v>
       </c>
       <c r="GE4">
-        <v>0.00447431584393658</v>
+        <v>0.004466151455976043</v>
       </c>
       <c r="GF4">
-        <v>0.002888651499244298</v>
+        <v>0.002868312877693084</v>
       </c>
       <c r="GG4">
-        <v>0.0007245107747291802</v>
+        <v>0.0006875565593471918</v>
       </c>
       <c r="GH4">
-        <v>6.632176768670737E-05</v>
+        <v>2.431418350988334E-05</v>
       </c>
       <c r="GI4">
-        <v>0.0006089665487593442</v>
+        <v>0.0005711252210438287</v>
       </c>
       <c r="GJ4">
-        <v>0.001059655163039397</v>
+        <v>0.001025274081173056</v>
       </c>
       <c r="GK4">
-        <v>2.611775108901703E-05</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>3.275161285762898E-05</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>5.318901814477557E-05</v>
+        <v>1.108060483526244E-05</v>
       </c>
       <c r="GN4">
-        <v>0.0001259671256062868</v>
+        <v>8.441747978340459E-05</v>
       </c>
       <c r="GO4">
-        <v>0.0003464966579142521</v>
+        <v>0.0003066401686846596</v>
       </c>
       <c r="GP4">
-        <v>0.0006325674279361494</v>
+        <v>0.0005949073003699627</v>
       </c>
       <c r="GQ4">
-        <v>0.001214438457640581</v>
+        <v>0.001181245753371754</v>
       </c>
       <c r="GR4">
-        <v>0.002402790916191038</v>
+        <v>0.002378722009443973</v>
       </c>
       <c r="GS4">
-        <v>0.0005005940825393585</v>
+        <v>0.0004619207050126858</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0005590653119250026</v>
+        <v>0.0004303868010033527</v>
       </c>
       <c r="C5">
-        <v>0.0004234943890332411</v>
+        <v>0.0002920824543767319</v>
       </c>
       <c r="D5">
-        <v>0.0003031237064657043</v>
+        <v>0.0001692848201170981</v>
       </c>
       <c r="E5">
-        <v>0.0002245633047899913</v>
+        <v>8.914045882836463E-05</v>
       </c>
       <c r="F5">
-        <v>9.656135205967774E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001083668323114916</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001261921626917103</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.000172458883678591</v>
+        <v>3.598549193384892E-05</v>
       </c>
       <c r="J5">
-        <v>5.448439516216575E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.895369840428712E-07</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.908739440713889E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4.370407093221874E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0001840270739253434</v>
+        <v>4.778692368339086E-05</v>
       </c>
       <c r="O5">
-        <v>0.0001251355626691728</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001371846029261818</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001218307625986806</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001585928433828249</v>
+        <v>2.1839880157381E-05</v>
       </c>
       <c r="S5">
-        <v>5.978230327517145E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>7.241560654464297E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>7.144546652394964E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>9.743557207832508E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.000126161342691053</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001143730864396065</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>9.165264195497374E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001406901130009552</v>
+        <v>3.576189275274392E-06</v>
       </c>
       <c r="AA5">
-        <v>0.0001205714625718194</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0001195687325504309</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>6.914383147485519E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>5.884016125507534E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0001166152964874334</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000193493514127265</v>
+        <v>5.74442292403651E-05</v>
       </c>
       <c r="AG5">
-        <v>0.0001420829030306638</v>
+        <v>4.997061177140177E-06</v>
       </c>
       <c r="AH5">
-        <v>0.0001144024424402327</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>6.67153514230551E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.000127222232713682</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0001881214040126765</v>
+        <v>5.196380494615559E-05</v>
       </c>
       <c r="AL5">
-        <v>9.080482193688952E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.399623429854317E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>5.236931511705057E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>7.499234159960538E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.000134019762858675</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.000144272853077376</v>
+        <v>7.231165687863904E-06</v>
       </c>
       <c r="AR5">
-        <v>9.746267707890323E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>5.046885907651336E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>7.088964151209375E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>7.415308158170375E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>7.415308158170375E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>5.803274823785301E-08</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>9.046273192959265E-06</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1.467879431310235E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>2.314701049373151E-07</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>2.407406651350585E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>2.963881063220323E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>7.477063159487623E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>3.871313382576081E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>8.796715187636132E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0002113520245081914</v>
+        <v>7.56628085439132E-05</v>
       </c>
       <c r="BG5">
-        <v>0.0001623603334631864</v>
+        <v>2.568333156179964E-05</v>
       </c>
       <c r="BH5">
-        <v>0.0001989024742426394</v>
+        <v>6.296224651670673E-05</v>
       </c>
       <c r="BI5">
-        <v>0.0001852705839518678</v>
+        <v>4.905550575153401E-05</v>
       </c>
       <c r="BJ5">
-        <v>0.0001417776230241521</v>
+        <v>4.68562601878783E-06</v>
       </c>
       <c r="BK5">
-        <v>5.681305121183657E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>4.820009102811998E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>2.36271635039733E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>1.130216624107803E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.094144344668622E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>2.094144344668622E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>8.543652182238234E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.000152634313255728</v>
+        <v>1.576121226529089E-05</v>
       </c>
       <c r="BS5">
-        <v>0.0001776041037883399</v>
+        <v>4.123445159533253E-05</v>
       </c>
       <c r="BT5">
-        <v>0.0001166152964874334</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>9.566422204054174E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>8.270964176421731E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0001285157227412725</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>4.252041390697105E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.408753851379321E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>3.35089137147535E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>4.563975097350729E-07</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>3.17939506781729E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>8.138590773598173E-08</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.584949133807361E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.56236005465578E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>7.545665560950931E-07</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>3.411285072763562E-07</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>1.581495033733684E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>2.566756054749548E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>3.263273069606429E-07</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>5.388795114944345E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>8.990886191777848E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.002051917643767916</v>
+        <v>0.001953338492719749</v>
       </c>
       <c r="CN5">
-        <v>0.1285648527423204</v>
+        <v>0.1310170673174549</v>
       </c>
       <c r="CO5">
-        <v>0.01982107042278838</v>
+        <v>0.02008075853819006</v>
       </c>
       <c r="CP5">
-        <v>0.100308482139605</v>
+        <v>0.1021909828526592</v>
       </c>
       <c r="CQ5">
-        <v>0.07462067159167755</v>
+        <v>0.07598524656113904</v>
       </c>
       <c r="CR5">
-        <v>0.001912279240789394</v>
+        <v>0.001810884656189122</v>
       </c>
       <c r="CS5">
-        <v>0.00920398319632326</v>
+        <v>0.009249606248207889</v>
       </c>
       <c r="CT5">
-        <v>0.008506349181442552</v>
+        <v>0.008537906316139005</v>
       </c>
       <c r="CU5">
-        <v>0.01083749423116646</v>
+        <v>0.01091605264808773</v>
       </c>
       <c r="CV5">
-        <v>0.0001828249438997017</v>
+        <v>4.656055593276809E-05</v>
       </c>
       <c r="CW5">
-        <v>0.02651398056554983</v>
+        <v>0.02690861324759808</v>
       </c>
       <c r="CX5">
-        <v>0.04006232785453945</v>
+        <v>0.04073012659061987</v>
       </c>
       <c r="CY5">
-        <v>0.009046636192967009</v>
+        <v>0.009089086764909708</v>
       </c>
       <c r="CZ5">
-        <v>0.001094387123343551</v>
+        <v>0.000976501939736546</v>
       </c>
       <c r="DA5">
-        <v>0.05451141816274216</v>
+        <v>0.05547054401789146</v>
       </c>
       <c r="DB5">
-        <v>0.03349650771448887</v>
+        <v>0.03403192431266823</v>
       </c>
       <c r="DC5">
-        <v>0.002739788058440363</v>
+        <v>0.002655077967791485</v>
       </c>
       <c r="DD5">
-        <v>0.006310929634613704</v>
+        <v>0.00629822202751101</v>
       </c>
       <c r="DE5">
-        <v>0.001899295740512452</v>
+        <v>0.001797639378481877</v>
       </c>
       <c r="DF5">
-        <v>0.005517888117697932</v>
+        <v>0.005489190957239485</v>
       </c>
       <c r="DG5">
-        <v>0.007172691152995294</v>
+        <v>0.007177358653606613</v>
       </c>
       <c r="DH5">
-        <v>0.001563651733353082</v>
+        <v>0.001455228010917612</v>
       </c>
       <c r="DI5">
-        <v>0.001729775536896544</v>
+        <v>0.001624701255018422</v>
       </c>
       <c r="DJ5">
-        <v>0.0001022355521807098</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0007183286553221295</v>
+        <v>0.0005928612621951288</v>
       </c>
       <c r="DL5">
-        <v>0.007573393161542367</v>
+        <v>0.007586139742515504</v>
       </c>
       <c r="DM5">
-        <v>0.008761432186883536</v>
+        <v>0.008798132385642393</v>
       </c>
       <c r="DN5">
-        <v>2.907224462011824E-06</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.004224250090104309</v>
+        <v>0.004169470191448646</v>
       </c>
       <c r="DP5">
-        <v>8.173873174350756E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0007771213165761917</v>
+        <v>0.000652839319640937</v>
       </c>
       <c r="DR5">
-        <v>0.0001124532623986562</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>2.866549061144207E-05</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0006873260146608355</v>
+        <v>0.0005612335365080837</v>
       </c>
       <c r="DU5">
-        <v>4.776347101880676E-06</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.009524981203170227</v>
+        <v>0.00957707631817903</v>
       </c>
       <c r="DW5">
-        <v>0.007066753150735609</v>
+        <v>0.007069284695910294</v>
       </c>
       <c r="DX5">
-        <v>0.001176080325086087</v>
+        <v>0.001059842265595793</v>
       </c>
       <c r="DY5">
-        <v>0.004732514100945708</v>
+        <v>0.004687981981689745</v>
       </c>
       <c r="DZ5">
-        <v>0.003757799380154799</v>
+        <v>0.003693614755068705</v>
       </c>
       <c r="EA5">
-        <v>0.0003014849064307484</v>
+        <v>0.000167612978078616</v>
       </c>
       <c r="EB5">
-        <v>0.001521422332452318</v>
+        <v>0.001412147167507873</v>
       </c>
       <c r="EC5">
-        <v>0.0007158046152682912</v>
+        <v>0.0005902863316491131</v>
       </c>
       <c r="ED5">
-        <v>0.001166684624885674</v>
+        <v>0.001050257126322564</v>
       </c>
       <c r="EE5">
-        <v>0.002122991345283935</v>
+        <v>0.002025845204637294</v>
       </c>
       <c r="EF5">
-        <v>0.002868190661179223</v>
+        <v>0.002786069464331889</v>
       </c>
       <c r="EG5">
-        <v>0.00596680872727352</v>
+        <v>0.005947162845829092</v>
       </c>
       <c r="EH5">
-        <v>0.001681590035868735</v>
+        <v>0.001575544222711073</v>
       </c>
       <c r="EI5">
-        <v>3.404073072609729E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>3.690145678711728E-05</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.002559637454597706</v>
+        <v>0.002471295110616852</v>
       </c>
       <c r="EL5">
-        <v>0.002760183058875394</v>
+        <v>0.002675884178662149</v>
       </c>
       <c r="EM5">
-        <v>0.00061496561311737</v>
+        <v>0.000487414181711045</v>
       </c>
       <c r="EN5">
-        <v>0.0001350493428806362</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0001893408040386866</v>
+        <v>5.320779090034472E-05</v>
       </c>
       <c r="EP5">
-        <v>0.0003915781083524588</v>
+        <v>0.0002595226675717719</v>
       </c>
       <c r="EQ5">
-        <v>0.0006031094128644744</v>
+        <v>0.0004753189330067172</v>
       </c>
       <c r="ER5">
-        <v>0.0001609060634321665</v>
+        <v>2.419974007943237E-05</v>
       </c>
       <c r="ES5">
-        <v>0.0004853957603536128</v>
+        <v>0.000355231900682346</v>
       </c>
       <c r="ET5">
-        <v>0.0002018559543056379</v>
+        <v>6.597527557688269E-05</v>
       </c>
       <c r="EU5">
-        <v>0.0004016560685674242</v>
+        <v>0.0002698038228012947</v>
       </c>
       <c r="EV5">
-        <v>0.0005704825121685344</v>
+        <v>0.0004420341984415752</v>
       </c>
       <c r="EW5">
-        <v>0.004632325498808659</v>
+        <v>0.004585773345335902</v>
       </c>
       <c r="EX5">
-        <v>0.009908330211347157</v>
+        <v>0.009968154530047537</v>
       </c>
       <c r="EY5">
-        <v>0.02100456344803258</v>
+        <v>0.02128811352333127</v>
       </c>
       <c r="EZ5">
-        <v>0.02251279048020344</v>
+        <v>0.02282674990493603</v>
       </c>
       <c r="FA5">
-        <v>0.007557713161207909</v>
+        <v>0.007570143597065541</v>
       </c>
       <c r="FB5">
-        <v>0.002874467361313107</v>
+        <v>0.00279247271727486</v>
       </c>
       <c r="FC5">
-        <v>0.0005820151124145276</v>
+        <v>0.0004537993226135301</v>
       </c>
       <c r="FD5">
-        <v>0.0009481719202247438</v>
+        <v>0.0008273386995455027</v>
       </c>
       <c r="FE5">
-        <v>0.007625245662648394</v>
+        <v>0.00763903771011399</v>
       </c>
       <c r="FF5">
-        <v>0.02300938449079592</v>
+        <v>0.02333335640070002</v>
       </c>
       <c r="FG5">
-        <v>0.03876287082682171</v>
+        <v>0.03940446950018787</v>
       </c>
       <c r="FH5">
-        <v>0.0228327424870281</v>
+        <v>0.02315315288510228</v>
       </c>
       <c r="FI5">
-        <v>0.01289138877497654</v>
+        <v>0.01301135846191942</v>
       </c>
       <c r="FJ5">
-        <v>0.009762853208244097</v>
+        <v>0.009819744373693942</v>
       </c>
       <c r="FK5">
-        <v>0.001424847630392356</v>
+        <v>0.001313625295825053</v>
       </c>
       <c r="FL5">
-        <v>0.0005519908117741019</v>
+        <v>0.0004231696625476277</v>
       </c>
       <c r="FM5">
-        <v>5.978230327517145E-05</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>9.165264195497374E-05</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.001049359822383107</v>
+        <v>0.0009305667841230792</v>
       </c>
       <c r="FP5">
-        <v>0.001260616426889263</v>
+        <v>0.001146082810963949</v>
       </c>
       <c r="FQ5">
-        <v>0.0003710833679153009</v>
+        <v>0.0002386147057095785</v>
       </c>
       <c r="FR5">
-        <v>0.005425019815717027</v>
+        <v>0.005394450215243893</v>
       </c>
       <c r="FS5">
-        <v>0.03453869473671899</v>
+        <v>0.03509512423856501</v>
       </c>
       <c r="FT5">
-        <v>0.04586802497837642</v>
+        <v>0.0466528800122027</v>
       </c>
       <c r="FU5">
-        <v>0.03464932473907875</v>
+        <v>0.03520798479794827</v>
       </c>
       <c r="FV5">
-        <v>0.02190254846718683</v>
+        <v>0.0222042039998546</v>
       </c>
       <c r="FW5">
-        <v>0.006435339437267397</v>
+        <v>0.006425140219870762</v>
       </c>
       <c r="FX5">
-        <v>9.68469020657686E-06</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001649844335191592</v>
+        <v>0.001543158455197622</v>
       </c>
       <c r="FZ5">
-        <v>0.003058711565243081</v>
+        <v>0.002980431710993753</v>
       </c>
       <c r="GA5">
-        <v>0.005546815818314966</v>
+        <v>0.005518701907286227</v>
       </c>
       <c r="GB5">
-        <v>0.003322268470864816</v>
+        <v>0.003249302534127782</v>
       </c>
       <c r="GC5">
-        <v>0.005640923120322299</v>
+        <v>0.005614706630417821</v>
       </c>
       <c r="GD5">
-        <v>0.006743370143837769</v>
+        <v>0.006739381538764525</v>
       </c>
       <c r="GE5">
-        <v>0.002564269154696501</v>
+        <v>0.002476020196514849</v>
       </c>
       <c r="GF5">
-        <v>0.0009808536209218526</v>
+        <v>0.0008606793390067326</v>
       </c>
       <c r="GG5">
-        <v>0.0002018559543056379</v>
+        <v>6.597527557688269E-05</v>
       </c>
       <c r="GH5">
-        <v>8.437593179975969E-06</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0001052647922453243</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0007630781762766481</v>
+        <v>0.0006385130371145209</v>
       </c>
       <c r="GK5">
-        <v>0.0001812445438659914</v>
+        <v>4.494829137478834E-05</v>
       </c>
       <c r="GL5">
-        <v>9.962898212511107E-06</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0001052647922453243</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>7.578690161655353E-05</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>5.737327922378638E-08</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>2.556929854539952E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>2.124403945314066E-05</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>5.326959313625372E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>9.68469020657686E-06</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.133904085125956E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.083133663982863E-05</v>
+        <v>3.465824659529083E-06</v>
       </c>
       <c r="D6">
-        <v>8.266450488315695E-05</v>
+        <v>7.540077698310796E-05</v>
       </c>
       <c r="E6">
-        <v>7.370415935385149E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.109790542773513E-09</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.637265010220448E-05</v>
+        <v>7.911417646226661E-05</v>
       </c>
       <c r="H6">
-        <v>6.303573372364634E-05</v>
+        <v>5.574419281648966E-05</v>
       </c>
       <c r="I6">
-        <v>0.0002401869541883218</v>
+        <v>0.0002331464278818184</v>
       </c>
       <c r="J6">
-        <v>0.0001599095694461768</v>
+        <v>0.0001527552940183313</v>
       </c>
       <c r="K6">
-        <v>9.970398088971273E-05</v>
+        <v>9.246439709239083E-05</v>
       </c>
       <c r="L6">
-        <v>0.0001331960278681547</v>
+        <v>0.0001260039006606056</v>
       </c>
       <c r="M6">
-        <v>0.0001599095694461768</v>
+        <v>0.0001527552940183313</v>
       </c>
       <c r="N6">
-        <v>1.429528784445112E-05</v>
+        <v>6.934684113307471E-06</v>
       </c>
       <c r="O6">
-        <v>1.748346103278287E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>9.464528059088524E-06</v>
+        <v>2.097079377990847E-06</v>
       </c>
       <c r="Q6">
-        <v>5.849219345525037E-05</v>
+        <v>5.119421457412416E-05</v>
       </c>
       <c r="R6">
-        <v>8.242890486923959E-05</v>
+        <v>7.516484313551307E-05</v>
       </c>
       <c r="S6">
-        <v>0.000215451072727124</v>
+        <v>0.0002083754968884158</v>
       </c>
       <c r="T6">
-        <v>0.0003657644516064347</v>
+        <v>0.0003589018624616554</v>
       </c>
       <c r="U6">
-        <v>0.0005619813331973567</v>
+        <v>0.0005553967737610084</v>
       </c>
       <c r="V6">
-        <v>0.0007012827414261683</v>
+        <v>0.0006948955652608202</v>
       </c>
       <c r="W6">
-        <v>0.0004209706948675774</v>
+        <v>0.000414186330264912</v>
       </c>
       <c r="X6">
-        <v>0.0001798416306236033</v>
+        <v>0.0001727155979499625</v>
       </c>
       <c r="Y6">
-        <v>0.0001157724568389096</v>
+        <v>0.0001085556412848034</v>
       </c>
       <c r="Z6">
-        <v>0.0001112702225729537</v>
+        <v>0.0001040470275734598</v>
       </c>
       <c r="AA6">
-        <v>5.790605342062591E-05</v>
+        <v>5.060724400778599E-05</v>
       </c>
       <c r="AB6">
-        <v>1.049577062000608E-05</v>
+        <v>3.129783159096024E-06</v>
       </c>
       <c r="AC6">
-        <v>5.17007910540687E-08</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.790668682994341E-05</v>
+        <v>4.059370880451948E-05</v>
       </c>
       <c r="AE6">
-        <v>0.0001417532283736455</v>
+        <v>0.0001345732262999904</v>
       </c>
       <c r="AF6">
-        <v>0.0001577309393174807</v>
+        <v>0.0001505735768774753</v>
       </c>
       <c r="AG6">
-        <v>0.000183296950827716</v>
+        <v>0.0001761758141735262</v>
       </c>
       <c r="AH6">
-        <v>0.0002596168653360853</v>
+        <v>0.0002526038702617953</v>
       </c>
       <c r="AI6">
-        <v>0.0001349754279732674</v>
+        <v>0.0001277858220884934</v>
       </c>
       <c r="AJ6">
-        <v>0.0001517576289646254</v>
+        <v>0.000144591802636486</v>
       </c>
       <c r="AK6">
-        <v>0.0001257654174292137</v>
+        <v>0.0001185627614107028</v>
       </c>
       <c r="AL6">
-        <v>8.110019479075004E-05</v>
+        <v>7.38342503399366E-05</v>
       </c>
       <c r="AM6">
-        <v>0.0001527056090206245</v>
+        <v>0.0001455411259337823</v>
       </c>
       <c r="AN6">
-        <v>0.0002118992425173103</v>
+        <v>0.0002048186339092011</v>
       </c>
       <c r="AO6">
-        <v>0.0002166792827996768</v>
+        <v>0.0002096054472744707</v>
       </c>
       <c r="AP6">
-        <v>7.886701965883192E-05</v>
+        <v>7.159791090826116E-05</v>
       </c>
       <c r="AQ6">
-        <v>0.0001014376309921229</v>
+        <v>9.420050369206353E-05</v>
       </c>
       <c r="AR6">
-        <v>1.364913430628155E-05</v>
+        <v>6.287615007229759E-06</v>
       </c>
       <c r="AS6">
-        <v>3.411840401544208E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>5.461232722605895E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>6.359360375660084E-05</v>
+        <v>5.630285332395047E-05</v>
       </c>
       <c r="AV6">
-        <v>9.546334563920997E-05</v>
+        <v>8.821775306948938E-05</v>
       </c>
       <c r="AW6">
-        <v>0.0001744728603064594</v>
+        <v>0.0001673392203482985</v>
       </c>
       <c r="AX6">
-        <v>0.0002095709123797712</v>
+        <v>0.0002024870046419235</v>
       </c>
       <c r="AY6">
-        <v>0.0002362292039545296</v>
+        <v>0.0002291830697098375</v>
       </c>
       <c r="AZ6">
-        <v>0.0001721968501720109</v>
+        <v>0.0001650599852189926</v>
       </c>
       <c r="BA6">
-        <v>0.0001495531988344053</v>
+        <v>0.0001423842489367678</v>
       </c>
       <c r="BB6">
-        <v>0.0002768062863514987</v>
+        <v>0.0002698176478446673</v>
       </c>
       <c r="BC6">
-        <v>0.0003161422386751517</v>
+        <v>0.000309209337285671</v>
       </c>
       <c r="BD6">
-        <v>0.0002300701135906999</v>
+        <v>0.0002230152522166998</v>
       </c>
       <c r="BE6">
-        <v>8.103966478717441E-05</v>
+        <v>7.377363456831131E-05</v>
       </c>
       <c r="BF6">
-        <v>4.181833247029219E-05</v>
+        <v>3.44967275450128E-05</v>
       </c>
       <c r="BG6">
-        <v>5.192973306759276E-05</v>
+        <v>4.462245550159613E-05</v>
       </c>
       <c r="BH6">
-        <v>4.960325793016324E-05</v>
+        <v>4.229268386287228E-05</v>
       </c>
       <c r="BI6">
-        <v>1.024832860538918E-05</v>
+        <v>2.881990531266751E-06</v>
       </c>
       <c r="BJ6">
-        <v>1.551064091624445E-06</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>4.781321282442172E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>9.089319536924209E-05</v>
+        <v>8.364112712048338E-05</v>
       </c>
       <c r="BM6">
-        <v>4.567320269800706E-05</v>
+        <v>3.835705993498791E-05</v>
       </c>
       <c r="BN6">
-        <v>0.0001185480470028693</v>
+        <v>0.0001113351643240475</v>
       </c>
       <c r="BO6">
-        <v>0.0002024991419620276</v>
+        <v>0.0001954052138719483</v>
       </c>
       <c r="BP6">
-        <v>0.0001812224107051687</v>
+        <v>0.0001740983345292583</v>
       </c>
       <c r="BQ6">
-        <v>0.000417961224689802</v>
+        <v>0.0004111725958153306</v>
       </c>
       <c r="BR6">
-        <v>0.0004195334847826786</v>
+        <v>0.0004127470837237327</v>
       </c>
       <c r="BS6">
-        <v>0.0001131727766853413</v>
+        <v>0.0001059522775118174</v>
       </c>
       <c r="BT6">
-        <v>0.0001193860770523734</v>
+        <v>0.0001121743818210762</v>
       </c>
       <c r="BU6">
-        <v>7.955083469922625E-05</v>
+        <v>7.228269488106721E-05</v>
       </c>
       <c r="BV6">
-        <v>0.000106331746281228</v>
+        <v>9.910155370276769E-05</v>
       </c>
       <c r="BW6">
-        <v>3.196453488820874E-05</v>
+        <v>2.462896761449902E-05</v>
       </c>
       <c r="BX6">
-        <v>2.471052145969972E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.923674913635309E-05</v>
+        <v>1.188314721377489E-05</v>
       </c>
       <c r="BZ6">
-        <v>1.1603214685425E-05</v>
+        <v>4.238796418501295E-06</v>
       </c>
       <c r="CA6">
-        <v>4.959310592956355E-07</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>4.13229524410291E-05</v>
+        <v>3.400064558651721E-05</v>
       </c>
       <c r="CC6">
-        <v>0.0001765085004267087</v>
+        <v>0.0001693777448708709</v>
       </c>
       <c r="CD6">
-        <v>0.0002822657566740004</v>
+        <v>0.0002752848539691534</v>
       </c>
       <c r="CE6">
-        <v>0.0001062624202771328</v>
+        <v>9.903212946712098E-05</v>
       </c>
       <c r="CF6">
-        <v>0.0003690781518021815</v>
+        <v>0.0003622202580082395</v>
       </c>
       <c r="CG6">
-        <v>0.0006735849397900039</v>
+        <v>0.0006671585171966694</v>
       </c>
       <c r="CH6">
-        <v>0.000467512897616918</v>
+        <v>0.0004607944810354179</v>
       </c>
       <c r="CI6">
-        <v>0.0004261096451711454</v>
+        <v>0.0004193325622093</v>
       </c>
       <c r="CJ6">
-        <v>0.0005314437713934421</v>
+        <v>0.0005248159417280713</v>
       </c>
       <c r="CK6">
-        <v>0.0002106846624455626</v>
+        <v>0.0002036023328369949</v>
       </c>
       <c r="CL6">
-        <v>0.0001237593573107117</v>
+        <v>0.000116553858803291</v>
       </c>
       <c r="CM6">
-        <v>0.0001166006368878319</v>
+        <v>0.0001093849948242819</v>
       </c>
       <c r="CN6">
-        <v>0.007580258447780965</v>
+        <v>0.007583618443186352</v>
       </c>
       <c r="CO6">
-        <v>0.09098695037478038</v>
+        <v>0.09110849356650218</v>
       </c>
       <c r="CP6">
-        <v>0.01177530669559082</v>
+        <v>0.01178461086884541</v>
       </c>
       <c r="CQ6">
-        <v>0.09876768083440363</v>
+        <v>0.09890024894000403</v>
       </c>
       <c r="CR6">
-        <v>0.07478324041759496</v>
+        <v>0.07488182374613694</v>
       </c>
       <c r="CS6">
-        <v>9.647005069867803E-05</v>
+        <v>8.922588458070762E-05</v>
       </c>
       <c r="CT6">
-        <v>0.01213157621663637</v>
+        <v>0.01214138520634842</v>
       </c>
       <c r="CU6">
-        <v>0.001317031977799702</v>
+        <v>0.001311517288136369</v>
       </c>
       <c r="CV6">
-        <v>0.02643714256169467</v>
+        <v>0.02646722183807934</v>
       </c>
       <c r="CW6">
-        <v>0.002501525347770085</v>
+        <v>0.002497689027182955</v>
       </c>
       <c r="CX6">
-        <v>0.03158033486551328</v>
+        <v>0.03161770179342438</v>
       </c>
       <c r="CY6">
-        <v>0.05421724120272042</v>
+        <v>0.05428668351791565</v>
       </c>
       <c r="CZ6">
-        <v>0.002321071837110336</v>
+        <v>0.002316979822739128</v>
       </c>
       <c r="DA6">
-        <v>0.005925009350002104</v>
+        <v>0.005926023938527591</v>
       </c>
       <c r="DB6">
-        <v>0.02901973571425359</v>
+        <v>0.02905347439861264</v>
       </c>
       <c r="DC6">
-        <v>0.03223567690422564</v>
+        <v>0.03227397241969999</v>
       </c>
       <c r="DD6">
-        <v>0.002723356660874102</v>
+        <v>0.002719834664389991</v>
       </c>
       <c r="DE6">
-        <v>0.02309574336431156</v>
+        <v>0.02312108804173071</v>
       </c>
       <c r="DF6">
-        <v>0.008662141511689952</v>
+        <v>0.008667034482394797</v>
       </c>
       <c r="DG6">
-        <v>0.002216186130914529</v>
+        <v>0.002211945498636055</v>
       </c>
       <c r="DH6">
-        <v>0.005247687809991371</v>
+        <v>0.005247742667077053</v>
       </c>
       <c r="DI6">
-        <v>0.004623212673102381</v>
+        <v>0.004622382679512505</v>
       </c>
       <c r="DJ6">
-        <v>0.001417154983714168</v>
+        <v>0.001411782163445129</v>
       </c>
       <c r="DK6">
-        <v>0.002090212523473017</v>
+        <v>0.002085793392764321</v>
       </c>
       <c r="DL6">
-        <v>0.000705868141697037</v>
+        <v>0.0006994874628192312</v>
       </c>
       <c r="DM6">
-        <v>0.01253978474075006</v>
+        <v>0.0125501721419424</v>
       </c>
       <c r="DN6">
-        <v>0.0008805273520145044</v>
+        <v>0.0008743941566810584</v>
       </c>
       <c r="DO6">
-        <v>0.002128144825713754</v>
+        <v>0.002123779443219007</v>
       </c>
       <c r="DP6">
-        <v>0.001869241710419831</v>
+        <v>0.001864509474894532</v>
       </c>
       <c r="DQ6">
-        <v>0.0002324068437287352</v>
+        <v>0.0002253552933868628</v>
       </c>
       <c r="DR6">
-        <v>0.003505002207047462</v>
+        <v>0.003502587764008991</v>
       </c>
       <c r="DS6">
-        <v>0.003074462981614652</v>
+        <v>0.003071438485586119</v>
       </c>
       <c r="DT6">
-        <v>0.0003192234888571673</v>
+        <v>0.0003122949534482422</v>
       </c>
       <c r="DU6">
-        <v>0.0003818627925573958</v>
+        <v>0.0003750230139730766</v>
       </c>
       <c r="DV6">
-        <v>0.0004245251250775447</v>
+        <v>0.0004177457969283532</v>
       </c>
       <c r="DW6">
-        <v>0.01368019680811647</v>
+        <v>0.0136922001173388</v>
       </c>
       <c r="DX6">
-        <v>0.01097170514812048</v>
+        <v>0.01097987065735123</v>
       </c>
       <c r="DY6">
-        <v>0.0004996101795129683</v>
+        <v>0.0004929372432074498</v>
       </c>
       <c r="DZ6">
-        <v>0.004209298848651667</v>
+        <v>0.004207882359450433</v>
       </c>
       <c r="EA6">
-        <v>0.003995249736007359</v>
+        <v>0.003993529949699903</v>
       </c>
       <c r="EB6">
-        <v>0.000656914178805229</v>
+        <v>0.0006504641345602897</v>
       </c>
       <c r="EC6">
-        <v>0.003882356229338515</v>
+        <v>0.00388047647846283</v>
       </c>
       <c r="ED6">
-        <v>0.001830413708126183</v>
+        <v>0.001825626455223842</v>
       </c>
       <c r="EE6">
-        <v>0.0006155670063627692</v>
+        <v>0.0006090583752001019</v>
       </c>
       <c r="EF6">
-        <v>0.0003690781518021815</v>
+        <v>0.0003622202580082395</v>
       </c>
       <c r="EG6">
-        <v>0.00510671760166398</v>
+        <v>0.005106572710870678</v>
       </c>
       <c r="EH6">
-        <v>0.0103829646133424</v>
+        <v>0.01039029590607812</v>
       </c>
       <c r="EI6">
-        <v>0.003509950307339756</v>
+        <v>0.003507542875516989</v>
       </c>
       <c r="EJ6">
-        <v>0.0002865904669294697</v>
+        <v>0.0002796156921271845</v>
       </c>
       <c r="EK6">
-        <v>1.002511159220331E-05</v>
+        <v>2.65845723050873E-06</v>
       </c>
       <c r="EL6">
-        <v>0.002424313343209018</v>
+        <v>0.002420367616994088</v>
       </c>
       <c r="EM6">
-        <v>0.00397505963481469</v>
+        <v>0.003973311240122969</v>
       </c>
       <c r="EN6">
-        <v>0.001548788691490033</v>
+        <v>0.001543602389736097</v>
       </c>
       <c r="EO6">
-        <v>1.647897897344611E-05</v>
+        <v>9.121469425651895E-06</v>
       </c>
       <c r="EP6">
-        <v>0.0001096551764775497</v>
+        <v>0.0001024296930368607</v>
       </c>
       <c r="EQ6">
-        <v>0.000127494617531361</v>
+        <v>0.0001202944117046803</v>
       </c>
       <c r="ER6">
-        <v>0.00146307628642683</v>
+        <v>0.001457768534394023</v>
       </c>
       <c r="ES6">
-        <v>0.0002166792827996768</v>
+        <v>0.0002096054472744707</v>
       </c>
       <c r="ET6">
-        <v>0.0009541948063661878</v>
+        <v>0.0009481659942065452</v>
       </c>
       <c r="EU6">
-        <v>0.000754126544547757</v>
+        <v>0.0007478142454625824</v>
       </c>
       <c r="EV6">
-        <v>0.001475334787150964</v>
+        <v>0.001470044404813132</v>
       </c>
       <c r="EW6">
-        <v>0.002731030761327427</v>
+        <v>0.002727519638667699</v>
       </c>
       <c r="EX6">
-        <v>0.008041965475054917</v>
+        <v>0.008045979686698648</v>
       </c>
       <c r="EY6">
-        <v>0.01233979772893643</v>
+        <v>0.01234990175833051</v>
       </c>
       <c r="EZ6">
-        <v>0.02710545060117295</v>
+        <v>0.02713647683730876</v>
       </c>
       <c r="FA6">
-        <v>0.02314437336718423</v>
+        <v>0.02316978695093504</v>
       </c>
       <c r="FB6">
-        <v>0.008232560486313744</v>
+        <v>0.008236844761751063</v>
       </c>
       <c r="FC6">
-        <v>0.003129020984837502</v>
+        <v>0.003126073794826707</v>
       </c>
       <c r="FD6">
-        <v>0.0005952450351623098</v>
+        <v>0.000588707608762037</v>
       </c>
       <c r="FE6">
-        <v>0.0004062633239987837</v>
+        <v>0.0003994581197721203</v>
       </c>
       <c r="FF6">
-        <v>0.006353885375336665</v>
+        <v>0.006355507660179155</v>
       </c>
       <c r="FG6">
-        <v>0.0247775274636579</v>
+        <v>0.0248052551467542</v>
       </c>
       <c r="FH6">
-        <v>0.03872464228754174</v>
+        <v>0.03877213234906592</v>
       </c>
       <c r="FI6">
-        <v>0.02202828930125492</v>
+        <v>0.02205212144856194</v>
       </c>
       <c r="FJ6">
-        <v>0.01431039984534382</v>
+        <v>0.01432329612139587</v>
       </c>
       <c r="FK6">
-        <v>0.01050860762076438</v>
+        <v>0.01051611694348629</v>
       </c>
       <c r="FL6">
-        <v>0.001744339803041626</v>
+        <v>0.001739430587632593</v>
       </c>
       <c r="FM6">
-        <v>0.001690213899844301</v>
+        <v>0.001685227990682098</v>
       </c>
       <c r="FN6">
-        <v>0.0004573313070154712</v>
+        <v>0.0004505984636188911</v>
       </c>
       <c r="FO6">
-        <v>0.0001877445610904452</v>
+        <v>0.0001806297264821066</v>
       </c>
       <c r="FP6">
-        <v>0.002091397923543041</v>
+        <v>0.002086980472488171</v>
       </c>
       <c r="FQ6">
-        <v>0.005153494704427197</v>
+        <v>0.005153416094496871</v>
       </c>
       <c r="FR6">
-        <v>9.017860532702982E-06</v>
+        <v>1.649778945602928E-06</v>
       </c>
       <c r="FS6">
-        <v>0.004462231663592912</v>
+        <v>0.004461173567799117</v>
       </c>
       <c r="FT6">
-        <v>0.03045722879916917</v>
+        <v>0.03049300434080589</v>
       </c>
       <c r="FU6">
-        <v>0.04234206550123015</v>
+        <v>0.04239468127422838</v>
       </c>
       <c r="FV6">
-        <v>0.02291990935392469</v>
+        <v>0.02294500488316534</v>
       </c>
       <c r="FW6">
-        <v>0.01717453501453399</v>
+        <v>0.01719148962980507</v>
       </c>
       <c r="FX6">
-        <v>0.006192094965779382</v>
+        <v>0.006193488001537739</v>
       </c>
       <c r="FY6">
-        <v>6.763857899554558E-05</v>
+        <v>6.035356009464301E-05</v>
       </c>
       <c r="FZ6">
-        <v>0.0006888001006887939</v>
+        <v>0.0006823952372330531</v>
       </c>
       <c r="GA6">
-        <v>0.001951513115279767</v>
+        <v>0.001946897454304629</v>
       </c>
       <c r="GB6">
-        <v>0.002642767456113537</v>
+        <v>0.002639131268674394</v>
       </c>
       <c r="GC6">
-        <v>0.001526193890155313</v>
+        <v>0.001520975572674819</v>
       </c>
       <c r="GD6">
-        <v>0.002748474162357843</v>
+        <v>0.002744987756142812</v>
       </c>
       <c r="GE6">
-        <v>0.003593515312276107</v>
+        <v>0.003591226287971435</v>
       </c>
       <c r="GF6">
-        <v>0.00118130416978199</v>
+        <v>0.001175597160464083</v>
       </c>
       <c r="GG6">
-        <v>5.108029001741447E-06</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001175139469417829</v>
+        <v>0.001169423725021518</v>
       </c>
       <c r="GI6">
-        <v>0.0001956292515562095</v>
+        <v>0.0001885255891679852</v>
       </c>
       <c r="GJ6">
-        <v>1.089372764351419E-06</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0007411801437829873</v>
+        <v>0.000734849500282181</v>
       </c>
       <c r="GL6">
-        <v>0.0004890829688911051</v>
+        <v>0.0004823951160438697</v>
       </c>
       <c r="GM6">
-        <v>0.0001014376309921229</v>
+        <v>9.420050369206353E-05</v>
       </c>
       <c r="GN6">
-        <v>4.464059663700896E-05</v>
+        <v>3.732299072178937E-05</v>
       </c>
       <c r="GO6">
-        <v>0.0001291591876296905</v>
+        <v>0.0001219613404172908</v>
       </c>
       <c r="GP6">
-        <v>0.0001097256014817098</v>
+        <v>0.0001025002178298015</v>
       </c>
       <c r="GQ6">
-        <v>0.0002351528838909492</v>
+        <v>0.0002281052245534566</v>
       </c>
       <c r="GR6">
-        <v>0.0004946209292182435</v>
+        <v>0.0004879409233894836</v>
       </c>
       <c r="GS6">
-        <v>1.002511159220331E-05</v>
+        <v>2.65845723050873E-06</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0006617659168908541</v>
+        <v>0.000642132182936659</v>
       </c>
       <c r="C2">
-        <v>0.001278065232621223</v>
+        <v>0.001238604943092692</v>
       </c>
       <c r="D2">
-        <v>0.002032920011888068</v>
+        <v>0.001974220773693934</v>
       </c>
       <c r="E2">
-        <v>0.002861374773033473</v>
+        <v>0.002783748720078314</v>
       </c>
       <c r="F2">
-        <v>0.003390841986547547</v>
+        <v>0.003293021127341682</v>
       </c>
       <c r="G2">
-        <v>0.003946206300722616</v>
+        <v>0.00382830046359671</v>
       </c>
       <c r="H2">
-        <v>0.004285915969393335</v>
+        <v>0.004147010573598537</v>
       </c>
       <c r="I2">
-        <v>0.004471510994130446</v>
+        <v>0.004310952447038932</v>
       </c>
       <c r="J2">
-        <v>0.00451604193326705</v>
+        <v>0.004333231989027251</v>
       </c>
       <c r="K2">
-        <v>0.004538387417837394</v>
+        <v>0.004333231989027251</v>
       </c>
       <c r="L2">
-        <v>0.004538627145043513</v>
+        <v>0.004333231989027251</v>
       </c>
       <c r="M2">
-        <v>0.004560188047593831</v>
+        <v>0.004333231989027251</v>
       </c>
       <c r="N2">
-        <v>0.004686753420824275</v>
+        <v>0.004437893869111152</v>
       </c>
       <c r="O2">
-        <v>0.004863057215324237</v>
+        <v>0.004592505108663769</v>
       </c>
       <c r="P2">
-        <v>0.005286245456125656</v>
+        <v>0.00499504781931645</v>
       </c>
       <c r="Q2">
-        <v>0.005636206945058042</v>
+        <v>0.005324053227045639</v>
       </c>
       <c r="R2">
-        <v>0.006086042256539598</v>
+        <v>0.005753356017295099</v>
       </c>
       <c r="S2">
-        <v>0.006733482123064796</v>
+        <v>0.006381101393790846</v>
       </c>
       <c r="T2">
-        <v>0.007545898443800838</v>
+        <v>0.007174522881528621</v>
       </c>
       <c r="U2">
-        <v>0.008207563260689112</v>
+        <v>0.007816553535702559</v>
       </c>
       <c r="V2">
-        <v>0.008642266871784448</v>
+        <v>0.008230660452768417</v>
       </c>
       <c r="W2">
-        <v>0.009247959287244086</v>
+        <v>0.008816481329311164</v>
       </c>
       <c r="X2">
-        <v>0.01002169340699281</v>
+        <v>0.009571056566749055</v>
       </c>
       <c r="Y2">
-        <v>0.01051338714954275</v>
+        <v>0.01004239530761508</v>
       </c>
       <c r="Z2">
-        <v>0.01070295995438139</v>
+        <v>0.01021033183072685</v>
       </c>
       <c r="AA2">
-        <v>0.01082514838750012</v>
+        <v>0.01031059820831121</v>
       </c>
       <c r="AB2">
-        <v>0.01083009045082626</v>
+        <v>0.01031059820831121</v>
       </c>
       <c r="AC2">
-        <v>0.01083240048888522</v>
+        <v>0.01031059820831121</v>
       </c>
       <c r="AD2">
-        <v>0.01089847461057169</v>
+        <v>0.01035451229642741</v>
       </c>
       <c r="AE2">
-        <v>0.01120526478840218</v>
+        <v>0.01064016330564685</v>
       </c>
       <c r="AF2">
-        <v>0.01177069430283415</v>
+        <v>0.01118555052817821</v>
       </c>
       <c r="AG2">
-        <v>0.01211767641169049</v>
+        <v>0.01151156392042694</v>
       </c>
       <c r="AH2">
-        <v>0.0127234655271526</v>
+        <v>0.01209748190707211</v>
       </c>
       <c r="AI2">
-        <v>0.0134219049449795</v>
+        <v>0.01277644312145922</v>
       </c>
       <c r="AJ2">
-        <v>0.01396805845891947</v>
+        <v>0.01330247259492821</v>
       </c>
       <c r="AK2">
-        <v>0.01453348797335145</v>
+        <v>0.01384785981745957</v>
       </c>
       <c r="AL2">
-        <v>0.01514978728908181</v>
+        <v>0.0144443325776156</v>
       </c>
       <c r="AM2">
-        <v>0.01565397570195068</v>
+        <v>0.01492821897808306</v>
       </c>
       <c r="AN2">
-        <v>0.0160276497114883</v>
+        <v>0.01528103747005154</v>
       </c>
       <c r="AO2">
-        <v>0.01635422667982382</v>
+        <v>0.01558655918458172</v>
       </c>
       <c r="AP2">
-        <v>0.01661214954640702</v>
+        <v>0.01582313563868945</v>
       </c>
       <c r="AQ2">
-        <v>0.01665388834347236</v>
+        <v>0.01584261119726926</v>
       </c>
       <c r="AR2">
-        <v>0.01667426912199255</v>
+        <v>0.01584261119726926</v>
       </c>
       <c r="AS2">
-        <v>0.01670910957688182</v>
+        <v>0.01585515915814298</v>
       </c>
       <c r="AT2">
-        <v>0.01673268997948368</v>
+        <v>0.01585639931340116</v>
       </c>
       <c r="AU2">
-        <v>0.01678492243081686</v>
+        <v>0.01588641302932063</v>
       </c>
       <c r="AV2">
-        <v>0.0169085612839726</v>
+        <v>0.01598813597810208</v>
       </c>
       <c r="AW2">
-        <v>0.01708660645851701</v>
+        <v>0.0161444959828063</v>
       </c>
       <c r="AX2">
-        <v>0.01730367931405756</v>
+        <v>0.01634004918298295</v>
       </c>
       <c r="AY2">
-        <v>0.01761557759201842</v>
+        <v>0.01663082995553428</v>
       </c>
       <c r="AZ2">
-        <v>0.01823829165791252</v>
+        <v>0.0172337446704941</v>
       </c>
       <c r="BA2">
-        <v>0.01922614718312646</v>
+        <v>0.01820334939175043</v>
       </c>
       <c r="BB2">
-        <v>0.02000717660306138</v>
+        <v>0.01896525086838394</v>
       </c>
       <c r="BC2">
-        <v>0.02063725781914352</v>
+        <v>0.01957556397725354</v>
       </c>
       <c r="BD2">
-        <v>0.02135036403734478</v>
+        <v>0.0202692541931943</v>
       </c>
       <c r="BE2">
-        <v>0.02191570015177437</v>
+        <v>0.02081454761961846</v>
       </c>
       <c r="BF2">
-        <v>0.02236207366316757</v>
+        <v>0.02124037392845559</v>
       </c>
       <c r="BG2">
-        <v>0.02264027745026841</v>
+        <v>0.02149731731346776</v>
       </c>
       <c r="BH2">
-        <v>0.02280547081448479</v>
+        <v>0.02164077100394822</v>
       </c>
       <c r="BI2">
-        <v>0.02282905121708666</v>
+        <v>0.02164201115920639</v>
       </c>
       <c r="BJ2">
-        <v>0.02283428839782033</v>
+        <v>0.02164201115920639</v>
       </c>
       <c r="BK2">
-        <v>0.02283729666919711</v>
+        <v>0.02164201115920639</v>
       </c>
       <c r="BL2">
-        <v>0.02288561526043039</v>
+        <v>0.02166809441653771</v>
       </c>
       <c r="BM2">
-        <v>0.0230437889344676</v>
+        <v>0.02180449864667807</v>
       </c>
       <c r="BN2">
-        <v>0.02328619441065474</v>
+        <v>0.02202549190189998</v>
       </c>
       <c r="BO2">
-        <v>0.02377797529320691</v>
+        <v>0.0224969181523247</v>
       </c>
       <c r="BP2">
-        <v>0.02447296161094568</v>
+        <v>0.02317241162219598</v>
       </c>
       <c r="BQ2">
-        <v>0.02532989883281807</v>
+        <v>0.02401054282202293</v>
       </c>
       <c r="BR2">
-        <v>0.02621579989542973</v>
+        <v>0.02487776069681372</v>
       </c>
       <c r="BS2">
-        <v>0.02700886776567192</v>
+        <v>0.02565175167823037</v>
       </c>
       <c r="BT2">
-        <v>0.02763576778167286</v>
+        <v>0.02625887009570563</v>
       </c>
       <c r="BU2">
-        <v>0.02796530674008398</v>
+        <v>0.0265673663619657</v>
       </c>
       <c r="BV2">
-        <v>0.02822113281661367</v>
+        <v>0.02680183713363639</v>
       </c>
       <c r="BW2">
-        <v>0.0283656299903018</v>
+        <v>0.0269245068620621</v>
       </c>
       <c r="BX2">
-        <v>0.02839802827712873</v>
+        <v>0.0269346022977588</v>
       </c>
       <c r="BY2">
-        <v>0.02840649588934486</v>
+        <v>0.0269346022977588</v>
       </c>
       <c r="BZ2">
-        <v>0.02842805679189517</v>
+        <v>0.0269346022977588</v>
       </c>
       <c r="CA2">
-        <v>0.02856782819546269</v>
+        <v>0.02705252621430515</v>
       </c>
       <c r="CB2">
-        <v>0.02875336978019843</v>
+        <v>0.02721641442110777</v>
       </c>
       <c r="CC2">
-        <v>0.02905552581791064</v>
+        <v>0.02749741163704852</v>
       </c>
       <c r="CD2">
-        <v>0.02960771898200477</v>
+        <v>0.02802950637453103</v>
       </c>
       <c r="CE2">
-        <v>0.03010231799462887</v>
+        <v>0.02850376270657876</v>
       </c>
       <c r="CF2">
-        <v>0.03048674037444083</v>
+        <v>0.02886737515213146</v>
       </c>
       <c r="CG2">
-        <v>0.03094493840613583</v>
+        <v>0.02930507612847964</v>
       </c>
       <c r="CH2">
-        <v>0.03140664364792036</v>
+        <v>0.02974629918882289</v>
       </c>
       <c r="CI2">
-        <v>0.03185301715931356</v>
+        <v>0.03017212549766002</v>
       </c>
       <c r="CJ2">
-        <v>0.03221035937843433</v>
+        <v>0.03050854293689145</v>
       </c>
       <c r="CK2">
-        <v>0.03245730786473743</v>
+        <v>0.03073409846891186</v>
       </c>
       <c r="CL2">
-        <v>0.03266626604007086</v>
+        <v>0.03092150257492159</v>
       </c>
       <c r="CM2">
-        <v>0.03276641155262696</v>
+        <v>0.03099963254900098</v>
       </c>
       <c r="CN2">
-        <v>0.04031246924523186</v>
+        <v>0.03855525245060395</v>
       </c>
       <c r="CO2">
-        <v>0.1075478409613415</v>
+        <v>0.10605332582184</v>
       </c>
       <c r="CP2">
-        <v>0.1077351688461228</v>
+        <v>0.1062190079042988</v>
       </c>
       <c r="CQ2">
-        <v>0.1802972306981904</v>
+        <v>0.1790663616424709</v>
       </c>
       <c r="CR2">
-        <v>0.2266975718825086</v>
+        <v>0.2256410441417914</v>
       </c>
       <c r="CS2">
-        <v>0.2359377821183549</v>
+        <v>0.2348980014042781</v>
       </c>
       <c r="CT2">
-        <v>0.2510775175047801</v>
+        <v>0.2500795034134552</v>
       </c>
       <c r="CU2">
-        <v>0.2598674752291342</v>
+        <v>0.2588842986656852</v>
       </c>
       <c r="CV2">
-        <v>0.2602826280797306</v>
+        <v>0.259278771908438</v>
       </c>
       <c r="CW2">
-        <v>0.2602854071725015</v>
+        <v>0.259278771908438</v>
       </c>
       <c r="CX2">
-        <v>0.2632957392493369</v>
+        <v>0.2622794304049355</v>
       </c>
       <c r="CY2">
-        <v>0.2855292128168221</v>
+        <v>0.2845847547900324</v>
       </c>
       <c r="CZ2">
-        <v>0.3409604012316428</v>
+        <v>0.3402285838989554</v>
       </c>
       <c r="DA2">
-        <v>0.3618067967637243</v>
+        <v>0.3611409477188966</v>
       </c>
       <c r="DB2">
-        <v>0.368645746338281</v>
+        <v>0.367986460691688</v>
       </c>
       <c r="DC2">
-        <v>0.3740586984764407</v>
+        <v>0.3733999286430642</v>
       </c>
       <c r="DD2">
-        <v>0.3754221465112413</v>
+        <v>0.3747467187432741</v>
       </c>
       <c r="DE2">
-        <v>0.3792111664079519</v>
+        <v>0.3785293674364065</v>
       </c>
       <c r="DF2">
-        <v>0.3955906478260203</v>
+        <v>0.3949558731791944</v>
       </c>
       <c r="DG2">
-        <v>0.4155269153348718</v>
+        <v>0.4149542491677058</v>
       </c>
       <c r="DH2">
-        <v>0.4173866622823398</v>
+        <v>0.4167994429598711</v>
       </c>
       <c r="DI2">
-        <v>0.4177031986904191</v>
+        <v>0.4170948815326226</v>
       </c>
       <c r="DJ2">
-        <v>0.4265177039153997</v>
+        <v>0.4259243283902225</v>
       </c>
       <c r="DK2">
-        <v>0.4299721980035719</v>
+        <v>0.4293710325673095</v>
       </c>
       <c r="DL2">
-        <v>0.442634403326761</v>
+        <v>0.4420644974300607</v>
       </c>
       <c r="DM2">
-        <v>0.4429411247045897</v>
+        <v>0.442350079347501</v>
       </c>
       <c r="DN2">
-        <v>0.4519129319335853</v>
+        <v>0.451337495319181</v>
       </c>
       <c r="DO2">
-        <v>0.4531757979658186</v>
+        <v>0.452583276853496</v>
       </c>
       <c r="DP2">
-        <v>0.4541544233907969</v>
+        <v>0.4535436123301155</v>
       </c>
       <c r="DQ2">
-        <v>0.4541563528622461</v>
+        <v>0.4535436123301155</v>
       </c>
       <c r="DR2">
-        <v>0.454189688656097</v>
+        <v>0.4535546492487573</v>
       </c>
       <c r="DS2">
-        <v>0.4598730378011583</v>
+        <v>0.4592396609474473</v>
       </c>
       <c r="DT2">
-        <v>0.4621158498584036</v>
+        <v>0.461469544409687</v>
       </c>
       <c r="DU2">
-        <v>0.4630997208835159</v>
+        <v>0.4624351477327726</v>
       </c>
       <c r="DV2">
-        <v>0.4631016503549651</v>
+        <v>0.4624351477327726</v>
       </c>
       <c r="DW2">
-        <v>0.4685146024931248</v>
+        <v>0.4678486156841488</v>
       </c>
       <c r="DX2">
-        <v>0.4784884127476954</v>
+        <v>0.4778422841269716</v>
       </c>
       <c r="DY2">
-        <v>0.4814841907241594</v>
+        <v>0.4808283267998735</v>
       </c>
       <c r="DZ2">
-        <v>0.4824895991498213</v>
+        <v>0.4818155588625656</v>
       </c>
       <c r="EA2">
-        <v>0.4853351457224508</v>
+        <v>0.4846507330076356</v>
       </c>
       <c r="EB2">
-        <v>0.4856448069303546</v>
+        <v>0.4849392672228257</v>
       </c>
       <c r="EC2">
-        <v>0.4879345156887969</v>
+        <v>0.4872162462728664</v>
       </c>
       <c r="ED2">
-        <v>0.4879568611733672</v>
+        <v>0.4872162462728664</v>
       </c>
       <c r="EE2">
-        <v>0.4897855392200423</v>
+        <v>0.489030239402558</v>
       </c>
       <c r="EF2">
-        <v>0.4898272526641069</v>
+        <v>0.4890496895006163</v>
       </c>
       <c r="EG2">
-        <v>0.4924893815320548</v>
+        <v>0.491700668075537</v>
       </c>
       <c r="EH2">
-        <v>0.494628284286648</v>
+        <v>0.4938262015608807</v>
       </c>
       <c r="EI2">
-        <v>0.4973344695557204</v>
+        <v>0.496521423377957</v>
       </c>
       <c r="EJ2">
-        <v>0.5008043596442856</v>
+        <v>0.4999835888491176</v>
       </c>
       <c r="EK2">
-        <v>0.5015027990621125</v>
+        <v>0.5006625500635048</v>
       </c>
       <c r="EL2">
-        <v>0.5049726891506776</v>
+        <v>0.5041247155346654</v>
       </c>
       <c r="EM2">
-        <v>0.51026390028573</v>
+        <v>0.5094159261853256</v>
       </c>
       <c r="EN2">
-        <v>0.513304816163346</v>
+        <v>0.5124472981869992</v>
       </c>
       <c r="EO2">
-        <v>0.514337495389704</v>
+        <v>0.5134619167045124</v>
       </c>
       <c r="EP2">
-        <v>0.5143437606223639</v>
+        <v>0.5134619167045124</v>
       </c>
       <c r="EQ2">
-        <v>0.5154677105510515</v>
+        <v>0.5145681929989163</v>
       </c>
       <c r="ER2">
-        <v>0.5172728558971258</v>
+        <v>0.516358553626981</v>
       </c>
       <c r="ES2">
-        <v>0.5179678422148646</v>
+        <v>0.5170340470968523</v>
       </c>
       <c r="ET2">
-        <v>0.5183465148445298</v>
+        <v>0.5173918854078505</v>
       </c>
       <c r="EU2">
-        <v>0.5225932713529235</v>
+        <v>0.5216342119511315</v>
       </c>
       <c r="EV2">
-        <v>0.5270231291659908</v>
+        <v>0.5260604163227167</v>
       </c>
       <c r="EW2">
-        <v>0.5311977268725429</v>
+        <v>0.530230278042225</v>
       </c>
       <c r="EX2">
-        <v>0.5389382204701105</v>
+        <v>0.5379811584419042</v>
       </c>
       <c r="EY2">
-        <v>0.5567320049242774</v>
+        <v>0.5558279652104321</v>
       </c>
       <c r="EZ2">
-        <v>0.589332631756373</v>
+        <v>0.5885444094474298</v>
       </c>
       <c r="FA2">
-        <v>0.6187942455083486</v>
+        <v>0.6181085282041655</v>
       </c>
       <c r="FB2">
-        <v>0.6337089768890308</v>
+        <v>0.6330640719766737</v>
       </c>
       <c r="FC2">
-        <v>0.6438072961467795</v>
+        <v>0.6431827774592354</v>
       </c>
       <c r="FD2">
-        <v>0.646321156210943</v>
+        <v>0.6456848584296645</v>
       </c>
       <c r="FE2">
-        <v>0.6467166356010372</v>
+        <v>0.6460595747777365</v>
       </c>
       <c r="FF2">
-        <v>0.6544459687983201</v>
+        <v>0.6537992474464219</v>
       </c>
       <c r="FG2">
-        <v>0.6752551633294521</v>
+        <v>0.6746742524977976</v>
       </c>
       <c r="FH2">
-        <v>0.7176659474119412</v>
+        <v>0.7172424583797681</v>
       </c>
       <c r="FI2">
-        <v>0.7698661887442955</v>
+        <v>0.7696416381184985</v>
       </c>
       <c r="FJ2">
-        <v>0.8023436195732465</v>
+        <v>0.8022343638841595</v>
       </c>
       <c r="FK2">
-        <v>0.8204578440355924</v>
+        <v>0.8204029696311863</v>
       </c>
       <c r="FL2">
-        <v>0.8281498412319223</v>
+        <v>0.8281051479587743</v>
       </c>
       <c r="FM2">
-        <v>0.8304395499903646</v>
+        <v>0.8303821270088151</v>
       </c>
       <c r="FN2">
-        <v>0.8305410485329553</v>
+        <v>0.8304616157510628</v>
       </c>
       <c r="FO2">
-        <v>0.8311300504479889</v>
+        <v>0.8310306753435879</v>
       </c>
       <c r="FP2">
-        <v>0.8333529568047262</v>
+        <v>0.8332405686862223</v>
       </c>
       <c r="FQ2">
-        <v>0.8347117230394072</v>
+        <v>0.8345826571310286</v>
       </c>
       <c r="FR2">
-        <v>0.8350513602980761</v>
+        <v>0.8349012945239414</v>
       </c>
       <c r="FS2">
-        <v>0.8372740813548086</v>
+        <v>0.8371110017807228</v>
       </c>
       <c r="FT2">
-        <v>0.8588492479054912</v>
+        <v>0.8587552273013247</v>
       </c>
       <c r="FU2">
-        <v>0.8976742488964571</v>
+        <v>0.8977224429619771</v>
       </c>
       <c r="FV2">
-        <v>0.935221039854798</v>
+        <v>0.9354060277640999</v>
       </c>
       <c r="FW2">
-        <v>0.9569839744102732</v>
+        <v>0.957238817604371</v>
       </c>
       <c r="FX2">
-        <v>0.9708320317637298</v>
+        <v>0.9711231636375474</v>
       </c>
       <c r="FY2">
-        <v>0.9758043532906429</v>
+        <v>0.9760941322849185</v>
       </c>
       <c r="FZ2">
-        <v>0.9758300435842986</v>
+        <v>0.9760974912791748</v>
       </c>
       <c r="GA2">
-        <v>0.9763923664986512</v>
+        <v>0.9766397587266886</v>
       </c>
       <c r="GB2">
-        <v>0.9777463146332093</v>
+        <v>0.9779770086380463</v>
       </c>
       <c r="GC2">
-        <v>0.9802325699966682</v>
+        <v>0.9804513678375922</v>
       </c>
       <c r="GD2">
-        <v>0.986193209148807</v>
+        <v>0.9864148455166466</v>
       </c>
       <c r="GE2">
-        <v>0.9909153429693344</v>
+        <v>0.9911345654238697</v>
       </c>
       <c r="GF2">
-        <v>0.9935707257371101</v>
+        <v>0.993778769288739</v>
       </c>
       <c r="GG2">
-        <v>0.9951202115766591</v>
+        <v>0.9953123861708807</v>
       </c>
       <c r="GH2">
-        <v>0.9951209055322168</v>
+        <v>0.9953123861708807</v>
       </c>
       <c r="GI2">
-        <v>0.9956097026446928</v>
+        <v>0.995780815997207</v>
       </c>
       <c r="GJ2">
-        <v>0.9959621158136878</v>
+        <v>0.9961122834824534</v>
       </c>
       <c r="GK2">
-        <v>0.9959722786689471</v>
+        <v>0.9961122834824534</v>
       </c>
       <c r="GL2">
-        <v>0.9959973297755865</v>
+        <v>0.9961150005789327</v>
       </c>
       <c r="GM2">
-        <v>0.995997334183836</v>
+        <v>0.9961150005789327</v>
       </c>
       <c r="GN2">
-        <v>0.9960474886891161</v>
+        <v>0.996142927536332</v>
       </c>
       <c r="GO2">
-        <v>0.9962093861232484</v>
+        <v>0.996283071318851</v>
       </c>
       <c r="GP2">
-        <v>0.9966448538843632</v>
+        <v>0.996697945626659</v>
       </c>
       <c r="GQ2">
-        <v>0.997518144836653</v>
+        <v>0.99755249991227</v>
       </c>
       <c r="GR2">
-        <v>0.9990895946767626</v>
+        <v>0.9991081739432188</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.039329498563723E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.141646344276548E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001415637833043692</v>
+        <v>2.056229387666622E-06</v>
       </c>
       <c r="E3">
-        <v>0.0002250887031889439</v>
+        <v>2.056229387666622E-06</v>
       </c>
       <c r="F3">
-        <v>0.0005060204728007168</v>
+        <v>0.0001880783210502945</v>
       </c>
       <c r="G3">
-        <v>0.0008771238522878791</v>
+        <v>0.0004658588465072644</v>
       </c>
       <c r="H3">
-        <v>0.001084940382000692</v>
+        <v>0.0005774790293108021</v>
       </c>
       <c r="I3">
-        <v>0.001254696051766102</v>
+        <v>0.0006503685639373171</v>
       </c>
       <c r="J3">
-        <v>0.00152292423139543</v>
+        <v>0.0008234635101051994</v>
       </c>
       <c r="K3">
-        <v>0.001693857141159213</v>
+        <v>0.0008975510015897547</v>
       </c>
       <c r="L3">
-        <v>0.001769734327054357</v>
+        <v>0.0008975510015897547</v>
       </c>
       <c r="M3">
-        <v>0.001844827846950583</v>
+        <v>0.0008975510015897547</v>
       </c>
       <c r="N3">
-        <v>0.001983537806758896</v>
+        <v>0.0009388484893887444</v>
       </c>
       <c r="O3">
-        <v>0.002081664456623292</v>
+        <v>0.0009388484893887444</v>
       </c>
       <c r="P3">
-        <v>0.002354715156245956</v>
+        <v>0.001116850821397269</v>
       </c>
       <c r="Q3">
-        <v>0.002547534025979494</v>
+        <v>0.001213209418074308</v>
       </c>
       <c r="R3">
-        <v>0.002638212855854183</v>
+        <v>0.001213209418074308</v>
       </c>
       <c r="S3">
-        <v>0.002676888835800735</v>
+        <v>0.001213209418074308</v>
       </c>
       <c r="T3">
-        <v>0.002703973172763306</v>
+        <v>0.001213209418074308</v>
       </c>
       <c r="U3">
-        <v>0.002706811364759384</v>
+        <v>0.001213209418074308</v>
       </c>
       <c r="V3">
-        <v>0.002776502984663075</v>
+        <v>0.001213209418074308</v>
       </c>
       <c r="W3">
-        <v>0.002927377194454578</v>
+        <v>0.00126688522015961</v>
       </c>
       <c r="X3">
-        <v>0.003101520914213924</v>
+        <v>0.001344240024901755</v>
       </c>
       <c r="Y3">
-        <v>0.003446113233737723</v>
+        <v>0.001595042953487295</v>
       </c>
       <c r="Z3">
-        <v>0.004028514462932887</v>
+        <v>0.002087839710550995</v>
       </c>
       <c r="AA3">
-        <v>0.004606028232134805</v>
+        <v>0.0025756629989716</v>
       </c>
       <c r="AB3">
-        <v>0.005172217991352372</v>
+        <v>0.003051962999498471</v>
       </c>
       <c r="AC3">
-        <v>0.00607400419010617</v>
+        <v>0.00386976520588988</v>
       </c>
       <c r="AD3">
-        <v>0.006826767429065906</v>
+        <v>0.00453592197300171</v>
       </c>
       <c r="AE3">
-        <v>0.007175137398584485</v>
+        <v>0.004790569029993332</v>
       </c>
       <c r="AF3">
-        <v>0.007465151948183706</v>
+        <v>0.004985833738786768</v>
       </c>
       <c r="AG3">
-        <v>0.007569595888039372</v>
+        <v>0.004992262199321349</v>
       </c>
       <c r="AH3">
-        <v>0.007579663681025459</v>
+        <v>0.004992262199321349</v>
       </c>
       <c r="AI3">
-        <v>0.007581476600122954</v>
+        <v>0.004992262199321349</v>
       </c>
       <c r="AJ3">
-        <v>0.007644584680035743</v>
+        <v>0.004992262199321349</v>
       </c>
       <c r="AK3">
-        <v>0.0078764655497153</v>
+        <v>0.005128370202057286</v>
       </c>
       <c r="AL3">
-        <v>0.008387799049008675</v>
+        <v>0.005548848591975061</v>
       </c>
       <c r="AM3">
-        <v>0.008937033548249674</v>
+        <v>0.006007894956882297</v>
       </c>
       <c r="AN3">
-        <v>0.009777701297087932</v>
+        <v>0.006763503161769931</v>
       </c>
       <c r="AO3">
-        <v>0.01045755874614842</v>
+        <v>0.007355471155886146</v>
       </c>
       <c r="AP3">
-        <v>0.01101581404537695</v>
+        <v>0.007823697067211284</v>
       </c>
       <c r="AQ3">
-        <v>0.01164152608451226</v>
+        <v>0.008360566810129007</v>
       </c>
       <c r="AR3">
-        <v>0.01226949638364445</v>
+        <v>0.008899734553500535</v>
       </c>
       <c r="AS3">
-        <v>0.01265330425311406</v>
+        <v>0.009190443140290289</v>
       </c>
       <c r="AT3">
-        <v>0.01277553779294514</v>
+        <v>0.009214974259009944</v>
       </c>
       <c r="AU3">
-        <v>0.01282496984887683</v>
+        <v>0.009214974259009944</v>
       </c>
       <c r="AV3">
-        <v>0.01282516738998656</v>
+        <v>0.009214974259009944</v>
       </c>
       <c r="AW3">
-        <v>0.01282753320288329</v>
+        <v>0.009214974259009944</v>
       </c>
       <c r="AX3">
-        <v>0.01298091055267133</v>
+        <v>0.009271197250903302</v>
       </c>
       <c r="AY3">
-        <v>0.01329084067224303</v>
+        <v>0.009486728000319963</v>
       </c>
       <c r="AZ3">
-        <v>0.01352819259191503</v>
+        <v>0.009628403331610979</v>
       </c>
       <c r="BA3">
-        <v>0.01379415067154749</v>
+        <v>0.009799188228966861</v>
       </c>
       <c r="BB3">
-        <v>0.01402119479123373</v>
+        <v>0.009930374365445173</v>
       </c>
       <c r="BC3">
-        <v>0.01437125034074998</v>
+        <v>0.01018673666497084</v>
       </c>
       <c r="BD3">
-        <v>0.01474489498023363</v>
+        <v>0.01046710317106478</v>
       </c>
       <c r="BE3">
-        <v>0.01511506065972209</v>
+        <v>0.01074392949504559</v>
       </c>
       <c r="BF3">
-        <v>0.01569746188891726</v>
+        <v>0.01123672625210929</v>
       </c>
       <c r="BG3">
-        <v>0.0159510635285668</v>
+        <v>0.01139493726305377</v>
       </c>
       <c r="BH3">
-        <v>0.01606565202840844</v>
+        <v>0.01141168880573286</v>
       </c>
       <c r="BI3">
-        <v>0.01619827934822516</v>
+        <v>0.01144679661232582</v>
       </c>
       <c r="BJ3">
-        <v>0.01629130079809661</v>
+        <v>0.01144679661232582</v>
       </c>
       <c r="BK3">
-        <v>0.01634809750501812</v>
+        <v>0.01144679661232582</v>
       </c>
       <c r="BL3">
-        <v>0.01638186872797145</v>
+        <v>0.01144679661232582</v>
       </c>
       <c r="BM3">
-        <v>0.01641133143093074</v>
+        <v>0.01144679661232582</v>
       </c>
       <c r="BN3">
-        <v>0.01641256280782904</v>
+        <v>0.01144679661232582</v>
       </c>
       <c r="BO3">
-        <v>0.01647196507174695</v>
+        <v>0.01144679661232582</v>
       </c>
       <c r="BP3">
-        <v>0.01658395189159219</v>
+        <v>0.01146090069110763</v>
       </c>
       <c r="BQ3">
-        <v>0.01683546067124463</v>
+        <v>0.01161698201227779</v>
       </c>
       <c r="BR3">
-        <v>0.01743494247041619</v>
+        <v>0.012127159920144</v>
       </c>
       <c r="BS3">
-        <v>0.01800444243962918</v>
+        <v>0.0126068283831518</v>
       </c>
       <c r="BT3">
-        <v>0.01837728543911394</v>
+        <v>0.01288637914212903</v>
       </c>
       <c r="BU3">
-        <v>0.01887796689842203</v>
+        <v>0.01329601803936041</v>
       </c>
       <c r="BV3">
-        <v>0.01959537059743063</v>
+        <v>0.01392619301563932</v>
       </c>
       <c r="BW3">
-        <v>0.02021377129657605</v>
+        <v>0.01445562275490913</v>
       </c>
       <c r="BX3">
-        <v>0.02064818225597572</v>
+        <v>0.01479782493578636</v>
       </c>
       <c r="BY3">
-        <v>0.02096415983553907</v>
+        <v>0.01501950956731773</v>
       </c>
       <c r="BZ3">
-        <v>0.02106228648540346</v>
+        <v>0.01501950956731773</v>
       </c>
       <c r="CA3">
-        <v>0.02108607444137059</v>
+        <v>0.01501950956731773</v>
       </c>
       <c r="CB3">
-        <v>0.02109318953076076</v>
+        <v>0.01501950956731773</v>
       </c>
       <c r="CC3">
-        <v>0.02109977357115166</v>
+        <v>0.01501950956731773</v>
       </c>
       <c r="CD3">
-        <v>0.0211149412561307</v>
+        <v>0.01501950956731773</v>
       </c>
       <c r="CE3">
-        <v>0.02126223620592715</v>
+        <v>0.01506954312222853</v>
       </c>
       <c r="CF3">
-        <v>0.02156388573551029</v>
+        <v>0.0152766475613099</v>
       </c>
       <c r="CG3">
-        <v>0.02188220861507039</v>
+        <v>0.01550071876500937</v>
       </c>
       <c r="CH3">
-        <v>0.02227304611453028</v>
+        <v>0.01579858068796506</v>
       </c>
       <c r="CI3">
-        <v>0.02262860784403892</v>
+        <v>0.01606054606425723</v>
       </c>
       <c r="CJ3">
-        <v>0.02307002156342892</v>
+        <v>0.01640987423844696</v>
       </c>
       <c r="CK3">
-        <v>0.02336815654301692</v>
+        <v>0.01661340227910878</v>
       </c>
       <c r="CL3">
-        <v>0.02361569018267484</v>
+        <v>0.01676543850647932</v>
       </c>
       <c r="CM3">
-        <v>0.02395320311220842</v>
+        <v>0.01700903746323138</v>
       </c>
       <c r="CN3">
-        <v>0.02408406010202759</v>
+        <v>0.01704234378587502</v>
       </c>
       <c r="CO3">
-        <v>0.1531330299236914</v>
+        <v>0.1482624409124045</v>
       </c>
       <c r="CP3">
-        <v>0.1554590884204769</v>
+        <v>0.1505295795068749</v>
       </c>
       <c r="CQ3">
-        <v>0.2107307143440956</v>
+        <v>0.2066740121870626</v>
       </c>
       <c r="CR3">
-        <v>0.2392022843047499</v>
+        <v>0.2355467662961274</v>
       </c>
       <c r="CS3">
-        <v>0.2443985432975691</v>
+        <v>0.2407346146633936</v>
       </c>
       <c r="CT3">
-        <v>0.2468915410941239</v>
+        <v>0.2431716303256764</v>
       </c>
       <c r="CU3">
-        <v>0.2753288760548256</v>
+        <v>0.2720095469733612</v>
       </c>
       <c r="CV3">
-        <v>0.289503697035237</v>
+        <v>0.2863339604617935</v>
       </c>
       <c r="CW3">
-        <v>0.2902733577341734</v>
+        <v>0.287017312047371</v>
       </c>
       <c r="CX3">
-        <v>0.2905202389838322</v>
+        <v>0.2871686844040995</v>
       </c>
       <c r="CY3">
-        <v>0.3292757689302749</v>
+        <v>0.3265063737938326</v>
       </c>
       <c r="CZ3">
-        <v>0.3794126588609894</v>
+        <v>0.3774257103122969</v>
       </c>
       <c r="DA3">
-        <v>0.3799037194103108</v>
+        <v>0.3778255589924824</v>
       </c>
       <c r="DB3">
-        <v>0.3804550699095489</v>
+        <v>0.3782867585943775</v>
       </c>
       <c r="DC3">
-        <v>0.3901111518962049</v>
+        <v>0.3880129131256347</v>
       </c>
       <c r="DD3">
-        <v>0.4028779738785621</v>
+        <v>0.4009045499005982</v>
       </c>
       <c r="DE3">
-        <v>0.4075257363721392</v>
+        <v>0.4055342494249893</v>
       </c>
       <c r="DF3">
-        <v>0.4379040393301586</v>
+        <v>0.4363472908788624</v>
       </c>
       <c r="DG3">
-        <v>0.4521460588104772</v>
+        <v>0.4507400854144262</v>
       </c>
       <c r="DH3">
-        <v>0.4521562817414631</v>
+        <v>0.4507400854144262</v>
       </c>
       <c r="DI3">
-        <v>0.4529625519103488</v>
+        <v>0.4514606907168802</v>
       </c>
       <c r="DJ3">
-        <v>0.4724320798834434</v>
+        <v>0.4711729865079567</v>
       </c>
       <c r="DK3">
-        <v>0.4871598768630906</v>
+        <v>0.4860601071687005</v>
       </c>
       <c r="DL3">
-        <v>0.5148374148248424</v>
+        <v>0.5141248560452693</v>
       </c>
       <c r="DM3">
-        <v>0.5162339097229125</v>
+        <v>0.5154460727464938</v>
       </c>
       <c r="DN3">
-        <v>0.5539101546708467</v>
+        <v>0.5536854840726797</v>
       </c>
       <c r="DO3">
-        <v>0.5566607411670456</v>
+        <v>0.5563846214346319</v>
       </c>
       <c r="DP3">
-        <v>0.57460344514225</v>
+        <v>0.5745432244512353</v>
       </c>
       <c r="DQ3">
-        <v>0.5776611783380244</v>
+        <v>0.5775549136256382</v>
       </c>
       <c r="DR3">
-        <v>0.5818621085322191</v>
+        <v>0.581729917575483</v>
       </c>
       <c r="DS3">
-        <v>0.5832831481302553</v>
+        <v>0.5830761109099288</v>
       </c>
       <c r="DT3">
-        <v>0.5877978828240162</v>
+        <v>0.5875704416349927</v>
       </c>
       <c r="DU3">
-        <v>0.5888229033225998</v>
+        <v>0.5885136467964577</v>
       </c>
       <c r="DV3">
-        <v>0.589489887021678</v>
+        <v>0.589092514490634</v>
       </c>
       <c r="DW3">
-        <v>0.5925426346174594</v>
+        <v>0.5920991303293437</v>
       </c>
       <c r="DX3">
-        <v>0.6161952835847732</v>
+        <v>0.616068160932322</v>
       </c>
       <c r="DY3">
-        <v>0.6192157233805992</v>
+        <v>0.6190419004241711</v>
       </c>
       <c r="DZ3">
-        <v>0.6192157271150168</v>
+        <v>0.6190419004241711</v>
       </c>
       <c r="EA3">
-        <v>0.6280608581027936</v>
+        <v>0.6279428329854095</v>
       </c>
       <c r="EB3">
-        <v>0.630098306399978</v>
+        <v>0.6299162824694263</v>
       </c>
       <c r="EC3">
-        <v>0.6340007333945851</v>
+        <v>0.6337875302135807</v>
       </c>
       <c r="ED3">
-        <v>0.6379867143890767</v>
+        <v>0.6377438023260175</v>
       </c>
       <c r="EE3">
-        <v>0.6385082146383561</v>
+        <v>0.6381746263785754</v>
       </c>
       <c r="EF3">
-        <v>0.6406769806353589</v>
+        <v>0.6402817044678868</v>
       </c>
       <c r="EG3">
-        <v>0.6447000632297993</v>
+        <v>0.6442757310876154</v>
       </c>
       <c r="EH3">
-        <v>0.6513205082206504</v>
+        <v>0.6509128280242686</v>
       </c>
       <c r="EI3">
-        <v>0.6525952001188888</v>
+        <v>0.6521100982581798</v>
       </c>
       <c r="EJ3">
-        <v>0.6525963858840872</v>
+        <v>0.6521100982581798</v>
       </c>
       <c r="EK3">
-        <v>0.652600172098882</v>
+        <v>0.6521100982581798</v>
       </c>
       <c r="EL3">
-        <v>0.658381203790893</v>
+        <v>0.657893010050372</v>
       </c>
       <c r="EM3">
-        <v>0.6635809741837073</v>
+        <v>0.6630844316106247</v>
       </c>
       <c r="EN3">
-        <v>0.6651521263815361</v>
+        <v>0.6645833791996392</v>
       </c>
       <c r="EO3">
-        <v>0.6662327494800427</v>
+        <v>0.6655831654456705</v>
       </c>
       <c r="EP3">
-        <v>0.6663060946249414</v>
+        <v>0.6655831654456705</v>
       </c>
       <c r="EQ3">
-        <v>0.667412818023412</v>
+        <v>0.6666095113000926</v>
       </c>
       <c r="ER3">
-        <v>0.6702336230195138</v>
+        <v>0.6693801028545937</v>
       </c>
       <c r="ES3">
-        <v>0.674815515413182</v>
+        <v>0.673942773108798</v>
       </c>
       <c r="ET3">
-        <v>0.6750745902128239</v>
+        <v>0.6741065535954289</v>
       </c>
       <c r="EU3">
-        <v>0.6765067019108448</v>
+        <v>0.6754640138747016</v>
       </c>
       <c r="EV3">
-        <v>0.6769340170102544</v>
+        <v>0.6757989953239092</v>
       </c>
       <c r="EW3">
-        <v>0.6769851826031836</v>
+        <v>0.6757989953239092</v>
       </c>
       <c r="EX3">
-        <v>0.6850205255920794</v>
+        <v>0.6838758893813941</v>
       </c>
       <c r="EY3">
-        <v>0.7109084845563041</v>
+        <v>0.7101195665682011</v>
       </c>
       <c r="EZ3">
-        <v>0.7415303225139869</v>
+        <v>0.7411804287072554</v>
       </c>
       <c r="FA3">
-        <v>0.7666655424792519</v>
+        <v>0.7666581203283624</v>
       </c>
       <c r="FB3">
-        <v>0.7748736194679089</v>
+        <v>0.7749107881277494</v>
       </c>
       <c r="FC3">
-        <v>0.7845962909544729</v>
+        <v>0.7847047039890653</v>
       </c>
       <c r="FD3">
-        <v>0.7894993399476973</v>
+        <v>0.7895941824994238</v>
       </c>
       <c r="FE3">
-        <v>0.7895353756476475</v>
+        <v>0.7895941824994238</v>
       </c>
       <c r="FF3">
-        <v>0.7918192126444914</v>
+        <v>0.7918183565875219</v>
       </c>
       <c r="FG3">
-        <v>0.8031682066288079</v>
+        <v>0.8032672146800401</v>
       </c>
       <c r="FH3">
-        <v>0.8270961815957413</v>
+        <v>0.8275164164205069</v>
       </c>
       <c r="FI3">
-        <v>0.8555829715563746</v>
+        <v>0.8564046583683975</v>
       </c>
       <c r="FJ3">
-        <v>0.869392370537291</v>
+        <v>0.8703572192261183</v>
       </c>
       <c r="FK3">
-        <v>0.8765766040273629</v>
+        <v>0.8775680261115156</v>
       </c>
       <c r="FL3">
-        <v>0.8804663630219876</v>
+        <v>0.8814263829264817</v>
       </c>
       <c r="FM3">
-        <v>0.8829708135185266</v>
+        <v>0.8838750528313217</v>
       </c>
       <c r="FN3">
-        <v>0.8830736871043844</v>
+        <v>0.8838798833030487</v>
       </c>
       <c r="FO3">
-        <v>0.883277299144103</v>
+        <v>0.8839872250059925</v>
       </c>
       <c r="FP3">
-        <v>0.8859375755404267</v>
+        <v>0.8865944630070282</v>
       </c>
       <c r="FQ3">
-        <v>0.8887847905364921</v>
+        <v>0.8893919293199649</v>
       </c>
       <c r="FR3">
-        <v>0.8892684635158237</v>
+        <v>0.8897842604250207</v>
       </c>
       <c r="FS3">
-        <v>0.8903482267143316</v>
+        <v>0.8907831716386863</v>
       </c>
       <c r="FT3">
-        <v>0.9042554196951128</v>
+        <v>0.9048352474576513</v>
       </c>
       <c r="FU3">
-        <v>0.9373767496493416</v>
+        <v>0.9384395872079127</v>
       </c>
       <c r="FV3">
-        <v>0.9583820676203137</v>
+        <v>0.9597146995555198</v>
       </c>
       <c r="FW3">
-        <v>0.9665799326089849</v>
+        <v>0.9679569756459652</v>
       </c>
       <c r="FX3">
-        <v>0.9695694692048535</v>
+        <v>0.9708992681088521</v>
       </c>
       <c r="FY3">
-        <v>0.9699991182042598</v>
+        <v>0.9712366245296127</v>
       </c>
       <c r="FZ3">
-        <v>0.971521494802156</v>
+        <v>0.9726859381743803</v>
       </c>
       <c r="GA3">
-        <v>0.9769082873947118</v>
+        <v>0.9780676731177119</v>
       </c>
       <c r="GB3">
-        <v>0.9800972802903049</v>
+        <v>0.9812129318767359</v>
       </c>
       <c r="GC3">
-        <v>0.9819046234878073</v>
+        <v>0.9829522269125389</v>
       </c>
       <c r="GD3">
-        <v>0.9871729124805269</v>
+        <v>0.9882133728508057</v>
       </c>
       <c r="GE3">
-        <v>0.9914871364745649</v>
+        <v>0.9925036643245908</v>
       </c>
       <c r="GF3">
-        <v>0.9918861116040135</v>
+        <v>0.9928098070820974</v>
       </c>
       <c r="GG3">
-        <v>0.9918974324849978</v>
+        <v>0.9928098070820974</v>
       </c>
       <c r="GH3">
-        <v>0.9923613940843566</v>
+        <v>0.9931820799298289</v>
       </c>
       <c r="GI3">
-        <v>0.9926029332040228</v>
+        <v>0.9933280161467133</v>
       </c>
       <c r="GJ3">
-        <v>0.9927897992937645</v>
+        <v>0.9934183172074372</v>
       </c>
       <c r="GK3">
-        <v>0.9932242102531642</v>
+        <v>0.9937605193883144</v>
       </c>
       <c r="GL3">
-        <v>0.9936567432925665</v>
+        <v>0.9941008106018928</v>
       </c>
       <c r="GM3">
-        <v>0.9946925053911352</v>
+        <v>0.995054946392105</v>
       </c>
       <c r="GN3">
-        <v>0.9958854969894866</v>
+        <v>0.9961690785788134</v>
       </c>
       <c r="GO3">
-        <v>0.9977858852868604</v>
+        <v>0.9980030561055716</v>
       </c>
       <c r="GP3">
-        <v>0.9991680913849503</v>
+        <v>0.9993097325550605</v>
       </c>
       <c r="GQ3">
-        <v>0.9999445483438774</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9999991572738018</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0007115367051817137</v>
+        <v>0.0006744828789622734</v>
       </c>
       <c r="C4">
-        <v>0.0008486067304007332</v>
+        <v>0.0007700885029398833</v>
       </c>
       <c r="D4">
-        <v>0.0009986407251675715</v>
+        <v>0.0008787576297581339</v>
       </c>
       <c r="E4">
-        <v>0.001015243792588459</v>
+        <v>0.0008787576297581339</v>
       </c>
       <c r="F4">
-        <v>0.001193624046366585</v>
+        <v>0.001015990649275268</v>
       </c>
       <c r="G4">
-        <v>0.001646801530559826</v>
+        <v>0.001430130706169088</v>
       </c>
       <c r="H4">
-        <v>0.002120827994025859</v>
+        <v>0.001865279814260532</v>
       </c>
       <c r="I4">
-        <v>0.002594854457491892</v>
+        <v>0.002300428922351977</v>
       </c>
       <c r="J4">
-        <v>0.003206635636153062</v>
+        <v>0.002874390383143379</v>
       </c>
       <c r="K4">
-        <v>0.00461456188704482</v>
+        <v>0.00425060946836713</v>
       </c>
       <c r="L4">
-        <v>0.005884954942733714</v>
+        <v>0.00548823942164423</v>
       </c>
       <c r="M4">
-        <v>0.007480418987084183</v>
+        <v>0.007053436156694964</v>
       </c>
       <c r="N4">
-        <v>0.008966342035255426</v>
+        <v>0.008508250874148726</v>
       </c>
       <c r="O4">
-        <v>0.009918539942042915</v>
+        <v>0.009425242675953851</v>
       </c>
       <c r="P4">
-        <v>0.01040567794505162</v>
+        <v>0.009873603989876932</v>
       </c>
       <c r="Q4">
-        <v>0.01079405365150514</v>
+        <v>0.01022244474130271</v>
       </c>
       <c r="R4">
-        <v>0.01090961318747444</v>
+        <v>0.01029637472523961</v>
       </c>
       <c r="S4">
-        <v>0.01093965247042667</v>
+        <v>0.01029637472523961</v>
       </c>
       <c r="T4">
-        <v>0.01097175533930693</v>
+        <v>0.01029637472523961</v>
       </c>
       <c r="U4">
-        <v>0.01101394817783525</v>
+        <v>0.01029637472523961</v>
       </c>
       <c r="V4">
-        <v>0.01135149063606182</v>
+        <v>0.01059399194669933</v>
       </c>
       <c r="W4">
-        <v>0.01201523524291052</v>
+        <v>0.01122031579458469</v>
       </c>
       <c r="X4">
-        <v>0.01285847545349843</v>
+        <v>0.01202751335716682</v>
       </c>
       <c r="Y4">
-        <v>0.013758893322092</v>
+        <v>0.01289232756988245</v>
       </c>
       <c r="Z4">
-        <v>0.01482994548473388</v>
+        <v>0.01392908615324695</v>
       </c>
       <c r="AA4">
-        <v>0.0161209884397025</v>
+        <v>0.01518752454925486</v>
       </c>
       <c r="AB4">
-        <v>0.01696009847043448</v>
+        <v>0.0159905602217553</v>
       </c>
       <c r="AC4">
-        <v>0.01788980843800634</v>
+        <v>0.01688489142899949</v>
       </c>
       <c r="AD4">
-        <v>0.01834011659229967</v>
+        <v>0.01729614012617822</v>
       </c>
       <c r="AE4">
-        <v>0.01872137439900146</v>
+        <v>0.01763780832885007</v>
       </c>
       <c r="AF4">
-        <v>0.01886146189411523</v>
+        <v>0.01773645458991003</v>
       </c>
       <c r="AG4">
-        <v>0.01890782296649816</v>
+        <v>0.01774065482615707</v>
       </c>
       <c r="AH4">
-        <v>0.01890906089935498</v>
+        <v>0.01774065482615707</v>
       </c>
       <c r="AI4">
-        <v>0.01904339045466959</v>
+        <v>0.01783349893976172</v>
       </c>
       <c r="AJ4">
-        <v>0.01932570274482258</v>
+        <v>0.018075461953237</v>
       </c>
       <c r="AK4">
-        <v>0.0195106083083731</v>
+        <v>0.0182192703818087</v>
       </c>
       <c r="AL4">
-        <v>0.019633948864071</v>
+        <v>0.01830104112570363</v>
       </c>
       <c r="AM4">
-        <v>0.02000128840125826</v>
+        <v>0.01862868419875224</v>
       </c>
       <c r="AN4">
-        <v>0.02044182282589249</v>
+        <v>0.01903008412664048</v>
       </c>
       <c r="AO4">
-        <v>0.02076422806464704</v>
+        <v>0.01931244790980396</v>
       </c>
       <c r="AP4">
-        <v>0.02115993482084486</v>
+        <v>0.01966867599647502</v>
       </c>
       <c r="AQ4">
-        <v>0.02152292033818398</v>
+        <v>0.01999193162087648</v>
       </c>
       <c r="AR4">
-        <v>0.02159017313983821</v>
+        <v>0.02001718398654073</v>
       </c>
       <c r="AS4">
-        <v>0.02159953609651163</v>
+        <v>0.02001718398654073</v>
       </c>
       <c r="AT4">
-        <v>0.02172831255201993</v>
+        <v>0.02010443236538016</v>
       </c>
       <c r="AU4">
-        <v>0.02186429767727679</v>
+        <v>0.02019894475987391</v>
       </c>
       <c r="AV4">
-        <v>0.02188869796642571</v>
+        <v>0.02019894475987391</v>
       </c>
       <c r="AW4">
-        <v>0.02189533225759431</v>
+        <v>0.02019894475987391</v>
       </c>
       <c r="AX4">
-        <v>0.02199810143000974</v>
+        <v>0.0202599861798565</v>
       </c>
       <c r="AY4">
-        <v>0.02207577268230058</v>
+        <v>0.02029573698575422</v>
       </c>
       <c r="AZ4">
-        <v>0.0220895736568192</v>
+        <v>0.02029573698575422</v>
       </c>
       <c r="BA4">
-        <v>0.02208982393201047</v>
+        <v>0.02029573698575422</v>
       </c>
       <c r="BB4">
-        <v>0.02217501336903908</v>
+        <v>0.02033906369865451</v>
       </c>
       <c r="BC4">
-        <v>0.02249043025803739</v>
+        <v>0.02061438547770378</v>
       </c>
       <c r="BD4">
-        <v>0.02283480949602549</v>
+        <v>0.0209188919695761</v>
       </c>
       <c r="BE4">
-        <v>0.02318343003386567</v>
+        <v>0.02122767232467072</v>
       </c>
       <c r="BF4">
-        <v>0.02351888266216513</v>
+        <v>0.02152318367114451</v>
       </c>
       <c r="BG4">
-        <v>0.02416079663977527</v>
+        <v>0.02212750928106588</v>
       </c>
       <c r="BH4">
-        <v>0.02466906679204689</v>
+        <v>0.0225971649902671</v>
       </c>
       <c r="BI4">
-        <v>0.02496359661177374</v>
+        <v>0.02285143933567701</v>
       </c>
       <c r="BJ4">
-        <v>0.02509636603714276</v>
+        <v>0.0229427113411476</v>
       </c>
       <c r="BK4">
-        <v>0.02512429878316847</v>
+        <v>0.0229427113411476</v>
       </c>
       <c r="BL4">
-        <v>0.02516199328185369</v>
+        <v>0.0229427113411476</v>
       </c>
       <c r="BM4">
-        <v>0.02522814351954638</v>
+        <v>0.02296685267770996</v>
       </c>
       <c r="BN4">
-        <v>0.02523860541768147</v>
+        <v>0.02296685267770996</v>
       </c>
       <c r="BO4">
-        <v>0.02525116590624336</v>
+        <v>0.02296685267770996</v>
       </c>
       <c r="BP4">
-        <v>0.02537073993207264</v>
+        <v>0.02304482797350108</v>
       </c>
       <c r="BQ4">
-        <v>0.02547729686835595</v>
+        <v>0.02310968623861472</v>
       </c>
       <c r="BR4">
-        <v>0.02553316510340728</v>
+        <v>0.02312346663054377</v>
       </c>
       <c r="BS4">
-        <v>0.0255592828544963</v>
+        <v>0.02312346663054377</v>
       </c>
       <c r="BT4">
-        <v>0.02561515108954762</v>
+        <v>0.02313724702247281</v>
       </c>
       <c r="BU4">
-        <v>0.02571194635617142</v>
+        <v>0.02319226867088845</v>
       </c>
       <c r="BV4">
-        <v>0.02588541575012083</v>
+        <v>0.0233245531265351</v>
       </c>
       <c r="BW4">
-        <v>0.02594695606797431</v>
+        <v>0.02334404914973935</v>
       </c>
       <c r="BX4">
-        <v>0.02598781646954911</v>
+        <v>0.02334404914973935</v>
       </c>
       <c r="BY4">
-        <v>0.02602705476518048</v>
+        <v>0.02334404914973935</v>
       </c>
       <c r="BZ4">
-        <v>0.02602731569531138</v>
+        <v>0.02334404914973935</v>
       </c>
       <c r="CA4">
-        <v>0.0260586167642196</v>
+        <v>0.02334404914973935</v>
       </c>
       <c r="CB4">
-        <v>0.02614611924116753</v>
+        <v>0.02338970666135412</v>
       </c>
       <c r="CC4">
-        <v>0.02618844908969107</v>
+        <v>0.02338984472326912</v>
       </c>
       <c r="CD4">
-        <v>0.0262606962831711</v>
+        <v>0.02342012982613341</v>
       </c>
       <c r="CE4">
-        <v>0.02627738533758899</v>
+        <v>0.02342012982613341</v>
       </c>
       <c r="CF4">
-        <v>0.02628124012975453</v>
+        <v>0.02342012982613341</v>
       </c>
       <c r="CG4">
-        <v>0.02630868430579729</v>
+        <v>0.02342012982613341</v>
       </c>
       <c r="CH4">
-        <v>0.02637687462941882</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="CI4">
-        <v>0.02639120970991881</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="CJ4">
-        <v>0.02639808530997899</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="CK4">
-        <v>0.02640150572725969</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="CL4">
-        <v>0.02640175600245096</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="CM4">
-        <v>0.02640742061675338</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="CN4">
-        <v>0.04094207510978696</v>
+        <v>0.03805005714216773</v>
       </c>
       <c r="CO4">
-        <v>0.09454503724012422</v>
+        <v>0.09202204922449823</v>
       </c>
       <c r="CP4">
-        <v>0.09622843658140752</v>
+        <v>0.09367585639611606</v>
       </c>
       <c r="CQ4">
-        <v>0.155612467510102</v>
+        <v>0.1534733025101545</v>
       </c>
       <c r="CR4">
-        <v>0.2556231500217454</v>
+        <v>0.2542093188978997</v>
       </c>
       <c r="CS4">
-        <v>0.259070739101494</v>
+        <v>0.2576408607035632</v>
       </c>
       <c r="CT4">
-        <v>0.2736750415920983</v>
+        <v>0.2723147736670214</v>
       </c>
       <c r="CU4">
-        <v>0.2738025284576516</v>
+        <v>0.2724007225548386</v>
       </c>
       <c r="CV4">
-        <v>0.2768301842520475</v>
+        <v>0.2754091069590711</v>
       </c>
       <c r="CW4">
-        <v>0.2768607345849819</v>
+        <v>0.2754091069590711</v>
       </c>
       <c r="CX4">
-        <v>0.2775244791918306</v>
+        <v>0.2760354308069565</v>
       </c>
       <c r="CY4">
-        <v>0.3049346912357668</v>
+        <v>0.3036135730814969</v>
       </c>
       <c r="CZ4">
-        <v>0.3553616344768831</v>
+        <v>0.3543851617975415</v>
       </c>
       <c r="DA4">
-        <v>0.3843791114647581</v>
+        <v>0.3835829090922388</v>
       </c>
       <c r="DB4">
-        <v>0.3931538071586981</v>
+        <v>0.3923824573661521</v>
       </c>
       <c r="DC4">
-        <v>0.3981205719854582</v>
+        <v>0.3973448386738149</v>
       </c>
       <c r="DD4">
-        <v>0.400401722705892</v>
+        <v>0.3996009865722237</v>
       </c>
       <c r="DE4">
-        <v>0.4088808344101419</v>
+        <v>0.4081026814552662</v>
       </c>
       <c r="DF4">
-        <v>0.4253736368348756</v>
+        <v>0.4246795936631341</v>
       </c>
       <c r="DG4">
-        <v>0.4374760804127443</v>
+        <v>0.4368324392256818</v>
       </c>
       <c r="DH4">
-        <v>0.4377914973017427</v>
+        <v>0.4371077610047311</v>
       </c>
       <c r="DI4">
-        <v>0.4379187463173042</v>
+        <v>0.4371934702164189</v>
       </c>
       <c r="DJ4">
-        <v>0.4484613449495801</v>
+        <v>0.4477744948330326</v>
       </c>
       <c r="DK4">
-        <v>0.450570730176005</v>
+        <v>0.4498575584758334</v>
       </c>
       <c r="DL4">
-        <v>0.4548300137274419</v>
+        <v>0.4541070266887998</v>
       </c>
       <c r="DM4">
-        <v>0.4556075927003201</v>
+        <v>0.4548480588872797</v>
       </c>
       <c r="DN4">
-        <v>0.46272001215224</v>
+        <v>0.4619725684834594</v>
       </c>
       <c r="DO4">
-        <v>0.4676772664793318</v>
+        <v>0.4669253662728198</v>
       </c>
       <c r="DP4">
-        <v>0.4685130795501787</v>
+        <v>0.4677250796724111</v>
       </c>
       <c r="DQ4">
-        <v>0.4687558519617109</v>
+        <v>0.4679271992324768</v>
       </c>
       <c r="DR4">
-        <v>0.4688766750174966</v>
+        <v>0.4680064331478846</v>
       </c>
       <c r="DS4">
-        <v>0.4754098817896193</v>
+        <v>0.4745472830509467</v>
       </c>
       <c r="DT4">
-        <v>0.4761511548137639</v>
+        <v>0.4752517305550038</v>
       </c>
       <c r="DU4">
-        <v>0.4767659406923202</v>
+        <v>0.4758287197848339</v>
       </c>
       <c r="DV4">
-        <v>0.4767686756480248</v>
+        <v>0.4758287197848339</v>
       </c>
       <c r="DW4">
-        <v>0.4859563143275615</v>
+        <v>0.4850443814910927</v>
       </c>
       <c r="DX4">
-        <v>0.4963640649645408</v>
+        <v>0.4954895227917889</v>
       </c>
       <c r="DY4">
-        <v>0.5015192560847286</v>
+        <v>0.5006417770708718</v>
       </c>
       <c r="DZ4">
-        <v>0.5041913002915281</v>
+        <v>0.5032918196132545</v>
       </c>
       <c r="EA4">
-        <v>0.506606309007293</v>
+        <v>0.5056828532267061</v>
       </c>
       <c r="EB4">
-        <v>0.5069027972569515</v>
+        <v>0.5059391010382586</v>
       </c>
       <c r="EC4">
-        <v>0.5072161940760203</v>
+        <v>0.5062123872379148</v>
       </c>
       <c r="ED4">
-        <v>0.5072430446750837</v>
+        <v>0.5062123872379148</v>
       </c>
       <c r="EE4">
-        <v>0.5117416650181725</v>
+        <v>0.510703029795366</v>
       </c>
       <c r="EF4">
-        <v>0.5118118118657258</v>
+        <v>0.5107311984265062</v>
       </c>
       <c r="EG4">
-        <v>0.5150486671528248</v>
+        <v>0.5139503884915441</v>
       </c>
       <c r="EH4">
-        <v>0.5182515834411077</v>
+        <v>0.5171353789847757</v>
       </c>
       <c r="EI4">
-        <v>0.5231828032691075</v>
+        <v>0.5220619423903243</v>
       </c>
       <c r="EJ4">
-        <v>0.5262960901605166</v>
+        <v>0.5251566153402799</v>
       </c>
       <c r="EK4">
-        <v>0.526818584842292</v>
+        <v>0.5256406047904618</v>
       </c>
       <c r="EL4">
-        <v>0.5295591692467009</v>
+        <v>0.5283597137605976</v>
       </c>
       <c r="EM4">
-        <v>0.5360516000202459</v>
+        <v>0.5348594745997518</v>
       </c>
       <c r="EN4">
-        <v>0.5418890338166371</v>
+        <v>0.5406992096003618</v>
       </c>
       <c r="EO4">
-        <v>0.5430494960761604</v>
+        <v>0.5418260647432934</v>
       </c>
       <c r="EP4">
-        <v>0.5438270750490386</v>
+        <v>0.5425670969417734</v>
       </c>
       <c r="EQ4">
-        <v>0.5460949951699339</v>
+        <v>0.5448099126602495</v>
       </c>
       <c r="ER4">
-        <v>0.5489515902702963</v>
+        <v>0.5476459230200826</v>
       </c>
       <c r="ES4">
-        <v>0.5500908054305607</v>
+        <v>0.5487513679351902</v>
       </c>
       <c r="ET4">
-        <v>0.5506502187110485</v>
+        <v>0.5492725594335081</v>
       </c>
       <c r="EU4">
-        <v>0.5538269799002435</v>
+        <v>0.5524311940170031</v>
       </c>
       <c r="EV4">
-        <v>0.5584081177404542</v>
+        <v>0.5570049876150424</v>
       </c>
       <c r="EW4">
-        <v>0.5617573180236346</v>
+        <v>0.5603373852258113</v>
       </c>
       <c r="EX4">
-        <v>0.5681736450998341</v>
+        <v>0.5667604580672971</v>
       </c>
       <c r="EY4">
-        <v>0.5854874764959305</v>
+        <v>0.5841647028495037</v>
       </c>
       <c r="EZ4">
-        <v>0.623750021161339</v>
+        <v>0.6226784985522054</v>
       </c>
       <c r="FA4">
-        <v>0.657528189983162</v>
+        <v>0.656673488779848</v>
       </c>
       <c r="FB4">
-        <v>0.6796100452129504</v>
+        <v>0.6788823647875389</v>
       </c>
       <c r="FC4">
-        <v>0.6947798576838298</v>
+        <v>0.6941261295395628</v>
       </c>
       <c r="FD4">
-        <v>0.6972426891979266</v>
+        <v>0.6965653531197952</v>
       </c>
       <c r="FE4">
-        <v>0.6974143850919379</v>
+        <v>0.6966958504591273</v>
       </c>
       <c r="FF4">
-        <v>0.7016093393456185</v>
+        <v>0.7008804954741623</v>
       </c>
       <c r="FG4">
-        <v>0.7184921367567493</v>
+        <v>0.7178503969276345</v>
       </c>
       <c r="FH4">
-        <v>0.7566781674248266</v>
+        <v>0.7562870911825275</v>
       </c>
       <c r="FI4">
-        <v>0.7994464799330747</v>
+        <v>0.799341248600604</v>
       </c>
       <c r="FJ4">
-        <v>0.8262157019993686</v>
+        <v>0.8262734795774614</v>
       </c>
       <c r="FK4">
-        <v>0.8418637074535686</v>
+        <v>0.8419991087285755</v>
       </c>
       <c r="FL4">
-        <v>0.8491403986997588</v>
+        <v>0.8492891513463479</v>
       </c>
       <c r="FM4">
-        <v>0.8518054687068015</v>
+        <v>0.8519321661432552</v>
       </c>
       <c r="FN4">
-        <v>0.8520390113286556</v>
+        <v>0.8521249850502119</v>
       </c>
       <c r="FO4">
-        <v>0.8544362211450413</v>
+        <v>0.8544980831099165</v>
       </c>
       <c r="FP4">
-        <v>0.8583536840084007</v>
+        <v>0.858403106242754</v>
       </c>
       <c r="FQ4">
-        <v>0.860610766329674</v>
+        <v>0.8606350009523811</v>
       </c>
       <c r="FR4">
-        <v>0.860625101410174</v>
+        <v>0.8606350009523811</v>
       </c>
       <c r="FS4">
-        <v>0.8613827481837474</v>
+        <v>0.8613559479183805</v>
       </c>
       <c r="FT4">
-        <v>0.8756406026864357</v>
+        <v>0.8756807529749141</v>
       </c>
       <c r="FU4">
-        <v>0.9043291036857855</v>
+        <v>0.9045469985066096</v>
       </c>
       <c r="FV4">
-        <v>0.9390719824739594</v>
+        <v>0.9395141054412018</v>
       </c>
       <c r="FW4">
-        <v>0.9577495688224882</v>
+        <v>0.9582925756587062</v>
       </c>
       <c r="FX4">
-        <v>0.9695491894109193</v>
+        <v>0.9701402732518655</v>
       </c>
       <c r="FY4">
-        <v>0.9748360886265131</v>
+        <v>0.9754252468398086</v>
       </c>
       <c r="FZ4">
-        <v>0.9748363389017043</v>
+        <v>0.9754252468398086</v>
       </c>
       <c r="GA4">
-        <v>0.9756721519725513</v>
+        <v>0.9762249602393999</v>
       </c>
       <c r="GB4">
-        <v>0.977320676815051</v>
+        <v>0.9778436251567687</v>
       </c>
       <c r="GC4">
-        <v>0.9803205947104143</v>
+        <v>0.9808240586990783</v>
       </c>
       <c r="GD4">
-        <v>0.9848426653526853</v>
+        <v>0.9853383315997548</v>
       </c>
       <c r="GE4">
-        <v>0.9893169811966218</v>
+        <v>0.9898044830557309</v>
       </c>
       <c r="GF4">
-        <v>0.9922056326958661</v>
+        <v>0.9926727959334239</v>
       </c>
       <c r="GG4">
-        <v>0.9929301434705953</v>
+        <v>0.9933603524927711</v>
       </c>
       <c r="GH4">
-        <v>0.992996465238282</v>
+        <v>0.993384666676281</v>
       </c>
       <c r="GI4">
-        <v>0.9936054317870413</v>
+        <v>0.9939557918973249</v>
       </c>
       <c r="GJ4">
-        <v>0.9946650869500807</v>
+        <v>0.9949810659784979</v>
       </c>
       <c r="GK4">
-        <v>0.9946912047011698</v>
+        <v>0.9949810659784979</v>
       </c>
       <c r="GL4">
-        <v>0.9947239563140274</v>
+        <v>0.9949810659784979</v>
       </c>
       <c r="GM4">
-        <v>0.9947771453321722</v>
+        <v>0.9949921465833331</v>
       </c>
       <c r="GN4">
-        <v>0.9949031124577785</v>
+        <v>0.9950765640631165</v>
       </c>
       <c r="GO4">
-        <v>0.9952496091156927</v>
+        <v>0.9953832042318012</v>
       </c>
       <c r="GP4">
-        <v>0.9958821765436289</v>
+        <v>0.9959781115321711</v>
       </c>
       <c r="GQ4">
-        <v>0.9970966150012694</v>
+        <v>0.9971593572855428</v>
       </c>
       <c r="GR4">
-        <v>0.9994994059174604</v>
+        <v>0.9995380792949868</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0005590653119250026</v>
+        <v>0.0004303868010033527</v>
       </c>
       <c r="C5">
-        <v>0.0009825597009582437</v>
+        <v>0.0007224692553800846</v>
       </c>
       <c r="D5">
-        <v>0.001285683407423948</v>
+        <v>0.0008917540754971828</v>
       </c>
       <c r="E5">
-        <v>0.001510246712213939</v>
+        <v>0.0009808945343255473</v>
       </c>
       <c r="F5">
-        <v>0.001606808064273617</v>
+        <v>0.0009808945343255473</v>
       </c>
       <c r="G5">
-        <v>0.001715174896585109</v>
+        <v>0.0009808945343255473</v>
       </c>
       <c r="H5">
-        <v>0.001841367059276819</v>
+        <v>0.0009808945343255473</v>
       </c>
       <c r="I5">
-        <v>0.00201382594295541</v>
+        <v>0.001016880026259396</v>
       </c>
       <c r="J5">
-        <v>0.002019274382471627</v>
+        <v>0.001016880026259396</v>
       </c>
       <c r="K5">
-        <v>0.00201946391945567</v>
+        <v>0.001016880026259396</v>
       </c>
       <c r="L5">
-        <v>0.002038551313862809</v>
+        <v>0.001016880026259396</v>
       </c>
       <c r="M5">
-        <v>0.002082255384795028</v>
+        <v>0.001016880026259396</v>
       </c>
       <c r="N5">
-        <v>0.002266282458720371</v>
+        <v>0.001064666949942787</v>
       </c>
       <c r="O5">
-        <v>0.002391418021389544</v>
+        <v>0.001064666949942787</v>
       </c>
       <c r="P5">
-        <v>0.002528602624315726</v>
+        <v>0.001064666949942787</v>
       </c>
       <c r="Q5">
-        <v>0.002650433386914407</v>
+        <v>0.001064666949942787</v>
       </c>
       <c r="R5">
-        <v>0.002809026230297231</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="S5">
-        <v>0.002868808533572403</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="T5">
-        <v>0.002941224140117046</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="U5">
-        <v>0.003012669606640995</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="V5">
-        <v>0.00311010517871932</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="W5">
-        <v>0.003236266521410373</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="X5">
-        <v>0.00335063960784998</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="Y5">
-        <v>0.003442292249804954</v>
+        <v>0.001086506830100168</v>
       </c>
       <c r="Z5">
-        <v>0.003582982362805909</v>
+        <v>0.001090083019375443</v>
       </c>
       <c r="AA5">
-        <v>0.003703553825377728</v>
+        <v>0.001090083019375443</v>
       </c>
       <c r="AB5">
-        <v>0.003823122557928159</v>
+        <v>0.001090083019375443</v>
       </c>
       <c r="AC5">
-        <v>0.003892266389403014</v>
+        <v>0.001090083019375443</v>
       </c>
       <c r="AD5">
-        <v>0.003898150405528522</v>
+        <v>0.001090083019375443</v>
       </c>
       <c r="AE5">
-        <v>0.004014765702015955</v>
+        <v>0.001090083019375443</v>
       </c>
       <c r="AF5">
-        <v>0.00420825921614322</v>
+        <v>0.001147527248615808</v>
       </c>
       <c r="AG5">
-        <v>0.004350342119173884</v>
+        <v>0.001152524309792948</v>
       </c>
       <c r="AH5">
-        <v>0.004464744561614117</v>
+        <v>0.001152524309792948</v>
       </c>
       <c r="AI5">
-        <v>0.004531459913037172</v>
+        <v>0.001152524309792948</v>
       </c>
       <c r="AJ5">
-        <v>0.004658682145750854</v>
+        <v>0.001152524309792948</v>
       </c>
       <c r="AK5">
-        <v>0.004846803549763531</v>
+        <v>0.001204488114739104</v>
       </c>
       <c r="AL5">
-        <v>0.00493760837170042</v>
+        <v>0.001204488114739104</v>
       </c>
       <c r="AM5">
-        <v>0.004951604605998963</v>
+        <v>0.001204488114739104</v>
       </c>
       <c r="AN5">
-        <v>0.004956841537510668</v>
+        <v>0.001204488114739104</v>
       </c>
       <c r="AO5">
-        <v>0.005031833879110274</v>
+        <v>0.001204488114739104</v>
       </c>
       <c r="AP5">
-        <v>0.005165853641968948</v>
+        <v>0.001204488114739104</v>
       </c>
       <c r="AQ5">
-        <v>0.005310126495046324</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AR5">
-        <v>0.005407589172125227</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AS5">
-        <v>0.005458058031201741</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AT5">
-        <v>0.005528947672713834</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AU5">
-        <v>0.005536362980872005</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AV5">
-        <v>0.005543778289030175</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AW5">
-        <v>0.005543836321778413</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AX5">
-        <v>0.005552882594971372</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AY5">
-        <v>0.005567561389284474</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="AZ5">
-        <v>0.005567792859389411</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="BA5">
-        <v>0.005591866925902917</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="BB5">
-        <v>0.00562150573653512</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="BC5">
-        <v>0.005696276368129996</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="BD5">
-        <v>0.005734989501955757</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="BE5">
-        <v>0.005822956653832118</v>
+        <v>0.001211719280426967</v>
       </c>
       <c r="BF5">
-        <v>0.00603430867834031</v>
+        <v>0.001287382088970881</v>
       </c>
       <c r="BG5">
-        <v>0.006196669011803496</v>
+        <v>0.00131306542053268</v>
       </c>
       <c r="BH5">
-        <v>0.006395571486046135</v>
+        <v>0.001376027667049387</v>
       </c>
       <c r="BI5">
-        <v>0.006580842069998003</v>
+        <v>0.001425083172800921</v>
       </c>
       <c r="BJ5">
-        <v>0.006722619693022155</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BK5">
-        <v>0.006779432744233991</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BL5">
-        <v>0.006827632835262111</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BM5">
-        <v>0.006851259998766085</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BN5">
-        <v>0.006852390215390193</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BO5">
-        <v>0.006873331658836879</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BP5">
-        <v>0.006894273102283566</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BQ5">
-        <v>0.006979709624105948</v>
+        <v>0.001429768798819709</v>
       </c>
       <c r="BR5">
-        <v>0.007132343937361676</v>
+        <v>0.001445530011085</v>
       </c>
       <c r="BS5">
-        <v>0.007309948041150016</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="BT5">
-        <v>0.007426563337637449</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="BU5">
-        <v>0.007522227559677991</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="BV5">
-        <v>0.007604937201442208</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="BW5">
-        <v>0.007733452924183481</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="BX5">
-        <v>0.007775973338090452</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="BY5">
-        <v>0.007800060876604245</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="BZ5">
-        <v>0.007833569790318998</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CA5">
-        <v>0.007834026187828733</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CB5">
-        <v>0.007865820138506905</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CC5">
-        <v>0.00786590152441464</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CD5">
-        <v>0.007867486473548447</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CE5">
-        <v>0.007870048833603102</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CF5">
-        <v>0.007870803400159198</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CG5">
-        <v>0.007871144528666475</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CH5">
-        <v>0.007872726023700208</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CI5">
-        <v>0.007875292779754958</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CJ5">
-        <v>0.007875619107061919</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CK5">
-        <v>0.007881007902176863</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CL5">
-        <v>0.007970916764094641</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="CM5">
-        <v>0.01002283440786256</v>
+        <v>0.003440102955400082</v>
       </c>
       <c r="CN5">
-        <v>0.138587687150183</v>
+        <v>0.1344571702728549</v>
       </c>
       <c r="CO5">
-        <v>0.1584087575729713</v>
+        <v>0.154537928811045</v>
       </c>
       <c r="CP5">
-        <v>0.2587172397125763</v>
+        <v>0.2567289116637043</v>
       </c>
       <c r="CQ5">
-        <v>0.3333379113042539</v>
+        <v>0.3327141582248433</v>
       </c>
       <c r="CR5">
-        <v>0.3352501905450433</v>
+        <v>0.3345250428810324</v>
       </c>
       <c r="CS5">
-        <v>0.3444541737413666</v>
+        <v>0.3437746491292403</v>
       </c>
       <c r="CT5">
-        <v>0.3529605229228091</v>
+        <v>0.3523125554453793</v>
       </c>
       <c r="CU5">
-        <v>0.3637980171539756</v>
+        <v>0.363228608093467</v>
       </c>
       <c r="CV5">
-        <v>0.3639808420978753</v>
+        <v>0.3632751686493997</v>
       </c>
       <c r="CW5">
-        <v>0.3904948226634251</v>
+        <v>0.3901837818969978</v>
       </c>
       <c r="CX5">
-        <v>0.4305571505179646</v>
+        <v>0.4309139084876177</v>
       </c>
       <c r="CY5">
-        <v>0.4396037867109316</v>
+        <v>0.4400029952525274</v>
       </c>
       <c r="CZ5">
-        <v>0.4406981738342751</v>
+        <v>0.4409794971922639</v>
       </c>
       <c r="DA5">
-        <v>0.4952095919970173</v>
+        <v>0.4964500412101554</v>
       </c>
       <c r="DB5">
-        <v>0.5287060997115062</v>
+        <v>0.5304819655228237</v>
       </c>
       <c r="DC5">
-        <v>0.5314458877699465</v>
+        <v>0.5331370434906152</v>
       </c>
       <c r="DD5">
-        <v>0.5377568174045602</v>
+        <v>0.5394352655181262</v>
       </c>
       <c r="DE5">
-        <v>0.5396561131450727</v>
+        <v>0.541232904896608</v>
       </c>
       <c r="DF5">
-        <v>0.5451740012627706</v>
+        <v>0.5467220958538475</v>
       </c>
       <c r="DG5">
-        <v>0.5523466924157659</v>
+        <v>0.553899454507454</v>
       </c>
       <c r="DH5">
-        <v>0.553910344149119</v>
+        <v>0.5553546825183716</v>
       </c>
       <c r="DI5">
-        <v>0.5556401196860156</v>
+        <v>0.5569793837733901</v>
       </c>
       <c r="DJ5">
-        <v>0.5557423552381963</v>
+        <v>0.5569793837733901</v>
       </c>
       <c r="DK5">
-        <v>0.5564606838935184</v>
+        <v>0.5575722450355852</v>
       </c>
       <c r="DL5">
-        <v>0.5640340770550608</v>
+        <v>0.5651583847781008</v>
       </c>
       <c r="DM5">
-        <v>0.5727955092419443</v>
+        <v>0.5739565171637432</v>
       </c>
       <c r="DN5">
-        <v>0.5727984164664064</v>
+        <v>0.5739565171637432</v>
       </c>
       <c r="DO5">
-        <v>0.5770226665565107</v>
+        <v>0.5781259873551918</v>
       </c>
       <c r="DP5">
-        <v>0.577030840429685</v>
+        <v>0.5781259873551918</v>
       </c>
       <c r="DQ5">
-        <v>0.5778079617462611</v>
+        <v>0.5787788266748327</v>
       </c>
       <c r="DR5">
-        <v>0.5779204150086598</v>
+        <v>0.5787788266748327</v>
       </c>
       <c r="DS5">
-        <v>0.5779490804992712</v>
+        <v>0.5787788266748327</v>
       </c>
       <c r="DT5">
-        <v>0.578636406513932</v>
+        <v>0.5793400602113408</v>
       </c>
       <c r="DU5">
-        <v>0.5786411828610338</v>
+        <v>0.5793400602113408</v>
       </c>
       <c r="DV5">
-        <v>0.5881661640642041</v>
+        <v>0.5889171365295198</v>
       </c>
       <c r="DW5">
-        <v>0.5952329172149396</v>
+        <v>0.5959864212254301</v>
       </c>
       <c r="DX5">
-        <v>0.5964089975400257</v>
+        <v>0.5970462634910259</v>
       </c>
       <c r="DY5">
-        <v>0.6011415116409714</v>
+        <v>0.6017342454727156</v>
       </c>
       <c r="DZ5">
-        <v>0.6048993110211262</v>
+        <v>0.6054278602277843</v>
       </c>
       <c r="EA5">
-        <v>0.6052007959275569</v>
+        <v>0.6055954732058629</v>
       </c>
       <c r="EB5">
-        <v>0.6067222182600093</v>
+        <v>0.6070076203733709</v>
       </c>
       <c r="EC5">
-        <v>0.6074380228752776</v>
+        <v>0.60759790670502</v>
       </c>
       <c r="ED5">
-        <v>0.6086047075001633</v>
+        <v>0.6086481638313426</v>
       </c>
       <c r="EE5">
-        <v>0.6107276988454472</v>
+        <v>0.6106740090359799</v>
       </c>
       <c r="EF5">
-        <v>0.6135958895066265</v>
+        <v>0.6134600785003118</v>
       </c>
       <c r="EG5">
-        <v>0.6195626982339</v>
+        <v>0.6194072413461409</v>
       </c>
       <c r="EH5">
-        <v>0.6212442882697687</v>
+        <v>0.620982785568852</v>
       </c>
       <c r="EI5">
-        <v>0.6212783290004948</v>
+        <v>0.620982785568852</v>
       </c>
       <c r="EJ5">
-        <v>0.621315230457282</v>
+        <v>0.620982785568852</v>
       </c>
       <c r="EK5">
-        <v>0.6238748679118797</v>
+        <v>0.6234540806794688</v>
       </c>
       <c r="EL5">
-        <v>0.6266350509707551</v>
+        <v>0.626129964858131</v>
       </c>
       <c r="EM5">
-        <v>0.6272500165838725</v>
+        <v>0.626617379039842</v>
       </c>
       <c r="EN5">
-        <v>0.6273850659267531</v>
+        <v>0.626617379039842</v>
       </c>
       <c r="EO5">
-        <v>0.6275744067307918</v>
+        <v>0.6266705868307424</v>
       </c>
       <c r="EP5">
-        <v>0.6279659848391442</v>
+        <v>0.6269301094983142</v>
       </c>
       <c r="EQ5">
-        <v>0.6285690942520087</v>
+        <v>0.6274054284313209</v>
       </c>
       <c r="ER5">
-        <v>0.6287300003154409</v>
+        <v>0.6274296281714002</v>
       </c>
       <c r="ES5">
-        <v>0.6292153960757945</v>
+        <v>0.6277848600720826</v>
       </c>
       <c r="ET5">
-        <v>0.6294172520301001</v>
+        <v>0.6278508353476594</v>
       </c>
       <c r="EU5">
-        <v>0.6298189080986676</v>
+        <v>0.6281206391704607</v>
       </c>
       <c r="EV5">
-        <v>0.6303893906108361</v>
+        <v>0.6285626733689023</v>
       </c>
       <c r="EW5">
-        <v>0.6350217161096448</v>
+        <v>0.6331484467142382</v>
       </c>
       <c r="EX5">
-        <v>0.6449300463209919</v>
+        <v>0.6431166012442857</v>
       </c>
       <c r="EY5">
-        <v>0.6659346097690245</v>
+        <v>0.664404714767617</v>
       </c>
       <c r="EZ5">
-        <v>0.688447400249228</v>
+        <v>0.687231464672553</v>
       </c>
       <c r="FA5">
-        <v>0.6960051134104359</v>
+        <v>0.6948016082696186</v>
       </c>
       <c r="FB5">
-        <v>0.6988795807717491</v>
+        <v>0.6975940809868935</v>
       </c>
       <c r="FC5">
-        <v>0.6994615958841636</v>
+        <v>0.698047880309507</v>
       </c>
       <c r="FD5">
-        <v>0.7004097678043884</v>
+        <v>0.6988752190090526</v>
       </c>
       <c r="FE5">
-        <v>0.7080350134670368</v>
+        <v>0.7065142567191666</v>
       </c>
       <c r="FF5">
-        <v>0.7310443979578327</v>
+        <v>0.7298476131198666</v>
       </c>
       <c r="FG5">
-        <v>0.7698072687846544</v>
+        <v>0.7692520826200544</v>
       </c>
       <c r="FH5">
-        <v>0.7926400112716825</v>
+        <v>0.7924052355051567</v>
       </c>
       <c r="FI5">
-        <v>0.805531400046659</v>
+        <v>0.8054165939670761</v>
       </c>
       <c r="FJ5">
-        <v>0.8152942532549031</v>
+        <v>0.81523633834077</v>
       </c>
       <c r="FK5">
-        <v>0.8167191008852954</v>
+        <v>0.816549963636595</v>
       </c>
       <c r="FL5">
-        <v>0.8172710916970696</v>
+        <v>0.8169731332991427</v>
       </c>
       <c r="FM5">
-        <v>0.8173308740003448</v>
+        <v>0.8169731332991427</v>
       </c>
       <c r="FN5">
-        <v>0.8174225266422998</v>
+        <v>0.8169731332991427</v>
       </c>
       <c r="FO5">
-        <v>0.8184718864646828</v>
+        <v>0.8179037000832657</v>
       </c>
       <c r="FP5">
-        <v>0.8197325028915721</v>
+        <v>0.8190497828942297</v>
       </c>
       <c r="FQ5">
-        <v>0.8201035862594873</v>
+        <v>0.8192883975999393</v>
       </c>
       <c r="FR5">
-        <v>0.8255286060752044</v>
+        <v>0.8246828478151832</v>
       </c>
       <c r="FS5">
-        <v>0.8600673008119234</v>
+        <v>0.8597779720537482</v>
       </c>
       <c r="FT5">
-        <v>0.9059353257902998</v>
+        <v>0.9064308520659509</v>
       </c>
       <c r="FU5">
-        <v>0.9405846505293786</v>
+        <v>0.9416388368638992</v>
       </c>
       <c r="FV5">
-        <v>0.9624871989965654</v>
+        <v>0.9638430408637537</v>
       </c>
       <c r="FW5">
-        <v>0.9689225384338328</v>
+        <v>0.9702681810836244</v>
       </c>
       <c r="FX5">
-        <v>0.9689322231240394</v>
+        <v>0.9702681810836244</v>
       </c>
       <c r="FY5">
-        <v>0.9705820674592309</v>
+        <v>0.971811339538822</v>
       </c>
       <c r="FZ5">
-        <v>0.973640779024474</v>
+        <v>0.9747917712498158</v>
       </c>
       <c r="GA5">
-        <v>0.9791875948427889</v>
+        <v>0.980310473157102</v>
       </c>
       <c r="GB5">
-        <v>0.9825098633136538</v>
+        <v>0.9835597756912298</v>
       </c>
       <c r="GC5">
-        <v>0.988150786433976</v>
+        <v>0.9891744823216476</v>
       </c>
       <c r="GD5">
-        <v>0.9948941565778138</v>
+        <v>0.9959138638604121</v>
       </c>
       <c r="GE5">
-        <v>0.9974584257325103</v>
+        <v>0.998389884056927</v>
       </c>
       <c r="GF5">
-        <v>0.9984392793534321</v>
+        <v>0.9992505633959337</v>
       </c>
       <c r="GG5">
-        <v>0.9986411353077378</v>
+        <v>0.9993165386715105</v>
       </c>
       <c r="GH5">
-        <v>0.9986495729009177</v>
+        <v>0.9993165386715105</v>
       </c>
       <c r="GI5">
-        <v>0.9987548376931631</v>
+        <v>0.9993165386715105</v>
       </c>
       <c r="GJ5">
-        <v>0.9995179158694397</v>
+        <v>0.999955051708625</v>
       </c>
       <c r="GK5">
-        <v>0.9996991604133058</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL5">
-        <v>0.9997091233115183</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM5">
-        <v>0.9998143881037637</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN5">
-        <v>0.9998901750053802</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO5">
-        <v>0.9998902323786595</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP5">
-        <v>0.9999158016772048</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ5">
-        <v>0.999937045716658</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR5">
-        <v>0.9999903153097942</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.133904085125956E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.396524072495458E-05</v>
+        <v>3.465824659529083E-06</v>
       </c>
       <c r="D6">
-        <v>9.662974560811153E-05</v>
+        <v>7.886660164263704E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001040001615434967</v>
+        <v>7.886660164263704E-05</v>
       </c>
       <c r="F6">
-        <v>0.0001040042713340395</v>
+        <v>7.886660164263704E-05</v>
       </c>
       <c r="G6">
-        <v>0.000190376921436244</v>
+        <v>0.0001579807781049036</v>
       </c>
       <c r="H6">
-        <v>0.0002534126551598903</v>
+        <v>0.0002137249709213933</v>
       </c>
       <c r="I6">
-        <v>0.000493599609348212</v>
+        <v>0.0004468713988032116</v>
       </c>
       <c r="J6">
-        <v>0.0006535091787943888</v>
+        <v>0.0005996266928215429</v>
       </c>
       <c r="K6">
-        <v>0.0007532131596841015</v>
+        <v>0.0006920910899139338</v>
       </c>
       <c r="L6">
-        <v>0.0008864091875522562</v>
+        <v>0.0008180949905745394</v>
       </c>
       <c r="M6">
-        <v>0.001046318756998433</v>
+        <v>0.0009708502845928706</v>
       </c>
       <c r="N6">
-        <v>0.001060614044842884</v>
+        <v>0.0009777849687061782</v>
       </c>
       <c r="O6">
-        <v>0.001062362390946162</v>
+        <v>0.0009777849687061782</v>
       </c>
       <c r="P6">
-        <v>0.001071826919005251</v>
+        <v>0.0009798820480841691</v>
       </c>
       <c r="Q6">
-        <v>0.001130319112460501</v>
+        <v>0.001031076262658293</v>
       </c>
       <c r="R6">
-        <v>0.001212748017329741</v>
+        <v>0.001106241105793806</v>
       </c>
       <c r="S6">
-        <v>0.001428199090056865</v>
+        <v>0.001314616602682222</v>
       </c>
       <c r="T6">
-        <v>0.001793963541663299</v>
+        <v>0.001673518465143878</v>
       </c>
       <c r="U6">
-        <v>0.002355944874860656</v>
+        <v>0.002228915238904886</v>
       </c>
       <c r="V6">
-        <v>0.003057227616286824</v>
+        <v>0.002923810804165706</v>
       </c>
       <c r="W6">
-        <v>0.003478198311154401</v>
+        <v>0.003337997134430618</v>
       </c>
       <c r="X6">
-        <v>0.003658039941778005</v>
+        <v>0.003510712732380581</v>
       </c>
       <c r="Y6">
-        <v>0.003773812398616914</v>
+        <v>0.003619268373665384</v>
       </c>
       <c r="Z6">
-        <v>0.003885082621189868</v>
+        <v>0.003723315401238844</v>
       </c>
       <c r="AA6">
-        <v>0.003942988674610494</v>
+        <v>0.00377392264524663</v>
       </c>
       <c r="AB6">
-        <v>0.0039534844452305</v>
+        <v>0.003777052428405726</v>
       </c>
       <c r="AC6">
-        <v>0.003953536146021554</v>
+        <v>0.003777052428405726</v>
       </c>
       <c r="AD6">
-        <v>0.004001442832851497</v>
+        <v>0.003817646137210245</v>
       </c>
       <c r="AE6">
-        <v>0.004143196061225142</v>
+        <v>0.003952219363510236</v>
       </c>
       <c r="AF6">
-        <v>0.004300927000542623</v>
+        <v>0.004102792940387711</v>
       </c>
       <c r="AG6">
-        <v>0.004484223951370339</v>
+        <v>0.004278968754561237</v>
       </c>
       <c r="AH6">
-        <v>0.004743840816706425</v>
+        <v>0.004531572624823033</v>
       </c>
       <c r="AI6">
-        <v>0.004878816244679693</v>
+        <v>0.004659358446911527</v>
       </c>
       <c r="AJ6">
-        <v>0.005030573873644318</v>
+        <v>0.004803950249548013</v>
       </c>
       <c r="AK6">
-        <v>0.005156339291073532</v>
+        <v>0.004922513010958716</v>
       </c>
       <c r="AL6">
-        <v>0.005237439485864282</v>
+        <v>0.004996347261298652</v>
       </c>
       <c r="AM6">
-        <v>0.005390145094884906</v>
+        <v>0.005141888387232434</v>
       </c>
       <c r="AN6">
-        <v>0.005602044337402217</v>
+        <v>0.005346707021141635</v>
       </c>
       <c r="AO6">
-        <v>0.005818723620201894</v>
+        <v>0.005556312468416106</v>
       </c>
       <c r="AP6">
-        <v>0.005897590639860725</v>
+        <v>0.005627910379324367</v>
       </c>
       <c r="AQ6">
-        <v>0.005999028270852848</v>
+        <v>0.005722110883016431</v>
       </c>
       <c r="AR6">
-        <v>0.006012677405159129</v>
+        <v>0.005728398498023661</v>
       </c>
       <c r="AS6">
-        <v>0.006016089245560674</v>
+        <v>0.005728398498023661</v>
       </c>
       <c r="AT6">
-        <v>0.00602155047828328</v>
+        <v>0.005728398498023661</v>
       </c>
       <c r="AU6">
-        <v>0.006085144082039881</v>
+        <v>0.005784701351347611</v>
       </c>
       <c r="AV6">
-        <v>0.00618060742767909</v>
+        <v>0.005872919104417101</v>
       </c>
       <c r="AW6">
-        <v>0.006355080287985549</v>
+        <v>0.006040258324765399</v>
       </c>
       <c r="AX6">
-        <v>0.006564651200365321</v>
+        <v>0.006242745329407323</v>
       </c>
       <c r="AY6">
-        <v>0.006800880404319851</v>
+        <v>0.00647192839911716</v>
       </c>
       <c r="AZ6">
-        <v>0.006973077254491862</v>
+        <v>0.006636988384336153</v>
       </c>
       <c r="BA6">
-        <v>0.007122630453326268</v>
+        <v>0.006779372633272921</v>
       </c>
       <c r="BB6">
-        <v>0.007399436739677767</v>
+        <v>0.007049190281117588</v>
       </c>
       <c r="BC6">
-        <v>0.007715578978352918</v>
+        <v>0.007358399618403259</v>
       </c>
       <c r="BD6">
-        <v>0.007945649091943618</v>
+        <v>0.007581414870619959</v>
       </c>
       <c r="BE6">
-        <v>0.008026688756730793</v>
+        <v>0.00765518850518827</v>
       </c>
       <c r="BF6">
-        <v>0.008068507089201085</v>
+        <v>0.007689685232733283</v>
       </c>
       <c r="BG6">
-        <v>0.008120436822268677</v>
+        <v>0.007734307688234879</v>
       </c>
       <c r="BH6">
-        <v>0.008170040080198841</v>
+        <v>0.007776600372097751</v>
       </c>
       <c r="BI6">
-        <v>0.008180288408804229</v>
+        <v>0.007779482362629018</v>
       </c>
       <c r="BJ6">
-        <v>0.008181839472895854</v>
+        <v>0.007779482362629018</v>
       </c>
       <c r="BK6">
-        <v>0.008186620794178296</v>
+        <v>0.007779482362629018</v>
       </c>
       <c r="BL6">
-        <v>0.008277513989547538</v>
+        <v>0.007863123489749501</v>
       </c>
       <c r="BM6">
-        <v>0.008323187192245545</v>
+        <v>0.00790148054968449</v>
       </c>
       <c r="BN6">
-        <v>0.008441735239248415</v>
+        <v>0.008012815714008538</v>
       </c>
       <c r="BO6">
-        <v>0.008644234381210442</v>
+        <v>0.008208220927880486</v>
       </c>
       <c r="BP6">
-        <v>0.008825456791915612</v>
+        <v>0.008382319262409744</v>
       </c>
       <c r="BQ6">
-        <v>0.009243418016605415</v>
+        <v>0.008793491858225075</v>
       </c>
       <c r="BR6">
-        <v>0.009662951501388094</v>
+        <v>0.009206238941948807</v>
       </c>
       <c r="BS6">
-        <v>0.009776124278073435</v>
+        <v>0.009312191219460624</v>
       </c>
       <c r="BT6">
-        <v>0.009895510355125809</v>
+        <v>0.0094243656012817</v>
       </c>
       <c r="BU6">
-        <v>0.009975061189825035</v>
+        <v>0.009496648296162768</v>
       </c>
       <c r="BV6">
-        <v>0.01008139293610626</v>
+        <v>0.009595749849865536</v>
       </c>
       <c r="BW6">
-        <v>0.01011335747099447</v>
+        <v>0.009620378817480036</v>
       </c>
       <c r="BX6">
-        <v>0.01011582852314044</v>
+        <v>0.009620378817480036</v>
       </c>
       <c r="BY6">
-        <v>0.01013506527227679</v>
+        <v>0.009632261964693811</v>
       </c>
       <c r="BZ6">
-        <v>0.01014666848696222</v>
+        <v>0.009636500761112311</v>
       </c>
       <c r="CA6">
-        <v>0.01014716441802151</v>
+        <v>0.009636500761112311</v>
       </c>
       <c r="CB6">
-        <v>0.01018848737046254</v>
+        <v>0.009670501406698829</v>
       </c>
       <c r="CC6">
-        <v>0.01036499587088925</v>
+        <v>0.009839879151569701</v>
       </c>
       <c r="CD6">
-        <v>0.01064726162756325</v>
+        <v>0.01011516400553885</v>
       </c>
       <c r="CE6">
-        <v>0.01075352404784038</v>
+        <v>0.01021419613500598</v>
       </c>
       <c r="CF6">
-        <v>0.01112260219964257</v>
+        <v>0.01057641639301421</v>
       </c>
       <c r="CG6">
-        <v>0.01179618713943257</v>
+        <v>0.01124357491021089</v>
       </c>
       <c r="CH6">
-        <v>0.01226370003704949</v>
+        <v>0.0117043693912463</v>
       </c>
       <c r="CI6">
-        <v>0.01268980968222063</v>
+        <v>0.0121237019534556</v>
       </c>
       <c r="CJ6">
-        <v>0.01322125345361408</v>
+        <v>0.01264851789518368</v>
       </c>
       <c r="CK6">
-        <v>0.01343193811605964</v>
+        <v>0.01285212022802067</v>
       </c>
       <c r="CL6">
-        <v>0.01355569747337035</v>
+        <v>0.01296867408682396</v>
       </c>
       <c r="CM6">
-        <v>0.01367229811025818</v>
+        <v>0.01307805908164824</v>
       </c>
       <c r="CN6">
-        <v>0.02125255655803915</v>
+        <v>0.0206616775248346</v>
       </c>
       <c r="CO6">
-        <v>0.1122395069328195</v>
+        <v>0.1117701710913368</v>
       </c>
       <c r="CP6">
-        <v>0.1240148136284104</v>
+        <v>0.1235547819601822</v>
       </c>
       <c r="CQ6">
-        <v>0.222782494462814</v>
+        <v>0.2224550309001862</v>
       </c>
       <c r="CR6">
-        <v>0.2975657348804089</v>
+        <v>0.2973368546463231</v>
       </c>
       <c r="CS6">
-        <v>0.2976622049311076</v>
+        <v>0.2974260805309039</v>
       </c>
       <c r="CT6">
-        <v>0.309793781147744</v>
+        <v>0.3095674657372523</v>
       </c>
       <c r="CU6">
-        <v>0.3111108131255437</v>
+        <v>0.3108789830253887</v>
       </c>
       <c r="CV6">
-        <v>0.3375479556872383</v>
+        <v>0.337346204863468</v>
       </c>
       <c r="CW6">
-        <v>0.3400494810350084</v>
+        <v>0.3398438938906509</v>
       </c>
       <c r="CX6">
-        <v>0.3716298159005217</v>
+        <v>0.3714615956840753</v>
       </c>
       <c r="CY6">
-        <v>0.4258470571032421</v>
+        <v>0.425748279201991</v>
       </c>
       <c r="CZ6">
-        <v>0.4281681289403524</v>
+        <v>0.4280652590247301</v>
       </c>
       <c r="DA6">
-        <v>0.4340931382903546</v>
+        <v>0.4339912829632577</v>
       </c>
       <c r="DB6">
-        <v>0.4631128740046082</v>
+        <v>0.4630447573618704</v>
       </c>
       <c r="DC6">
-        <v>0.4953485509088338</v>
+        <v>0.4953187297815704</v>
       </c>
       <c r="DD6">
-        <v>0.4980719075697079</v>
+        <v>0.4980385644459603</v>
       </c>
       <c r="DE6">
-        <v>0.5211676509340194</v>
+        <v>0.521159652487691</v>
       </c>
       <c r="DF6">
-        <v>0.5298297924457094</v>
+        <v>0.5298266869700858</v>
       </c>
       <c r="DG6">
-        <v>0.5320459785766239</v>
+        <v>0.5320386324687219</v>
       </c>
       <c r="DH6">
-        <v>0.5372936663866154</v>
+        <v>0.5372863751357989</v>
       </c>
       <c r="DI6">
-        <v>0.5419168790597177</v>
+        <v>0.5419087578153114</v>
       </c>
       <c r="DJ6">
-        <v>0.5433340340434319</v>
+        <v>0.5433205399787566</v>
       </c>
       <c r="DK6">
-        <v>0.5454242465669049</v>
+        <v>0.5454063333715209</v>
       </c>
       <c r="DL6">
-        <v>0.546130114708602</v>
+        <v>0.5461058208343401</v>
       </c>
       <c r="DM6">
-        <v>0.558669899449352</v>
+        <v>0.5586559929762825</v>
       </c>
       <c r="DN6">
-        <v>0.5595504268013665</v>
+        <v>0.5595303871329637</v>
       </c>
       <c r="DO6">
-        <v>0.5616785716270802</v>
+        <v>0.5616541665761826</v>
       </c>
       <c r="DP6">
-        <v>0.5635478133375</v>
+        <v>0.5635186760510772</v>
       </c>
       <c r="DQ6">
-        <v>0.5637802201812288</v>
+        <v>0.563744031344464</v>
       </c>
       <c r="DR6">
-        <v>0.5672852223882762</v>
+        <v>0.5672466191084731</v>
       </c>
       <c r="DS6">
-        <v>0.5703596853698908</v>
+        <v>0.5703180575940592</v>
       </c>
       <c r="DT6">
-        <v>0.5706789088587479</v>
+        <v>0.5706303525475074</v>
       </c>
       <c r="DU6">
-        <v>0.5710607716513053</v>
+        <v>0.5710053755614805</v>
       </c>
       <c r="DV6">
-        <v>0.5714852967763828</v>
+        <v>0.5714231213584088</v>
       </c>
       <c r="DW6">
-        <v>0.5851654935844993</v>
+        <v>0.5851153214757476</v>
       </c>
       <c r="DX6">
-        <v>0.5961371987326198</v>
+        <v>0.5960951921330988</v>
       </c>
       <c r="DY6">
-        <v>0.5966368089121328</v>
+        <v>0.5965881293763062</v>
       </c>
       <c r="DZ6">
-        <v>0.6008461077607844</v>
+        <v>0.6007960117357567</v>
       </c>
       <c r="EA6">
-        <v>0.6048413574967918</v>
+        <v>0.6047895416854566</v>
       </c>
       <c r="EB6">
-        <v>0.605498271675597</v>
+        <v>0.6054400058200169</v>
       </c>
       <c r="EC6">
-        <v>0.6093806279049355</v>
+        <v>0.6093204822984797</v>
       </c>
       <c r="ED6">
-        <v>0.6112110416130617</v>
+        <v>0.6111461087537036</v>
       </c>
       <c r="EE6">
-        <v>0.6118266086194245</v>
+        <v>0.6117551671289037</v>
       </c>
       <c r="EF6">
-        <v>0.6121956867712267</v>
+        <v>0.6121173873869119</v>
       </c>
       <c r="EG6">
-        <v>0.6173024043728907</v>
+        <v>0.6172239600977826</v>
       </c>
       <c r="EH6">
-        <v>0.6276853689862332</v>
+        <v>0.6276142560038607</v>
       </c>
       <c r="EI6">
-        <v>0.631195319293573</v>
+        <v>0.6311217988793777</v>
       </c>
       <c r="EJ6">
-        <v>0.6314819097605024</v>
+        <v>0.6314014145715049</v>
       </c>
       <c r="EK6">
-        <v>0.6314919348720947</v>
+        <v>0.6314040730287354</v>
       </c>
       <c r="EL6">
-        <v>0.6339162482153037</v>
+        <v>0.6338244406457294</v>
       </c>
       <c r="EM6">
-        <v>0.6378913078501184</v>
+        <v>0.6377977518858524</v>
       </c>
       <c r="EN6">
-        <v>0.6394400965416084</v>
+        <v>0.6393413542755885</v>
       </c>
       <c r="EO6">
-        <v>0.6394565755205819</v>
+        <v>0.6393504757450141</v>
       </c>
       <c r="EP6">
-        <v>0.6395662306970594</v>
+        <v>0.639452905438051</v>
       </c>
       <c r="EQ6">
-        <v>0.6396937253145908</v>
+        <v>0.6395731998497557</v>
       </c>
       <c r="ER6">
-        <v>0.6411568016010176</v>
+        <v>0.6410309683841497</v>
       </c>
       <c r="ES6">
-        <v>0.6413734808838173</v>
+        <v>0.6412405738314242</v>
       </c>
       <c r="ET6">
-        <v>0.6423276756901835</v>
+        <v>0.6421887398256307</v>
       </c>
       <c r="EU6">
-        <v>0.6430818022347312</v>
+        <v>0.6429365540710933</v>
       </c>
       <c r="EV6">
-        <v>0.6445571370218822</v>
+        <v>0.6444065984759064</v>
       </c>
       <c r="EW6">
-        <v>0.6472881677832096</v>
+        <v>0.6471341181145741</v>
       </c>
       <c r="EX6">
-        <v>0.6553301332582645</v>
+        <v>0.6551800978012727</v>
       </c>
       <c r="EY6">
-        <v>0.667669930987201</v>
+        <v>0.6675299995596032</v>
       </c>
       <c r="EZ6">
-        <v>0.6947753815883739</v>
+        <v>0.694666476396912</v>
       </c>
       <c r="FA6">
-        <v>0.7179197549555582</v>
+        <v>0.7178362633478471</v>
       </c>
       <c r="FB6">
-        <v>0.7261523154418719</v>
+        <v>0.7260731081095981</v>
       </c>
       <c r="FC6">
-        <v>0.7292813364267093</v>
+        <v>0.7291991819044248</v>
       </c>
       <c r="FD6">
-        <v>0.7298765814618716</v>
+        <v>0.7297878895131868</v>
       </c>
       <c r="FE6">
-        <v>0.7302828447858704</v>
+        <v>0.730187347632959</v>
       </c>
       <c r="FF6">
-        <v>0.736636730161207</v>
+        <v>0.7365428552931381</v>
       </c>
       <c r="FG6">
-        <v>0.7614142576248649</v>
+        <v>0.7613481104398924</v>
       </c>
       <c r="FH6">
-        <v>0.8001388999124066</v>
+        <v>0.8001202427889583</v>
       </c>
       <c r="FI6">
-        <v>0.8221671892136615</v>
+        <v>0.8221723642375203</v>
       </c>
       <c r="FJ6">
-        <v>0.8364775890590053</v>
+        <v>0.8364956603589161</v>
       </c>
       <c r="FK6">
-        <v>0.8469861966797696</v>
+        <v>0.8470117773024024</v>
       </c>
       <c r="FL6">
-        <v>0.8487305364828113</v>
+        <v>0.848751207890035</v>
       </c>
       <c r="FM6">
-        <v>0.8504207503826555</v>
+        <v>0.850436435880717</v>
       </c>
       <c r="FN6">
-        <v>0.8508780816896709</v>
+        <v>0.850887034344336</v>
       </c>
       <c r="FO6">
-        <v>0.8510658262507614</v>
+        <v>0.8510676640708181</v>
       </c>
       <c r="FP6">
-        <v>0.8531572241743045</v>
+        <v>0.8531546445433063</v>
       </c>
       <c r="FQ6">
-        <v>0.8583107188787317</v>
+        <v>0.8583080606378031</v>
       </c>
       <c r="FR6">
-        <v>0.8583197367392644</v>
+        <v>0.8583097104167486</v>
       </c>
       <c r="FS6">
-        <v>0.8627819684028574</v>
+        <v>0.8627708839845477</v>
       </c>
       <c r="FT6">
-        <v>0.8932391972020265</v>
+        <v>0.8932638883253536</v>
       </c>
       <c r="FU6">
-        <v>0.9355812627032566</v>
+        <v>0.935658569599582</v>
       </c>
       <c r="FV6">
-        <v>0.9585011720571813</v>
+        <v>0.9586035744827474</v>
       </c>
       <c r="FW6">
-        <v>0.9756757070717154</v>
+        <v>0.9757950641125525</v>
       </c>
       <c r="FX6">
-        <v>0.9818678020374947</v>
+        <v>0.9819885521140902</v>
       </c>
       <c r="FY6">
-        <v>0.9819354406164902</v>
+        <v>0.9820489056741848</v>
       </c>
       <c r="FZ6">
-        <v>0.982624240717179</v>
+        <v>0.9827313009114178</v>
       </c>
       <c r="GA6">
-        <v>0.9845757538324588</v>
+        <v>0.9846781983657225</v>
       </c>
       <c r="GB6">
-        <v>0.9872185212885723</v>
+        <v>0.9873173296343969</v>
       </c>
       <c r="GC6">
-        <v>0.9887447151787276</v>
+        <v>0.9888383052070717</v>
       </c>
       <c r="GD6">
-        <v>0.9914931893410854</v>
+        <v>0.9915832929632146</v>
       </c>
       <c r="GE6">
-        <v>0.9950867046533616</v>
+        <v>0.9951745192511861</v>
       </c>
       <c r="GF6">
-        <v>0.9962680088231436</v>
+        <v>0.9963501164116502</v>
       </c>
       <c r="GG6">
-        <v>0.9962731168521454</v>
+        <v>0.9963501164116502</v>
       </c>
       <c r="GH6">
-        <v>0.9974482563215632</v>
+        <v>0.9975195401366717</v>
       </c>
       <c r="GI6">
-        <v>0.9976438855731194</v>
+        <v>0.9977080657258396</v>
       </c>
       <c r="GJ6">
-        <v>0.9976449749458838</v>
+        <v>0.9977080657258396</v>
       </c>
       <c r="GK6">
-        <v>0.9983861550896668</v>
+        <v>0.9984429152261217</v>
       </c>
       <c r="GL6">
-        <v>0.9988752380585578</v>
+        <v>0.9989253103421656</v>
       </c>
       <c r="GM6">
-        <v>0.99897667568955</v>
+        <v>0.9990195108458576</v>
       </c>
       <c r="GN6">
-        <v>0.999021316286187</v>
+        <v>0.9990568338365794</v>
       </c>
       <c r="GO6">
-        <v>0.9991504754738166</v>
+        <v>0.9991787951769967</v>
       </c>
       <c r="GP6">
-        <v>0.9992602010752983</v>
+        <v>0.9992812953948265</v>
       </c>
       <c r="GQ6">
-        <v>0.9994953539591893</v>
+        <v>0.9995094006193799</v>
       </c>
       <c r="GR6">
-        <v>0.9999899748884076</v>
+        <v>0.9999973415427693</v>
       </c>
       <c r="GS6">
         <v>0.9999999999999998</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2">
-        <v>0.03245730786473743</v>
+        <v>0.03099963254900098</v>
       </c>
       <c r="F2">
-        <v>0.5008043596442856</v>
+        <v>0.5006625500635048</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.02336815654301692</v>
+        <v>0.01700903746323138</v>
       </c>
       <c r="F3">
-        <v>0.5148374148248424</v>
+        <v>0.5141248560452693</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>128</v>
       </c>
       <c r="E4">
-        <v>0.02640150572725969</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="F4">
-        <v>0.5015192560847286</v>
+        <v>0.5006417770708718</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.007875619107061919</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="F5">
-        <v>0.5287060997115062</v>
+        <v>0.5304819655228237</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.01343193811605964</v>
+        <v>0.01307805908164824</v>
       </c>
       <c r="F6">
-        <v>0.5211676509340194</v>
+        <v>0.521159652487691</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>163</v>
       </c>
       <c r="E2">
-        <v>0.03245730786473743</v>
+        <v>0.03099963254900098</v>
       </c>
       <c r="F2">
-        <v>0.7176659474119412</v>
+        <v>0.7172424583797681</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>154</v>
       </c>
       <c r="E3">
-        <v>0.02336815654301692</v>
+        <v>0.01700903746323138</v>
       </c>
       <c r="F3">
-        <v>0.7109084845563041</v>
+        <v>0.7101195665682011</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>161</v>
       </c>
       <c r="E4">
-        <v>0.02640150572725969</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="F4">
-        <v>0.7016093393456185</v>
+        <v>0.7008804954741623</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5">
-        <v>0.007875619107061919</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="F5">
-        <v>0.7004097678043884</v>
+        <v>0.7065142567191666</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>156</v>
       </c>
       <c r="E6">
-        <v>0.01343193811605964</v>
+        <v>0.01307805908164824</v>
       </c>
       <c r="F6">
-        <v>0.7179197549555582</v>
+        <v>0.7178362633478471</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>165</v>
       </c>
       <c r="E2">
-        <v>0.03245730786473743</v>
+        <v>0.03099963254900098</v>
       </c>
       <c r="F2">
-        <v>0.8023436195732465</v>
+        <v>0.8022343638841595</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>162</v>
       </c>
       <c r="E3">
-        <v>0.02336815654301692</v>
+        <v>0.01700903746323138</v>
       </c>
       <c r="F3">
-        <v>0.8031682066288079</v>
+        <v>0.8032672146800401</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.02640150572725969</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="F4">
-        <v>0.8262157019993686</v>
+        <v>0.8262734795774614</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>164</v>
       </c>
       <c r="E5">
-        <v>0.007875619107061919</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="F5">
-        <v>0.805531400046659</v>
+        <v>0.8054165939670761</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.01343193811605964</v>
+        <v>0.01307805908164824</v>
       </c>
       <c r="F6">
-        <v>0.8001388999124066</v>
+        <v>0.8001202427889583</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>177</v>
       </c>
       <c r="E2">
-        <v>0.03245730786473743</v>
+        <v>0.03099963254900098</v>
       </c>
       <c r="F2">
-        <v>0.935221039854798</v>
+        <v>0.9354060277640999</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>175</v>
       </c>
       <c r="E3">
-        <v>0.02336815654301692</v>
+        <v>0.01700903746323138</v>
       </c>
       <c r="F3">
-        <v>0.9042554196951128</v>
+        <v>0.9048352474576513</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>176</v>
       </c>
       <c r="E4">
-        <v>0.02640150572725969</v>
+        <v>0.02344632691176463</v>
       </c>
       <c r="F4">
-        <v>0.9043291036857855</v>
+        <v>0.9045469985066096</v>
       </c>
       <c r="G4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>175</v>
       </c>
       <c r="E5">
-        <v>0.007875619107061919</v>
+        <v>0.001486764462680332</v>
       </c>
       <c r="F5">
-        <v>0.9059353257902998</v>
+        <v>0.9064308520659509</v>
       </c>
       <c r="G5">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>176</v>
       </c>
       <c r="E6">
-        <v>0.01343193811605964</v>
+        <v>0.01307805908164824</v>
       </c>
       <c r="F6">
-        <v>0.9355812627032566</v>
+        <v>0.935658569599582</v>
       </c>
       <c r="G6">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>39</v>

--- a/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
@@ -1994,31 +1994,31 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000642132182936659</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0005964727601560329</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0007356158306012419</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0008095279463843802</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0005092724072633684</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0005352793362550272</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0003187101100018271</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.000163941873440395</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.227954198831968E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2030,46 +2030,46 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001046618800839004</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001546112395526172</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0004025427106526807</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0003290054077291892</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0004293027902494604</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0006277453764957466</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0007934214877377757</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0006420306541739381</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0004141069170658574</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0005858208765427468</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.000754575237437891</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0004713387408660283</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001679365231117652</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001002663775843638</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -2078,100 +2078,100 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>4.391408811620205E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002856510092194375</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.000545387222531361</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0003260133922487235</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0005859179866451712</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0006789612143871149</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0005260294734689867</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.000545387222531361</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0005964727601560329</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0004838864004674589</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003528184919684781</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0003055217145301813</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002365764541077307</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.947555857980567E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.25479608737236E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.240155258176448E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>3.001371591947059E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0001017229487814508</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.000156360004704217</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001955532001766515</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002907807725513276</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0006029147149598233</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0009696047212563329</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0007619014766335093</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0006103131088696007</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0006936902159407583</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.000545293426424159</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0004258263088371276</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0002569433850121761</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.000143453690480451</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.240155258176448E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
         <v>0</v>
@@ -2180,43 +2180,43 @@
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>2.608325733131617E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001364042301403566</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0002209932552219143</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0004714262504247176</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0006754934698712772</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0008381311998269573</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.000867217874790786</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0007739909814166563</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0006071184174752646</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003084962662600663</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0002344707716706849</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0001226697284257082</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.009543569670758E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -2225,373 +2225,373 @@
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001179239165463505</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0001638882068026126</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0002809972159407535</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0005320947374825045</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0004742563320477281</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0003636124455527048</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.000437700976348179</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0004412230603432531</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0004258263088371276</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0003364174392314271</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0002255555320204129</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0001874041060097357</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>7.812997407938384E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.007555619901602972</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.06749807337123602</v>
+        <v>0.2095526232387475</v>
       </c>
       <c r="CP2">
-        <v>0.0001656820824588753</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.07284735373817204</v>
+        <v>0.2395300839092159</v>
       </c>
       <c r="CR2">
-        <v>0.04657468249932057</v>
+        <v>0.09229757509571088</v>
       </c>
       <c r="CS2">
-        <v>0.009256957262486673</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01518150200917708</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.008804795252230048</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.000394473242752789</v>
+        <v>0</v>
       </c>
       <c r="CW2">
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.003000658496497525</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.02230532438509685</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.055643829108923</v>
+        <v>0.1431212312055123</v>
       </c>
       <c r="DA2">
-        <v>0.02091236381994121</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.006845512972791375</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.005413467951376232</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.001346790100209947</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.003782648693132324</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.01642650574278791</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01999837598851142</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.001845193792165354</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0002954385727515077</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.008829446857599867</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.00344670417708698</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01269346486275124</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0002855819174402566</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.008987415971680051</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.001245781534314961</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0009603354766194467</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>1.103691864183206E-05</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.005685011698689931</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.002229883462239713</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0009656033230856012</v>
+        <v>0</v>
       </c>
       <c r="DV2">
         <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.005413467951376232</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.009993668442822731</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.00298604267290193</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0009872320626921577</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.002835174145069953</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.000288534215190103</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002276979050040785</v>
+        <v>0</v>
       </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.001813993129691604</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>1.945009805832929E-05</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.002650978574920655</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.00212553348534373</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.002695221817076267</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003462165471160664</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0006789612143871149</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.003462165471160664</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.005291210650660185</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.003031372001673591</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001014618517513189</v>
+        <v>0</v>
       </c>
       <c r="EP2">
         <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001106276294403999</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001790360628064703</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0006754934698712772</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0003578383109982647</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.004242326543280925</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.004426204371585269</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.004169861719508251</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.007750880399679177</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01784680676852786</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.03271644423699775</v>
+        <v>0.01463576566082475</v>
       </c>
       <c r="FA2">
-        <v>0.02956411875673572</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.01495554377250814</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.01011870548256164</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.002502080970429092</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0003747163480719081</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.007739672668685416</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.02087500505137567</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.04256820588197054</v>
+        <v>0.06984521010730488</v>
       </c>
       <c r="FI2">
-        <v>0.05239917973873047</v>
+        <v>0.1249381594253134</v>
       </c>
       <c r="FJ2">
-        <v>0.03259272576566095</v>
+        <v>0.01394244518511489</v>
       </c>
       <c r="FK2">
-        <v>0.01816860574702689</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.007702178327588051</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.002276979050040785</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>7.948874224777272E-05</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0005690595925250274</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.002209893342634457</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001342088444806324</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0003186373929127211</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002209707256781518</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.02164422552060191</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.03896721566065243</v>
+        <v>0.04966519796931026</v>
       </c>
       <c r="FV2">
-        <v>0.03768358480212278</v>
+        <v>0.04247170820294511</v>
       </c>
       <c r="FW2">
-        <v>0.02183278984027113</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.01388434603317637</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.004970968647371072</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>3.358994256255E-06</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0005422674475138692</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001337249911357609</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.002474359199546017</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.005963477679054414</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.004719719907223084</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.002644203864869312</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001533616882141685</v>
+        <v>0</v>
       </c>
       <c r="GH2">
         <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0004684298263263653</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0003314674852463734</v>
+        <v>0</v>
       </c>
       <c r="GK2">
         <v>0</v>
       </c>
       <c r="GL2">
-        <v>2.717096479230104E-06</v>
+        <v>0</v>
       </c>
       <c r="GM2">
         <v>0</v>
       </c>
       <c r="GN2">
-        <v>2.792695739938527E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001401437825188847</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0004148743078080245</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0008545542856110319</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.001555674030948802</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0008918260567807826</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2773,28 +2773,28 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.056229387666622E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001860220916626279</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002777805254569699</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001116201828035377</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.288953462651491E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001730949461678822</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.408749148455535E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.12974877989897E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001780023320085242</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.635859667703906E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2830,37 +2830,37 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>5.367580208530247E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>7.735480474214509E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002508029285855396</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004927967570637006</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0004878232884206045</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004763000005268709</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0008178022063914091</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0006661567671118301</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0002546470569916221</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0001952647087934363</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.428460534581325E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2872,34 +2872,34 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0001361080027359371</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0004204783899177755</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0004590463649072356</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0007556082048876342</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0005919679941162144</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0004682259113251381</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.000536869742917722</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0005391677433715279</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0002907085867897539</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.453111871965561E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2911,40 +2911,40 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>5.622299189335811E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0002155307494166611</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.000141675331291017</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0001707848973558832</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0001311861364783114</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0002563622995256644</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0002803665060939376</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0002768263239808184</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0004927967570637006</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001582110109444755</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.675154267909145E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.510780659295581E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -2965,34 +2965,34 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.410407878181753E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001560813211701571</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0005101779078662051</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0004796684630078044</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0002795507589772243</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0004096388972313892</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.000630174976278902</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0005294297392698118</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0003422021808772292</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0002216846315313747</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -3010,175 +3010,175 @@
         <v>0</v>
       </c>
       <c r="CE3">
-        <v>5.003355491080113E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0002071044390813672</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0002240712036994647</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0002978619229556903</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0002619653762921737</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0003493281741897325</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0002035280406618214</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0001520362273705317</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0002435989567520621</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>3.330632264363809E-05</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1312200971265295</v>
+        <v>0.6002577466150817</v>
       </c>
       <c r="CP3">
-        <v>0.002267138594470375</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.05614443268018774</v>
+        <v>0.1531514084146767</v>
       </c>
       <c r="CR3">
-        <v>0.02887275410906479</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.005187848367266237</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.002437015662282781</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.02883791664768476</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01432441348843236</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0006833515855774487</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0001513723567285071</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.03933768938973307</v>
+        <v>0.05306036686232222</v>
       </c>
       <c r="CZ3">
-        <v>0.05091933651846429</v>
+        <v>0.1220338201942903</v>
       </c>
       <c r="DA3">
-        <v>0.0003998486801855105</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.0004611996018951172</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.00972615453125714</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01289163677496346</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.00462969952439121</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.03081304145387306</v>
+        <v>0.002292596091886713</v>
       </c>
       <c r="DG3">
-        <v>0.01439279453556382</v>
+        <v>0</v>
       </c>
       <c r="DH3">
         <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0007206053024539792</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.01971229579107661</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01488712066074369</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.02806474887656878</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001321216701224483</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.03823941132618594</v>
+        <v>0.04651967105976491</v>
       </c>
       <c r="DO3">
-        <v>0.002699137361952117</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01815860301660344</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.00301168917440285</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.004175003949844815</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001346193334445871</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.004494330725063939</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0009432051614649857</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0005788676941763563</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.003006615838709664</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.02396903060297829</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.002973739491849041</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
         <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.008900932561238466</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.001973449484016743</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.003871247744154362</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.003956272112436712</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0004308240525579194</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.002107078089311417</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003994026619728577</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.006637096936653306</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.001197270233911188</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
         <v>0</v>
@@ -3187,178 +3187,178 @@
         <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.005782911792192204</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.00519142156025265</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.001498947589014426</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0009997862460313287</v>
+        <v>0</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.001026345854422068</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.002770591554501058</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.004562670254204322</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0001637804866309564</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.001357460279272677</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0003349814492076502</v>
+        <v>0</v>
       </c>
       <c r="EW3">
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.008076894057484872</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.02624367718680695</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0310608621390544</v>
+        <v>0.003768469797419325</v>
       </c>
       <c r="FA3">
-        <v>0.02547769162110707</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.008252667799386918</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.009793915861315994</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.004889478510358514</v>
+        <v>0</v>
       </c>
       <c r="FE3">
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.002224174088098049</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.01144885809251824</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.0242492017404667</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.02888824194789066</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.01395256085772081</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.007210806885397277</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.003858356814966043</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002448669904840016</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>4.830471726987909E-06</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0001073417029438128</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002607238001035634</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.002797466312936763</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0003923311050557543</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0009989112136656012</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.01405207581896509</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.03360433975026138</v>
+        <v>0.01891592096455819</v>
       </c>
       <c r="FV3">
-        <v>0.02127511234760712</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.008242276090445403</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.002942292462886895</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0003373564207605882</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001449313644767681</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.00538173494333156</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.003145258759023943</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.001739295035803049</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.00526114593826676</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.004290291473785103</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0003061427575065856</v>
+        <v>0</v>
       </c>
       <c r="GG3">
         <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0003722728477314689</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0001459362168844279</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>9.030106072395714E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0003422021808772292</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0003402912135784189</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0009541357902121634</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.001114132186708439</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.001833977526758217</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001306676449488925</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0006902674449400476</v>
+        <v>0</v>
       </c>
       <c r="GR3">
         <v>0</v>
@@ -3540,55 +3540,55 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0006744828789622734</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>9.560562397760979E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001086691268182506</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001372330195171338</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0004141400568938204</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0004351491080914444</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004351491080914444</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005739614607914023</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001376219085223751</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0012376299532771</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001565196735050735</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001454814717453761</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.000916991801805125</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0004483613139230821</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0003488407514257748</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>7.392998393689891E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3600,82 +3600,82 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002976172214597226</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0006263238478853588</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0008071975625821336</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0008648142127156338</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001036758583364498</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001258438396007911</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0008030356725004412</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0008943312072441874</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0004112486971787226</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0003416682026718517</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.864626105996561E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>4.20023624703354E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>9.284411360465377E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0002419630134752802</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0001438084285716952</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>8.177074389492741E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.000327643073048611</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0004013999278882464</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.000282363783163475</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0003562280866710647</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0003232556244014599</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.525236566424909E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>8.724837883942657E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>9.451239449375485E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>6.104141998258324E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>3.575080589772517E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -3696,31 +3696,31 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>4.332671290028402E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.000275321779049273</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0003045064918723228</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0003087803550946234</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0002955113464737842</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0006043256099213726</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0004696557092012142</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0002542743454099124</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>9.127200547058921E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>2.414133656236224E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3738,28 +3738,28 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>7.79752957911167E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>6.485826511364085E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.378039192904568E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>1.378039192904568E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>5.50216484156388E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001322844556466536</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>1.949602320425306E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -3774,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>4.56575116147608E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>1.38061914999507E-07</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>3.028510286429457E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>2.619708563121625E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -3810,307 +3810,307 @@
         <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0146037302304031</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.05397199208233051</v>
+        <v>0.1302860970706119</v>
       </c>
       <c r="CP4">
-        <v>0.00165380717161782</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.05979744611403841</v>
+        <v>0.1621970447929982</v>
       </c>
       <c r="CR4">
-        <v>0.1007360163877452</v>
+        <v>0.3864522820196308</v>
       </c>
       <c r="CS4">
-        <v>0.003431541805663523</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01467391296345825</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>8.594888781713467E-05</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.003008384404232506</v>
+        <v>0</v>
       </c>
       <c r="CW4">
         <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.0006263238478853588</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.02757814227454043</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.05077158871604464</v>
+        <v>0.1127547760858068</v>
       </c>
       <c r="DA4">
-        <v>0.02919774729469725</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.008799548273913353</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.004962381307662733</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.002256147898408841</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.008501694883042504</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01657691220786795</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01215284556254767</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.000275321779049273</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>8.570921168778179E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.01058102461661372</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002083063642800869</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.004249468212966416</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0007410321984799339</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.007124509596179616</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.004952797789360399</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0007997133995913338</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0002021195600656691</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>7.92339154078734E-05</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.00654084990306206</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0007044475040570708</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0005769892298301516</v>
+        <v>0</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.009215661706258746</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01044514130069624</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.005152254279082865</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.002650042542382717</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.00239103361345157</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0002562478115524749</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0002732861996562867</v>
+        <v>0</v>
       </c>
       <c r="ED4">
         <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004490642557451159</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>2.816863114017545E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.003219190065037848</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.003184990493231641</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.004926563405548599</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.003094672949955552</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0004839894501819308</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.002719108970135797</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.00649976083915417</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.005839735000610022</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.001126855142931665</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0007410321984799339</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.002242815718476044</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.002836010359833144</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.00110544491510752</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0005211914983178397</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.003158634583495099</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.004573793598039233</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.003332397610768962</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.006423072841485766</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01740424478220656</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.03851379570270168</v>
+        <v>0.04560845754796393</v>
       </c>
       <c r="FA4">
-        <v>0.03399499022764263</v>
+        <v>0.02085513111239915</v>
       </c>
       <c r="FB4">
-        <v>0.02220887600769099</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.01524376475202384</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.002439223580232379</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0001304973393321392</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.004184645015035039</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01696990145347217</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.03843669425489296</v>
+        <v>0.04518610758915343</v>
       </c>
       <c r="FI4">
-        <v>0.04305415741807653</v>
+        <v>0.07047986577664989</v>
       </c>
       <c r="FJ4">
-        <v>0.02693223097685752</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01572562915111413</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.007290042617772321</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002643014796907281</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0001928189069568207</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.00237309805970451</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.003905023132837426</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.002231894709627189</v>
+        <v>0</v>
       </c>
       <c r="FR4">
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0007209469659994343</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.01432480505653357</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.02886624553169544</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.03496710693459231</v>
+        <v>0.02618023800478586</v>
       </c>
       <c r="FW4">
-        <v>0.01877847021750439</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.01184769759315933</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.005284973587943144</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
         <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0007997133995913338</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001618664917368857</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002980433542309545</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.004514272900676566</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.004466151455976043</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.002868312877693084</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0006875565593471918</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>2.431418350988334E-05</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0005711252210438287</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.001025274081173056</v>
+        <v>0</v>
       </c>
       <c r="GK4">
         <v>0</v>
@@ -4119,25 +4119,25 @@
         <v>0</v>
       </c>
       <c r="GM4">
-        <v>1.108060483526244E-05</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>8.441747978340459E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0003066401686846596</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0005949073003699627</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001181245753371754</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.002378722009443973</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0004619207050126858</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,16 +4313,16 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0004303868010033527</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002920824543767319</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001692848201170981</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>8.914045882836463E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.598549193384892E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.778692368339086E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.1839880157381E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.576189275274392E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -4403,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.74442292403651E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>4.997061177140177E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.196380494615559E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>7.231165687863904E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4481,19 +4481,19 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>7.56628085439132E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>2.568333156179964E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>6.296224651670673E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>4.905550575153401E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>4.68562601878783E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
@@ -4517,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>1.576121226529089E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>4.123445159533253E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -4580,97 +4580,97 @@
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001953338492719749</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1310170673174549</v>
+        <v>0.3453772373733649</v>
       </c>
       <c r="CO5">
-        <v>0.02008075853819006</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1021909828526592</v>
+        <v>0.2463651966160252</v>
       </c>
       <c r="CQ5">
-        <v>0.07598524656113904</v>
+        <v>0.1563535464753029</v>
       </c>
       <c r="CR5">
-        <v>0.001810884656189122</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.009249606248207889</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.008537906316139005</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01091605264808773</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>4.656055593276809E-05</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.02690861324759808</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.04073012659061987</v>
+        <v>0.03525900865525992</v>
       </c>
       <c r="CY5">
-        <v>0.009089086764909708</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.000976501939736546</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.05547054401789146</v>
+        <v>0.08588949969096163</v>
       </c>
       <c r="DB5">
-        <v>0.03403192431266823</v>
+        <v>0.01225197564127559</v>
       </c>
       <c r="DC5">
-        <v>0.002655077967791485</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.00629822202751101</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.001797639378481877</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.005489190957239485</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.007177358653606613</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.001455228010917612</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.001624701255018422</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
         <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0005928612621951288</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.007586139742515504</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.008798132385642393</v>
+        <v>0</v>
       </c>
       <c r="DN5">
         <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.004169470191448646</v>
+        <v>0</v>
       </c>
       <c r="DP5">
         <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.000652839319640937</v>
+        <v>0</v>
       </c>
       <c r="DR5">
         <v>0</v>
@@ -4679,49 +4679,49 @@
         <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0005612335365080837</v>
+        <v>0</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.00957707631817903</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.007069284695910294</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001059842265595793</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.004687981981689745</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.003693614755068705</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.000167612978078616</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.001412147167507873</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.0005902863316491131</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.001050257126322564</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.002025845204637294</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.002786069464331889</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.005947162845829092</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001575544222711073</v>
+        <v>0</v>
       </c>
       <c r="EI5">
         <v>0</v>
@@ -4730,88 +4730,88 @@
         <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.002471295110616852</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002675884178662149</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.000487414181711045</v>
+        <v>0</v>
       </c>
       <c r="EN5">
         <v>0</v>
       </c>
       <c r="EO5">
-        <v>5.320779090034472E-05</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0002595226675717719</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0004753189330067172</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>2.419974007943237E-05</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.000355231900682346</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>6.597527557688269E-05</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0002698038228012947</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0004420341984415752</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.004585773345335902</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.009968154530047537</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.02128811352333127</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.02282674990493603</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.007570143597065541</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.00279247271727486</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.0004537993226135301</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.0008273386995455027</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.00763903771011399</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.02333335640070002</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.03940446950018787</v>
+        <v>0.03070563221495955</v>
       </c>
       <c r="FH5">
-        <v>0.02315315288510228</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01301135846191942</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.009819744373693942</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.001313625295825053</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0004231696625476277</v>
+        <v>0</v>
       </c>
       <c r="FM5">
         <v>0</v>
@@ -4820,61 +4820,61 @@
         <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0009305667841230792</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001146082810963949</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0002386147057095785</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.005394450215243893</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.03509512423856501</v>
+        <v>0.01590386233870948</v>
       </c>
       <c r="FT5">
-        <v>0.0466528800122027</v>
+        <v>0.05560252440016152</v>
       </c>
       <c r="FU5">
-        <v>0.03520798479794827</v>
+        <v>0.01629151659397951</v>
       </c>
       <c r="FV5">
-        <v>0.0222042039998546</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.006425140219870762</v>
+        <v>0</v>
       </c>
       <c r="FX5">
         <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001543158455197622</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.002980431710993753</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.005518701907286227</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.003249302534127782</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.005614706630417821</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.006739381538764525</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.002476020196514849</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0008606793390067326</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>6.597527557688269E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
         <v>0</v>
@@ -4883,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0006385130371145209</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>4.494829137478834E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
         <v>0</v>
@@ -5089,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.465824659529083E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.540077698310796E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5101,118 +5101,118 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>7.911417646226661E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5.574419281648966E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002331464278818184</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001527552940183313</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.246439709239083E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001260039006606056</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001527552940183313</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>6.934684113307471E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.097079377990847E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>5.119421457412416E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>7.516484313551307E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0002083754968884158</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003589018624616554</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0005553967737610084</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0006948955652608202</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.000414186330264912</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001727155979499625</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001085556412848034</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001040470275734598</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>5.060724400778599E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3.129783159096024E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.059370880451948E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001345732262999904</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0001505735768774753</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001761758141735262</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002526038702617953</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0001277858220884934</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.000144591802636486</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001185627614107028</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>7.38342503399366E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0001455411259337823</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0002048186339092011</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0002096054472744707</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>7.159791090826116E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>9.420050369206353E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>6.287615007229759E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5221,49 +5221,49 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>5.630285332395047E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>8.821775306948938E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0001673392203482985</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0002024870046419235</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002291830697098375</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0001650599852189926</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0001423842489367678</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0002698176478446673</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.000309209337285671</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002230152522166998</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>7.377363456831131E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>3.44967275450128E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>4.462245550159613E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>4.229268386287228E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>2.881990531266751E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
         <v>0</v>
@@ -5272,418 +5272,418 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>8.364112712048338E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.835705993498791E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001113351643240475</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0001954052138719483</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0001740983345292583</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0004111725958153306</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0004127470837237327</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0001059522775118174</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001121743818210762</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>7.228269488106721E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>9.910155370276769E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>2.462896761449902E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.188314721377489E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>4.238796418501295E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>3.400064558651721E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0001693777448708709</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0002752848539691534</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>9.903212946712098E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0003622202580082395</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0006671585171966694</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0004607944810354179</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0004193325622093</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0005248159417280713</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0002036023328369949</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.000116553858803291</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0001093849948242819</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.007583618443186352</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.09110849356650218</v>
+        <v>0.2721476772031131</v>
       </c>
       <c r="CP6">
-        <v>0.01178461086884541</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.09890024894000403</v>
+        <v>0.3068683462727641</v>
       </c>
       <c r="CR6">
-        <v>0.07488182374613694</v>
+        <v>0.1998403721186383</v>
       </c>
       <c r="CS6">
-        <v>8.922588458070762E-05</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01214138520634842</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.001311517288136369</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02646722183807934</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.002497689027182955</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.03161770179342438</v>
+        <v>0.007052073602788055</v>
       </c>
       <c r="CY6">
-        <v>0.05428668351791565</v>
+        <v>0.1080668225101692</v>
       </c>
       <c r="CZ6">
-        <v>0.002316979822739128</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.005926023938527591</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.02905347439861264</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.03227397241969999</v>
+        <v>0.009976466649384338</v>
       </c>
       <c r="DD6">
-        <v>0.002719834664389991</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02312108804173071</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.008667034482394797</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002211945498636055</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.005247742667077053</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.004622382679512505</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.001411782163445129</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.002085793392764321</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0006994874628192312</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0125501721419424</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0008743941566810584</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002123779443219007</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.001864509474894532</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0002253552933868628</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.003502587764008991</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.003071438485586119</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0003122949534482422</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0003750230139730766</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.0004177457969283532</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0136922001173388</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01097987065735123</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0004929372432074498</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.004207882359450433</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.003993529949699903</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0006504641345602897</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.00388047647846283</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001825626455223842</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0006090583752001019</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0003622202580082395</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.005106572710870678</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.01039029590607812</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.003507542875516989</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0002796156921271845</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>2.65845723050873E-06</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.002420367616994088</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.003973311240122969</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001543602389736097</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>9.121469425651895E-06</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0001024296930368607</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0001202944117046803</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.001457768534394023</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0002096054472744707</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0009481659942065452</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0007478142454625824</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.001470044404813132</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.002727519638667699</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.008045979686698648</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01234990175833051</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.02713647683730876</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.02316978695093504</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.008236844761751063</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.003126073794826707</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.000588707608762037</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0003994581197721203</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.006355507660179155</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0248052551467542</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.03877213234906592</v>
+        <v>0.03893277362437868</v>
       </c>
       <c r="FI6">
-        <v>0.02205212144856194</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01432329612139587</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.01051611694348629</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001739430587632593</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.001685227990682098</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0004505984636188911</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0001806297264821066</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.002086980472488171</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.005153416094496871</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>1.649778945602928E-06</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.004461173567799117</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.03049300434080589</v>
+        <v>0.002040334118685732</v>
       </c>
       <c r="FU6">
-        <v>0.04239468127422838</v>
+        <v>0.05507513390007831</v>
       </c>
       <c r="FV6">
-        <v>0.02294500488316534</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.01719148962980507</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.006193488001537739</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>6.035356009464301E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0006823952372330531</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.001946897454304629</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.002639131268674394</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001520975572674819</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.002744987756142812</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.003591226287971435</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.001175597160464083</v>
+        <v>0</v>
       </c>
       <c r="GG6">
         <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001169423725021518</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0001885255891679852</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.000734849500282181</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0004823951160438697</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>9.420050369206353E-05</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>3.732299072178937E-05</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001219613404172908</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0001025002178298015</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0002281052245534566</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0004879409233894836</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>2.65845723050873E-06</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000642132182936659</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001238604943092692</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001974220773693934</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.002783748720078314</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.003293021127341682</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00382830046359671</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.004147010573598537</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004310952447038932</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004333231989027251</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.004333231989027251</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.004333231989027251</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.004333231989027251</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.004437893869111152</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004592505108663769</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.00499504781931645</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.005324053227045639</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.005753356017295099</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006381101393790846</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.007174522881528621</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.007816553535702559</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.008230660452768417</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.008816481329311164</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.009571056566749055</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01004239530761508</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01021033183072685</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01031059820831121</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01031059820831121</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01031059820831121</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01035451229642741</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01064016330564685</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01118555052817821</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01151156392042694</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01209748190707211</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01277644312145922</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01330247259492821</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01384785981745957</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0144443325776156</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01492821897808306</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01528103747005154</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01558655918458172</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01582313563868945</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01584261119726926</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.01584261119726926</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01585515915814298</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01585639931340116</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01588641302932063</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.01598813597810208</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0161444959828063</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.01634004918298295</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.01663082995553428</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0172337446704941</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.01820334939175043</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.01896525086838394</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01957556397725354</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0202692541931943</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.02081454761961846</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02124037392845559</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.02149731731346776</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.02164077100394822</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.02164201115920639</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.02164201115920639</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.02164201115920639</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.02166809441653771</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.02180449864667807</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.02202549190189998</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0224969181523247</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.02317241162219598</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.02401054282202293</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.02487776069681372</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.02565175167823037</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.02625887009570563</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0265673663619657</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.02680183713363639</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0269245068620621</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0269346022977588</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0269346022977588</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0269346022977588</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.02705252621430515</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.02721641442110777</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.02749741163704852</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.02802950637453103</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.02850376270657876</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.02886737515213146</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.02930507612847964</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.02974629918882289</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.03017212549766002</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.03050854293689145</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.03073409846891186</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.03092150257492159</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.03099963254900098</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.03855525245060395</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.10605332582184</v>
+        <v>0.2095526232387475</v>
       </c>
       <c r="CP2">
-        <v>0.1062190079042988</v>
+        <v>0.2095526232387475</v>
       </c>
       <c r="CQ2">
-        <v>0.1790663616424709</v>
+        <v>0.4490827071479634</v>
       </c>
       <c r="CR2">
-        <v>0.2256410441417914</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CS2">
-        <v>0.2348980014042781</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CT2">
-        <v>0.2500795034134552</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CU2">
-        <v>0.2588842986656852</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CV2">
-        <v>0.259278771908438</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CW2">
-        <v>0.259278771908438</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CX2">
-        <v>0.2622794304049355</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CY2">
-        <v>0.2845847547900324</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="CZ2">
-        <v>0.3402285838989554</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DA2">
-        <v>0.3611409477188966</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DB2">
-        <v>0.367986460691688</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DC2">
-        <v>0.3733999286430642</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DD2">
-        <v>0.3747467187432741</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DE2">
-        <v>0.3785293674364065</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DF2">
-        <v>0.3949558731791944</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DG2">
-        <v>0.4149542491677058</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DH2">
-        <v>0.4167994429598711</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DI2">
-        <v>0.4170948815326226</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DJ2">
-        <v>0.4259243283902225</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DK2">
-        <v>0.4293710325673095</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DL2">
-        <v>0.4420644974300607</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DM2">
-        <v>0.442350079347501</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DN2">
-        <v>0.451337495319181</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DO2">
-        <v>0.452583276853496</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DP2">
-        <v>0.4535436123301155</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DQ2">
-        <v>0.4535436123301155</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DR2">
-        <v>0.4535546492487573</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DS2">
-        <v>0.4592396609474473</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DT2">
-        <v>0.461469544409687</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DU2">
-        <v>0.4624351477327726</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DV2">
-        <v>0.4624351477327726</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DW2">
-        <v>0.4678486156841488</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DX2">
-        <v>0.4778422841269716</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DY2">
-        <v>0.4808283267998735</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="DZ2">
-        <v>0.4818155588625656</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EA2">
-        <v>0.4846507330076356</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EB2">
-        <v>0.4849392672228257</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EC2">
-        <v>0.4872162462728664</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="ED2">
-        <v>0.4872162462728664</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EE2">
-        <v>0.489030239402558</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EF2">
-        <v>0.4890496895006163</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EG2">
-        <v>0.491700668075537</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EH2">
-        <v>0.4938262015608807</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EI2">
-        <v>0.496521423377957</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EJ2">
-        <v>0.4999835888491176</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EK2">
-        <v>0.5006625500635048</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EL2">
-        <v>0.5041247155346654</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EM2">
-        <v>0.5094159261853256</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EN2">
-        <v>0.5124472981869992</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EO2">
-        <v>0.5134619167045124</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EP2">
-        <v>0.5134619167045124</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EQ2">
-        <v>0.5145681929989163</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="ER2">
-        <v>0.516358553626981</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="ES2">
-        <v>0.5170340470968523</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="ET2">
-        <v>0.5173918854078505</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EU2">
-        <v>0.5216342119511315</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EV2">
-        <v>0.5260604163227167</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EW2">
-        <v>0.530230278042225</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EX2">
-        <v>0.5379811584419042</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EY2">
-        <v>0.5558279652104321</v>
+        <v>0.6845015134491866</v>
       </c>
       <c r="EZ2">
-        <v>0.5885444094474298</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FA2">
-        <v>0.6181085282041655</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FB2">
-        <v>0.6330640719766737</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FC2">
-        <v>0.6431827774592354</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FD2">
-        <v>0.6456848584296645</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FE2">
-        <v>0.6460595747777365</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FF2">
-        <v>0.6537992474464219</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FG2">
-        <v>0.6746742524977976</v>
+        <v>0.6991372791100114</v>
       </c>
       <c r="FH2">
-        <v>0.7172424583797681</v>
+        <v>0.7689824892173163</v>
       </c>
       <c r="FI2">
-        <v>0.7696416381184985</v>
+        <v>0.8939206486426297</v>
       </c>
       <c r="FJ2">
-        <v>0.8022343638841595</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FK2">
-        <v>0.8204029696311863</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FL2">
-        <v>0.8281051479587743</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FM2">
-        <v>0.8303821270088151</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FN2">
-        <v>0.8304616157510628</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FO2">
-        <v>0.8310306753435879</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FP2">
-        <v>0.8332405686862223</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FQ2">
-        <v>0.8345826571310286</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FR2">
-        <v>0.8349012945239414</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FS2">
-        <v>0.8371110017807228</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FT2">
-        <v>0.8587552273013247</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="FU2">
-        <v>0.8977224429619771</v>
+        <v>0.9575282917970548</v>
       </c>
       <c r="FV2">
-        <v>0.9354060277640999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.957238817604371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9711231636375474</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9760941322849185</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9760974912791748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9766397587266886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9779770086380463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9804513678375922</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9864148455166466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9911345654238697</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.993778769288739</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9953123861708807</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9953123861708807</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.995780815997207</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9961122834824534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9961122834824534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9961150005789327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9961150005789327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.996142927536332</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.996283071318851</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.996697945626659</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.99755249991227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9991081739432188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7424,589 +7424,589 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.056229387666622E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.056229387666622E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001880783210502945</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0004658588465072644</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0005774790293108021</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0006503685639373171</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0008234635101051994</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0008975510015897547</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0008975510015897547</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0008975510015897547</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0009388484893887444</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0009388484893887444</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001116850821397269</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001213209418074308</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001213209418074308</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001213209418074308</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001213209418074308</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001213209418074308</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001213209418074308</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.00126688522015961</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001344240024901755</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001595042953487295</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002087839710550995</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0025756629989716</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003051962999498471</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.00386976520588988</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.00453592197300171</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004790569029993332</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004985833738786768</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004992262199321349</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004992262199321349</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004992262199321349</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004992262199321349</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005128370202057286</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.005548848591975061</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.006007894956882297</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.006763503161769931</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.007355471155886146</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.007823697067211284</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.008360566810129007</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.008899734553500535</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.009190443140290289</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.009214974259009944</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.009214974259009944</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.009214974259009944</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.009214974259009944</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.009271197250903302</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.009486728000319963</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.009628403331610979</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.009799188228966861</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.009930374365445173</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01018673666497084</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01046710317106478</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.01074392949504559</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.01123672625210929</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01139493726305377</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.01141168880573286</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.01144679661232582</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.01144679661232582</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.01144679661232582</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01144679661232582</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01144679661232582</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01144679661232582</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01144679661232582</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01146090069110763</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01161698201227779</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.012127159920144</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0126068283831518</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01288637914212903</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01329601803936041</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01392619301563932</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01445562275490913</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01479782493578636</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01501950956731773</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01501950956731773</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01501950956731773</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01501950956731773</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01501950956731773</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01501950956731773</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01506954312222853</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0152766475613099</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01550071876500937</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01579858068796506</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01606054606425723</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01640987423844696</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01661340227910878</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01676543850647932</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01700903746323138</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01704234378587502</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1482624409124045</v>
+        <v>0.6002577466150817</v>
       </c>
       <c r="CP3">
-        <v>0.1505295795068749</v>
+        <v>0.6002577466150817</v>
       </c>
       <c r="CQ3">
-        <v>0.2066740121870626</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CR3">
-        <v>0.2355467662961274</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CS3">
-        <v>0.2407346146633936</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CT3">
-        <v>0.2431716303256764</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CU3">
-        <v>0.2720095469733612</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CV3">
-        <v>0.2863339604617935</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CW3">
-        <v>0.287017312047371</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CX3">
-        <v>0.2871686844040995</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="CY3">
-        <v>0.3265063737938326</v>
+        <v>0.8064695218920805</v>
       </c>
       <c r="CZ3">
-        <v>0.3774257103122969</v>
+        <v>0.9285033420863709</v>
       </c>
       <c r="DA3">
-        <v>0.3778255589924824</v>
+        <v>0.9285033420863709</v>
       </c>
       <c r="DB3">
-        <v>0.3782867585943775</v>
+        <v>0.9285033420863709</v>
       </c>
       <c r="DC3">
-        <v>0.3880129131256347</v>
+        <v>0.9285033420863709</v>
       </c>
       <c r="DD3">
-        <v>0.4009045499005982</v>
+        <v>0.9285033420863709</v>
       </c>
       <c r="DE3">
-        <v>0.4055342494249893</v>
+        <v>0.9285033420863709</v>
       </c>
       <c r="DF3">
-        <v>0.4363472908788624</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DG3">
-        <v>0.4507400854144262</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DH3">
-        <v>0.4507400854144262</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DI3">
-        <v>0.4514606907168802</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DJ3">
-        <v>0.4711729865079567</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DK3">
-        <v>0.4860601071687005</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DL3">
-        <v>0.5141248560452693</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DM3">
-        <v>0.5154460727464938</v>
+        <v>0.9307959381782576</v>
       </c>
       <c r="DN3">
-        <v>0.5536854840726797</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DO3">
-        <v>0.5563846214346319</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DP3">
-        <v>0.5745432244512353</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DQ3">
-        <v>0.5775549136256382</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DR3">
-        <v>0.581729917575483</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DS3">
-        <v>0.5830761109099288</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DT3">
-        <v>0.5875704416349927</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DU3">
-        <v>0.5885136467964577</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DV3">
-        <v>0.589092514490634</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DW3">
-        <v>0.5920991303293437</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DX3">
-        <v>0.616068160932322</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DY3">
-        <v>0.6190419004241711</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="DZ3">
-        <v>0.6190419004241711</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EA3">
-        <v>0.6279428329854095</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EB3">
-        <v>0.6299162824694263</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EC3">
-        <v>0.6337875302135807</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="ED3">
-        <v>0.6377438023260175</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EE3">
-        <v>0.6381746263785754</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EF3">
-        <v>0.6402817044678868</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EG3">
-        <v>0.6442757310876154</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EH3">
-        <v>0.6509128280242686</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EI3">
-        <v>0.6521100982581798</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EJ3">
-        <v>0.6521100982581798</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EK3">
-        <v>0.6521100982581798</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EL3">
-        <v>0.657893010050372</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EM3">
-        <v>0.6630844316106247</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EN3">
-        <v>0.6645833791996392</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EO3">
-        <v>0.6655831654456705</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EP3">
-        <v>0.6655831654456705</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EQ3">
-        <v>0.6666095113000926</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="ER3">
-        <v>0.6693801028545937</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="ES3">
-        <v>0.673942773108798</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="ET3">
-        <v>0.6741065535954289</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EU3">
-        <v>0.6754640138747016</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EV3">
-        <v>0.6757989953239092</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EW3">
-        <v>0.6757989953239092</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EX3">
-        <v>0.6838758893813941</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EY3">
-        <v>0.7101195665682011</v>
+        <v>0.9773156092380225</v>
       </c>
       <c r="EZ3">
-        <v>0.7411804287072554</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FA3">
-        <v>0.7666581203283624</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FB3">
-        <v>0.7749107881277494</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FC3">
-        <v>0.7847047039890653</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FD3">
-        <v>0.7895941824994238</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FE3">
-        <v>0.7895941824994238</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FF3">
-        <v>0.7918183565875219</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FG3">
-        <v>0.8032672146800401</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FH3">
-        <v>0.8275164164205069</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FI3">
-        <v>0.8564046583683975</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FJ3">
-        <v>0.8703572192261183</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FK3">
-        <v>0.8775680261115156</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FL3">
-        <v>0.8814263829264817</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FM3">
-        <v>0.8838750528313217</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FN3">
-        <v>0.8838798833030487</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FO3">
-        <v>0.8839872250059925</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FP3">
-        <v>0.8865944630070282</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FQ3">
-        <v>0.8893919293199649</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FR3">
-        <v>0.8897842604250207</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FS3">
-        <v>0.8907831716386863</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FT3">
-        <v>0.9048352474576513</v>
+        <v>0.9810840790354418</v>
       </c>
       <c r="FU3">
-        <v>0.9384395872079127</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9597146995555198</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9679569756459652</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9708992681088521</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9712366245296127</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9726859381743803</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9780676731177119</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9812129318767359</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9829522269125389</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9882133728508057</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9925036643245908</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9928098070820974</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9928098070820974</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9931820799298289</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9933280161467133</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9934183172074372</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9937605193883144</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9941008106018928</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.995054946392105</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9961690785788134</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9980030561055716</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9993097325550605</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0006744828789622734</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0007700885029398833</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0008787576297581339</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0008787576297581339</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001015990649275268</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001430130706169088</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001865279814260532</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002300428922351977</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002874390383143379</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00425060946836713</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00548823942164423</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.007053436156694964</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.008508250874148726</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.009425242675953851</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.009873603989876932</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01022244474130271</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01029637472523961</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01029637472523961</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01029637472523961</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01029637472523961</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01059399194669933</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01122031579458469</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01202751335716682</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01289232756988245</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01392908615324695</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01518752454925486</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0159905602217553</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.01688489142899949</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01729614012617822</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01763780832885007</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01773645458991003</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01774065482615707</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01774065482615707</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01783349893976172</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.018075461953237</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0182192703818087</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.01830104112570363</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.01862868419875224</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.01903008412664048</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.01931244790980396</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.01966867599647502</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01999193162087648</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.02001718398654073</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.02001718398654073</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.02010443236538016</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.02019894475987391</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.02019894475987391</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.02019894475987391</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0202599861798565</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.02029573698575422</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.02029573698575422</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.02029573698575422</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.02033906369865451</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.02061438547770378</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0209188919695761</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.02122767232467072</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.02152318367114451</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.02212750928106588</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0225971649902671</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.02285143933567701</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0229427113411476</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0229427113411476</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0229427113411476</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.02296685267770996</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.02296685267770996</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.02296685267770996</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.02304482797350108</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.02310968623861472</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.02312346663054377</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.02312346663054377</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.02313724702247281</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.02319226867088845</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0233245531265351</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.02334404914973935</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.02334404914973935</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.02334404914973935</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.02334404914973935</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.02334404914973935</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.02338970666135412</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.02338984472326912</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.02342012982613341</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.02342012982613341</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.02342012982613341</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.02342012982613341</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.03805005714216773</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.09202204922449823</v>
+        <v>0.1302860970706119</v>
       </c>
       <c r="CP4">
-        <v>0.09367585639611606</v>
+        <v>0.1302860970706119</v>
       </c>
       <c r="CQ4">
-        <v>0.1534733025101545</v>
+        <v>0.2924831418636101</v>
       </c>
       <c r="CR4">
-        <v>0.2542093188978997</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CS4">
-        <v>0.2576408607035632</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CT4">
-        <v>0.2723147736670214</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CU4">
-        <v>0.2724007225548386</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CV4">
-        <v>0.2754091069590711</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CW4">
-        <v>0.2754091069590711</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CX4">
-        <v>0.2760354308069565</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CY4">
-        <v>0.3036135730814969</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="CZ4">
-        <v>0.3543851617975415</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DA4">
-        <v>0.3835829090922388</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DB4">
-        <v>0.3923824573661521</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DC4">
-        <v>0.3973448386738149</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DD4">
-        <v>0.3996009865722237</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DE4">
-        <v>0.4081026814552662</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DF4">
-        <v>0.4246795936631341</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DG4">
-        <v>0.4368324392256818</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DH4">
-        <v>0.4371077610047311</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DI4">
-        <v>0.4371934702164189</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DJ4">
-        <v>0.4477744948330326</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DK4">
-        <v>0.4498575584758334</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DL4">
-        <v>0.4541070266887998</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DM4">
-        <v>0.4548480588872797</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DN4">
-        <v>0.4619725684834594</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DO4">
-        <v>0.4669253662728198</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DP4">
-        <v>0.4677250796724111</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DQ4">
-        <v>0.4679271992324768</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DR4">
-        <v>0.4680064331478846</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DS4">
-        <v>0.4745472830509467</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DT4">
-        <v>0.4752517305550038</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DU4">
-        <v>0.4758287197848339</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DV4">
-        <v>0.4758287197848339</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DW4">
-        <v>0.4850443814910927</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DX4">
-        <v>0.4954895227917889</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DY4">
-        <v>0.5006417770708718</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="DZ4">
-        <v>0.5032918196132545</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EA4">
-        <v>0.5056828532267061</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EB4">
-        <v>0.5059391010382586</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EC4">
-        <v>0.5062123872379148</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="ED4">
-        <v>0.5062123872379148</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EE4">
-        <v>0.510703029795366</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EF4">
-        <v>0.5107311984265062</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EG4">
-        <v>0.5139503884915441</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EH4">
-        <v>0.5171353789847757</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EI4">
-        <v>0.5220619423903243</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EJ4">
-        <v>0.5251566153402799</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EK4">
-        <v>0.5256406047904618</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EL4">
-        <v>0.5283597137605976</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EM4">
-        <v>0.5348594745997518</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EN4">
-        <v>0.5406992096003618</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EO4">
-        <v>0.5418260647432934</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EP4">
-        <v>0.5425670969417734</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EQ4">
-        <v>0.5448099126602495</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="ER4">
-        <v>0.5476459230200826</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="ES4">
-        <v>0.5487513679351902</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="ET4">
-        <v>0.5492725594335081</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EU4">
-        <v>0.5524311940170031</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EV4">
-        <v>0.5570049876150424</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EW4">
-        <v>0.5603373852258113</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EX4">
-        <v>0.5667604580672971</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EY4">
-        <v>0.5841647028495037</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="EZ4">
-        <v>0.6226784985522054</v>
+        <v>0.8372986575170116</v>
       </c>
       <c r="FA4">
-        <v>0.656673488779848</v>
+        <v>0.8581537886294107</v>
       </c>
       <c r="FB4">
-        <v>0.6788823647875389</v>
+        <v>0.8581537886294107</v>
       </c>
       <c r="FC4">
-        <v>0.6941261295395628</v>
+        <v>0.8581537886294107</v>
       </c>
       <c r="FD4">
-        <v>0.6965653531197952</v>
+        <v>0.8581537886294107</v>
       </c>
       <c r="FE4">
-        <v>0.6966958504591273</v>
+        <v>0.8581537886294107</v>
       </c>
       <c r="FF4">
-        <v>0.7008804954741623</v>
+        <v>0.8581537886294107</v>
       </c>
       <c r="FG4">
-        <v>0.7178503969276345</v>
+        <v>0.8581537886294107</v>
       </c>
       <c r="FH4">
-        <v>0.7562870911825275</v>
+        <v>0.9033398962185641</v>
       </c>
       <c r="FI4">
-        <v>0.799341248600604</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FJ4">
-        <v>0.8262734795774614</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FK4">
-        <v>0.8419991087285755</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FL4">
-        <v>0.8492891513463479</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FM4">
-        <v>0.8519321661432552</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FN4">
-        <v>0.8521249850502119</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FO4">
-        <v>0.8544980831099165</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FP4">
-        <v>0.858403106242754</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FQ4">
-        <v>0.8606350009523811</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FR4">
-        <v>0.8606350009523811</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FS4">
-        <v>0.8613559479183805</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FT4">
-        <v>0.8756807529749141</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FU4">
-        <v>0.9045469985066096</v>
+        <v>0.973819761995214</v>
       </c>
       <c r="FV4">
-        <v>0.9395141054412018</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW4">
-        <v>0.9582925756587062</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX4">
-        <v>0.9701402732518655</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY4">
-        <v>0.9754252468398086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ4">
-        <v>0.9754252468398086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA4">
-        <v>0.9762249602393999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB4">
-        <v>0.9778436251567687</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC4">
-        <v>0.9808240586990783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD4">
-        <v>0.9853383315997548</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE4">
-        <v>0.9898044830557309</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF4">
-        <v>0.9926727959334239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG4">
-        <v>0.9933603524927711</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH4">
-        <v>0.993384666676281</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI4">
-        <v>0.9939557918973249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ4">
-        <v>0.9949810659784979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK4">
-        <v>0.9949810659784979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL4">
-        <v>0.9949810659784979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM4">
-        <v>0.9949921465833331</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN4">
-        <v>0.9950765640631165</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO4">
-        <v>0.9953832042318012</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP4">
-        <v>0.9959781115321711</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ4">
-        <v>0.9971593572855428</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR4">
-        <v>0.9995380792949868</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0004303868010033527</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0007224692553800846</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0008917540754971828</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0009808945343255473</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0009808945343255473</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009808945343255473</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0009808945343255473</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001016880026259396</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001016880026259396</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001016880026259396</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001016880026259396</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001016880026259396</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001064666949942787</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001064666949942787</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001064666949942787</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001064666949942787</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001086506830100168</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001090083019375443</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001090083019375443</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001090083019375443</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001090083019375443</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001090083019375443</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001090083019375443</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001147527248615808</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001152524309792948</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001152524309792948</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001152524309792948</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001152524309792948</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001204488114739104</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001204488114739104</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001204488114739104</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001204488114739104</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001204488114739104</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001204488114739104</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001211719280426967</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001287382088970881</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.00131306542053268</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001376027667049387</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001425083172800921</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.001429768798819709</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001445530011085</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.003440102955400082</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1344571702728549</v>
+        <v>0.3453772373733649</v>
       </c>
       <c r="CO5">
-        <v>0.154537928811045</v>
+        <v>0.3453772373733649</v>
       </c>
       <c r="CP5">
-        <v>0.2567289116637043</v>
+        <v>0.5917424339893901</v>
       </c>
       <c r="CQ5">
-        <v>0.3327141582248433</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="CR5">
-        <v>0.3345250428810324</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="CS5">
-        <v>0.3437746491292403</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="CT5">
-        <v>0.3523125554453793</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="CU5">
-        <v>0.363228608093467</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="CV5">
-        <v>0.3632751686493997</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="CW5">
-        <v>0.3901837818969978</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="CX5">
-        <v>0.4309139084876177</v>
+        <v>0.7833549891199528</v>
       </c>
       <c r="CY5">
-        <v>0.4400029952525274</v>
+        <v>0.7833549891199528</v>
       </c>
       <c r="CZ5">
-        <v>0.4409794971922639</v>
+        <v>0.7833549891199528</v>
       </c>
       <c r="DA5">
-        <v>0.4964500412101554</v>
+        <v>0.8692444888109144</v>
       </c>
       <c r="DB5">
-        <v>0.5304819655228237</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DC5">
-        <v>0.5331370434906152</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DD5">
-        <v>0.5394352655181262</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DE5">
-        <v>0.541232904896608</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DF5">
-        <v>0.5467220958538475</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DG5">
-        <v>0.553899454507454</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DH5">
-        <v>0.5553546825183716</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DI5">
-        <v>0.5569793837733901</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DJ5">
-        <v>0.5569793837733901</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DK5">
-        <v>0.5575722450355852</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DL5">
-        <v>0.5651583847781008</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DM5">
-        <v>0.5739565171637432</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DN5">
-        <v>0.5739565171637432</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DO5">
-        <v>0.5781259873551918</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DP5">
-        <v>0.5781259873551918</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DQ5">
-        <v>0.5787788266748327</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DR5">
-        <v>0.5787788266748327</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DS5">
-        <v>0.5787788266748327</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DT5">
-        <v>0.5793400602113408</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DU5">
-        <v>0.5793400602113408</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DV5">
-        <v>0.5889171365295198</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DW5">
-        <v>0.5959864212254301</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DX5">
-        <v>0.5970462634910259</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DY5">
-        <v>0.6017342454727156</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="DZ5">
-        <v>0.6054278602277843</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EA5">
-        <v>0.6055954732058629</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EB5">
-        <v>0.6070076203733709</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EC5">
-        <v>0.60759790670502</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="ED5">
-        <v>0.6086481638313426</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EE5">
-        <v>0.6106740090359799</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EF5">
-        <v>0.6134600785003118</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EG5">
-        <v>0.6194072413461409</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EH5">
-        <v>0.620982785568852</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EI5">
-        <v>0.620982785568852</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EJ5">
-        <v>0.620982785568852</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EK5">
-        <v>0.6234540806794688</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EL5">
-        <v>0.626129964858131</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EM5">
-        <v>0.626617379039842</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EN5">
-        <v>0.626617379039842</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EO5">
-        <v>0.6266705868307424</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EP5">
-        <v>0.6269301094983142</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EQ5">
-        <v>0.6274054284313209</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="ER5">
-        <v>0.6274296281714002</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="ES5">
-        <v>0.6277848600720826</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="ET5">
-        <v>0.6278508353476594</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EU5">
-        <v>0.6281206391704607</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EV5">
-        <v>0.6285626733689023</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EW5">
-        <v>0.6331484467142382</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EX5">
-        <v>0.6431166012442857</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EY5">
-        <v>0.664404714767617</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="EZ5">
-        <v>0.687231464672553</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="FA5">
-        <v>0.6948016082696186</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="FB5">
-        <v>0.6975940809868935</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="FC5">
-        <v>0.698047880309507</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="FD5">
-        <v>0.6988752190090526</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="FE5">
-        <v>0.7065142567191666</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="FF5">
-        <v>0.7298476131198666</v>
+        <v>0.88149646445219</v>
       </c>
       <c r="FG5">
-        <v>0.7692520826200544</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FH5">
-        <v>0.7924052355051567</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FI5">
-        <v>0.8054165939670761</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FJ5">
-        <v>0.81523633834077</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FK5">
-        <v>0.816549963636595</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FL5">
-        <v>0.8169731332991427</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FM5">
-        <v>0.8169731332991427</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FN5">
-        <v>0.8169731332991427</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FO5">
-        <v>0.8179037000832657</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FP5">
-        <v>0.8190497828942297</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FQ5">
-        <v>0.8192883975999393</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FR5">
-        <v>0.8246828478151832</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="FS5">
-        <v>0.8597779720537482</v>
+        <v>0.928105959005859</v>
       </c>
       <c r="FT5">
-        <v>0.9064308520659509</v>
+        <v>0.9837084834060206</v>
       </c>
       <c r="FU5">
-        <v>0.9416388368638992</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9638430408637537</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9702681810836244</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9702681810836244</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.971811339538822</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9747917712498158</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.980310473157102</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9835597756912298</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9891744823216476</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9959138638604121</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.998389884056927</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9992505633959337</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9993165386715105</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9993165386715105</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9993165386715105</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.999955051708625</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9740,769 +9740,769 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.465824659529083E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.886660164263704E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.886660164263704E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>7.886660164263704E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001579807781049036</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002137249709213933</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0004468713988032116</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0005996266928215429</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0006920910899139338</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0008180949905745394</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0009708502845928706</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0009777849687061782</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0009777849687061782</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0009798820480841691</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001031076262658293</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001106241105793806</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001314616602682222</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001673518465143878</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002228915238904886</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.002923810804165706</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.003337997134430618</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.003510712732380581</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.003619268373665384</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.003723315401238844</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.00377392264524663</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.003777052428405726</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.003777052428405726</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.003817646137210245</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003952219363510236</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.004102792940387711</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.004278968754561237</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.004531572624823033</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004659358446911527</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.004803950249548013</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.004922513010958716</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.004996347261298652</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.005141888387232434</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.005346707021141635</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.005556312468416106</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.005627910379324367</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.005722110883016431</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.005728398498023661</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.005728398498023661</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.005728398498023661</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.005784701351347611</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.005872919104417101</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.006040258324765399</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.006242745329407323</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.00647192839911716</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.006636988384336153</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.006779372633272921</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.007049190281117588</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.007358399618403259</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.007581414870619959</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.00765518850518827</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.007689685232733283</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.007734307688234879</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.007776600372097751</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.007779482362629018</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.007779482362629018</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.007779482362629018</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.007863123489749501</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.00790148054968449</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.008012815714008538</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.008208220927880486</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.008382319262409744</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.008793491858225075</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.009206238941948807</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.009312191219460624</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0094243656012817</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.009496648296162768</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.009595749849865536</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.009620378817480036</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.009620378817480036</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.009632261964693811</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.009636500761112311</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.009636500761112311</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.009670501406698829</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.009839879151569701</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01011516400553885</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01021419613500598</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01057641639301421</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01124357491021089</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0117043693912463</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0121237019534556</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01264851789518368</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01285212022802067</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01296867408682396</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01307805908164824</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.0206616775248346</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1117701710913368</v>
+        <v>0.2721476772031131</v>
       </c>
       <c r="CP6">
-        <v>0.1235547819601822</v>
+        <v>0.2721476772031131</v>
       </c>
       <c r="CQ6">
-        <v>0.2224550309001862</v>
+        <v>0.5790160234758772</v>
       </c>
       <c r="CR6">
-        <v>0.2973368546463231</v>
+        <v>0.7788563955945156</v>
       </c>
       <c r="CS6">
-        <v>0.2974260805309039</v>
+        <v>0.7788563955945156</v>
       </c>
       <c r="CT6">
-        <v>0.3095674657372523</v>
+        <v>0.7788563955945156</v>
       </c>
       <c r="CU6">
-        <v>0.3108789830253887</v>
+        <v>0.7788563955945156</v>
       </c>
       <c r="CV6">
-        <v>0.337346204863468</v>
+        <v>0.7788563955945156</v>
       </c>
       <c r="CW6">
-        <v>0.3398438938906509</v>
+        <v>0.7788563955945156</v>
       </c>
       <c r="CX6">
-        <v>0.3714615956840753</v>
+        <v>0.7859084691973036</v>
       </c>
       <c r="CY6">
-        <v>0.425748279201991</v>
+        <v>0.8939752917074728</v>
       </c>
       <c r="CZ6">
-        <v>0.4280652590247301</v>
+        <v>0.8939752917074728</v>
       </c>
       <c r="DA6">
-        <v>0.4339912829632577</v>
+        <v>0.8939752917074728</v>
       </c>
       <c r="DB6">
-        <v>0.4630447573618704</v>
+        <v>0.8939752917074728</v>
       </c>
       <c r="DC6">
-        <v>0.4953187297815704</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DD6">
-        <v>0.4980385644459603</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DE6">
-        <v>0.521159652487691</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DF6">
-        <v>0.5298266869700858</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DG6">
-        <v>0.5320386324687219</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DH6">
-        <v>0.5372863751357989</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DI6">
-        <v>0.5419087578153114</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DJ6">
-        <v>0.5433205399787566</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DK6">
-        <v>0.5454063333715209</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DL6">
-        <v>0.5461058208343401</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DM6">
-        <v>0.5586559929762825</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DN6">
-        <v>0.5595303871329637</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DO6">
-        <v>0.5616541665761826</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DP6">
-        <v>0.5635186760510772</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DQ6">
-        <v>0.563744031344464</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DR6">
-        <v>0.5672466191084731</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DS6">
-        <v>0.5703180575940592</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DT6">
-        <v>0.5706303525475074</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DU6">
-        <v>0.5710053755614805</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DV6">
-        <v>0.5714231213584088</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DW6">
-        <v>0.5851153214757476</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DX6">
-        <v>0.5960951921330988</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DY6">
-        <v>0.5965881293763062</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="DZ6">
-        <v>0.6007960117357567</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EA6">
-        <v>0.6047895416854566</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EB6">
-        <v>0.6054400058200169</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EC6">
-        <v>0.6093204822984797</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="ED6">
-        <v>0.6111461087537036</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EE6">
-        <v>0.6117551671289037</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EF6">
-        <v>0.6121173873869119</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EG6">
-        <v>0.6172239600977826</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EH6">
-        <v>0.6276142560038607</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EI6">
-        <v>0.6311217988793777</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EJ6">
-        <v>0.6314014145715049</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EK6">
-        <v>0.6314040730287354</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EL6">
-        <v>0.6338244406457294</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EM6">
-        <v>0.6377977518858524</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EN6">
-        <v>0.6393413542755885</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EO6">
-        <v>0.6393504757450141</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EP6">
-        <v>0.639452905438051</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EQ6">
-        <v>0.6395731998497557</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="ER6">
-        <v>0.6410309683841497</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="ES6">
-        <v>0.6412405738314242</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="ET6">
-        <v>0.6421887398256307</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EU6">
-        <v>0.6429365540710933</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EV6">
-        <v>0.6444065984759064</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EW6">
-        <v>0.6471341181145741</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EX6">
-        <v>0.6551800978012727</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EY6">
-        <v>0.6675299995596032</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="EZ6">
-        <v>0.694666476396912</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FA6">
-        <v>0.7178362633478471</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FB6">
-        <v>0.7260731081095981</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FC6">
-        <v>0.7291991819044248</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FD6">
-        <v>0.7297878895131868</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FE6">
-        <v>0.730187347632959</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FF6">
-        <v>0.7365428552931381</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FG6">
-        <v>0.7613481104398924</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="FH6">
-        <v>0.8001202427889583</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FI6">
-        <v>0.8221723642375203</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FJ6">
-        <v>0.8364956603589161</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FK6">
-        <v>0.8470117773024024</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FL6">
-        <v>0.848751207890035</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FM6">
-        <v>0.850436435880717</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FN6">
-        <v>0.850887034344336</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FO6">
-        <v>0.8510676640708181</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FP6">
-        <v>0.8531546445433063</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FQ6">
-        <v>0.8583080606378031</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FR6">
-        <v>0.8583097104167486</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FS6">
-        <v>0.8627708839845477</v>
+        <v>0.9428845319812358</v>
       </c>
       <c r="FT6">
-        <v>0.8932638883253536</v>
+        <v>0.9449248660999215</v>
       </c>
       <c r="FU6">
-        <v>0.935658569599582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9586035744827474</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9757950641125525</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9819885521140902</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9820489056741848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9827313009114178</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9846781983657225</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9873173296343969</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9888383052070717</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9915832929632146</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9951745192511861</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9963501164116502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9963501164116502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9975195401366717</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9977080657258396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9977080657258396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9984429152261217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9989253103421656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9990195108458576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9990568338365794</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9991787951769967</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9992812953948265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9995094006193799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9999973415427693</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>0.03099963254900098</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5006625500635048</v>
+        <v>0.5413802822436743</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.01700903746323138</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5141248560452693</v>
+        <v>0.6002577466150817</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -10652,16 +10652,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5006417770708718</v>
+        <v>0.6789354238832408</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5304819655228237</v>
+        <v>0.5917424339893901</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.01307805908164824</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.521159652487691</v>
+        <v>0.5790160234758772</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -10832,10 +10832,10 @@
         <v>163</v>
       </c>
       <c r="E2">
-        <v>0.03099963254900098</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7172424583797681</v>
+        <v>0.7689824892173163</v>
       </c>
       <c r="G2">
         <v>73</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.01700903746323138</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7101195665682011</v>
+        <v>0.7534091550297584</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -10911,16 +10911,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7008804954741623</v>
+        <v>0.7916901999690477</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7065142567191666</v>
+        <v>0.7480959804646929</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>0.01307805908164824</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7178362633478471</v>
+        <v>0.7788563955945156</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -11088,16 +11088,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2">
-        <v>0.03099963254900098</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8022343638841595</v>
+        <v>0.8939206486426297</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01700903746323138</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8032672146800401</v>
+        <v>0.8064695218920805</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -11170,16 +11170,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8262734795774614</v>
+        <v>0.8372986575170116</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8054165939670761</v>
+        <v>0.8692444888109144</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.01307805908164824</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8001202427889583</v>
+        <v>0.8939752917074728</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -11347,16 +11347,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E2">
-        <v>0.03099963254900098</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9354060277640999</v>
+        <v>0.9078630938277445</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <v>0.01700903746323138</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9048352474576513</v>
+        <v>0.9285033420863709</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -11429,16 +11429,16 @@
         <v>90</v>
       </c>
       <c r="D4">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E4">
-        <v>0.02344632691176463</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9045469985066096</v>
+        <v>0.9033398962185641</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E5">
-        <v>0.001486764462680332</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9064308520659509</v>
+        <v>0.9122020966671496</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01307805908164824</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.935658569599582</v>
+        <v>0.9039517583568571</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>39</v>

--- a/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
@@ -674,28 +674,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.009827575114579414</v>
       </c>
       <c r="E2">
-        <v>0.2464264209758469</v>
+        <v>0.1889429192674925</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2705459501165211</v>
+        <v>0.2049272198497094</v>
       </c>
       <c r="H2">
-        <v>0.1520843223683028</v>
+        <v>0.1264212815976622</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01491137815025717</v>
       </c>
       <c r="J2">
-        <v>0.01053467835811954</v>
+        <v>0.03261463869147573</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01356026304915411</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.04265549267382166</v>
+        <v>0.05390148670468743</v>
       </c>
       <c r="P2">
-        <v>0.1929764669048667</v>
+        <v>0.1535209951083063</v>
       </c>
       <c r="Q2">
-        <v>0.03637473140530632</v>
+        <v>0.04973915105478471</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.007705689212730363</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.003426564452126708</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01614831267399566</v>
+        <v>0.03633486132684614</v>
       </c>
       <c r="W2">
-        <v>0.03225362452321942</v>
+        <v>0.04700804420976614</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01363392504535475</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.02518008097900139</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01410595597829507</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.004237970207770404</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4044772809294738</v>
+        <v>0.2813513430161754</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1383642965967667</v>
+        <v>0.1131555183395425</v>
       </c>
       <c r="H3">
-        <v>0.04169718314736316</v>
+        <v>0.05205739151757476</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0415736983819231</v>
+        <v>0.05197934338320705</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01946400501331369</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.07879116265356749</v>
+        <v>0.07550251761402933</v>
       </c>
       <c r="P3">
-        <v>0.1198434357655529</v>
+        <v>0.1014494699892957</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.009162291893857076</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.01625408256139031</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.04857472009089496</v>
+        <v>0.05640431581689827</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.01961720254675339</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -850,25 +850,25 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.009227048932334066</v>
+        <v>0.03153475142411076</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.02072466647527125</v>
       </c>
       <c r="AB3">
-        <v>0.03883313012350168</v>
+        <v>0.05024717635098329</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.07489820938737879</v>
+        <v>0.07304198947904901</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.003719833991243192</v>
+        <v>0.02805393457854805</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004358509015333125</v>
+        <v>0.02848553347204516</v>
       </c>
       <c r="E4">
-        <v>0.1643084102236383</v>
+        <v>0.1392792210493116</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1879767347326002</v>
+        <v>0.155673735402329</v>
       </c>
       <c r="H4">
-        <v>0.3543066655666707</v>
+        <v>0.2708867255471549</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004643655493501816</v>
+        <v>0.02868304800364113</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -927,31 +927,31 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.05707244219585043</v>
+        <v>0.06499928558849774</v>
       </c>
       <c r="P4">
-        <v>0.15130544341272</v>
+        <v>0.130272359328589</v>
       </c>
       <c r="Q4">
-        <v>0.06365275971011927</v>
+        <v>0.06955732305727774</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01215088489782958</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.001351986037636072</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01131263921515008</v>
       </c>
       <c r="V4">
-        <v>0.01237537964956611</v>
+        <v>0.0340386388737161</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.02158803438510002</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01716447513663188</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.007436841066311446</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.00132501524231182</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.005794253696466875</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1004,55 +1004,55 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3264872390527695</v>
+        <v>0.2704086414795412</v>
       </c>
       <c r="E5">
-        <v>0.00814785534181561</v>
+        <v>0.03111892183841836</v>
       </c>
       <c r="F5">
-        <v>0.2437688030032898</v>
+        <v>0.2082307508877682</v>
       </c>
       <c r="G5">
-        <v>0.1685696366299664</v>
+        <v>0.1517049537056725</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007756116428900603</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.006220979023596916</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01135064283970488</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.02774085500242039</v>
+        <v>0.045846610700101</v>
       </c>
       <c r="N5">
-        <v>0.06740264011125283</v>
+        <v>0.07565962763983446</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.007409875756409986</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1097012838201997</v>
+        <v>0.1074547215308998</v>
       </c>
       <c r="R5">
-        <v>0.04818168703828575</v>
+        <v>0.06121159919154916</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.001389977961746261</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.003286276469417352</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.004168017652587896</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.006782286893851347</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1114,61 +1114,61 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004615369903935967</v>
       </c>
       <c r="E6">
-        <v>0.2390025433058243</v>
+        <v>0.1958121936262147</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0142318632788916</v>
       </c>
       <c r="G6">
-        <v>0.2640356065860182</v>
+        <v>0.2136483038440998</v>
       </c>
       <c r="H6">
-        <v>0.1868700990787599</v>
+        <v>0.1586677175086092</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01504855555188794</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03132545796086168</v>
+        <v>0.04784183368738099</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.04787272933490844</v>
+        <v>0.05963179933118884</v>
       </c>
       <c r="O6">
-        <v>0.1207027948085512</v>
+        <v>0.1115233741026813</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.000820969686727025</v>
       </c>
       <c r="R6">
-        <v>0.03963447446650904</v>
+        <v>0.05376202541694088</v>
       </c>
       <c r="S6">
-        <v>0.04998117131351053</v>
+        <v>0.06113406867383525</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.02057512314505692</v>
+        <v>0.04018219752908593</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.007095417975370935</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.0159843098831496</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1347,97 +1347,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.009827575114579414</v>
       </c>
       <c r="E2">
-        <v>0.2464264209758469</v>
+        <v>0.1987704943820719</v>
       </c>
       <c r="F2">
-        <v>0.2464264209758469</v>
+        <v>0.1987704943820719</v>
       </c>
       <c r="G2">
-        <v>0.5169723710923679</v>
+        <v>0.4036977142317813</v>
       </c>
       <c r="H2">
-        <v>0.6690566934606708</v>
+        <v>0.5301189958294436</v>
       </c>
       <c r="I2">
-        <v>0.6690566934606708</v>
+        <v>0.5450303739797007</v>
       </c>
       <c r="J2">
-        <v>0.6795913718187903</v>
+        <v>0.5776450126711764</v>
       </c>
       <c r="K2">
-        <v>0.6795913718187903</v>
+        <v>0.5912052757203305</v>
       </c>
       <c r="L2">
-        <v>0.6795913718187903</v>
+        <v>0.5912052757203305</v>
       </c>
       <c r="M2">
-        <v>0.6795913718187903</v>
+        <v>0.5912052757203305</v>
       </c>
       <c r="N2">
-        <v>0.6795913718187903</v>
+        <v>0.5912052757203305</v>
       </c>
       <c r="O2">
-        <v>0.7222468644926119</v>
+        <v>0.645106762425018</v>
       </c>
       <c r="P2">
-        <v>0.9152233313974786</v>
+        <v>0.7986277575333243</v>
       </c>
       <c r="Q2">
-        <v>0.9515980628027849</v>
+        <v>0.8483669085881089</v>
       </c>
       <c r="R2">
-        <v>0.9515980628027849</v>
+        <v>0.8560725978008393</v>
       </c>
       <c r="S2">
-        <v>0.9515980628027849</v>
+        <v>0.8594991622529661</v>
       </c>
       <c r="T2">
-        <v>0.9515980628027849</v>
+        <v>0.8594991622529661</v>
       </c>
       <c r="U2">
-        <v>0.9515980628027849</v>
+        <v>0.8594991622529661</v>
       </c>
       <c r="V2">
-        <v>0.9677463754767806</v>
+        <v>0.8958340235798122</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9428420677895784</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9428420677895784</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9428420677895784</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9564759928349331</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9564759928349331</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9816560738139345</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9816560738139345</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9957620297922296</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9957620297922296</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9957620297922296</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9957620297922296</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9957620297922296</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1460,100 +1460,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4044772809294738</v>
+        <v>0.2813513430161754</v>
       </c>
       <c r="F3">
-        <v>0.4044772809294738</v>
+        <v>0.2813513430161754</v>
       </c>
       <c r="G3">
-        <v>0.5428415775262405</v>
+        <v>0.3945068613557179</v>
       </c>
       <c r="H3">
-        <v>0.5845387606736037</v>
+        <v>0.4465642528732927</v>
       </c>
       <c r="I3">
-        <v>0.5845387606736037</v>
+        <v>0.4465642528732927</v>
       </c>
       <c r="J3">
-        <v>0.5845387606736037</v>
+        <v>0.4465642528732927</v>
       </c>
       <c r="K3">
-        <v>0.6261124590555268</v>
+        <v>0.4985435962564997</v>
       </c>
       <c r="L3">
-        <v>0.6261124590555268</v>
+        <v>0.5180076012698134</v>
       </c>
       <c r="M3">
-        <v>0.6261124590555268</v>
+        <v>0.5180076012698134</v>
       </c>
       <c r="N3">
-        <v>0.6261124590555268</v>
+        <v>0.5180076012698134</v>
       </c>
       <c r="O3">
-        <v>0.7049036217090943</v>
+        <v>0.5935101188838428</v>
       </c>
       <c r="P3">
-        <v>0.8247470574746472</v>
+        <v>0.6949595888731385</v>
       </c>
       <c r="Q3">
-        <v>0.8247470574746472</v>
+        <v>0.6949595888731385</v>
       </c>
       <c r="R3">
-        <v>0.8247470574746472</v>
+        <v>0.6949595888731385</v>
       </c>
       <c r="S3">
-        <v>0.8247470574746472</v>
+        <v>0.7041218807669956</v>
       </c>
       <c r="T3">
-        <v>0.8247470574746472</v>
+        <v>0.7203759633283858</v>
       </c>
       <c r="U3">
-        <v>0.8247470574746472</v>
+        <v>0.7203759633283858</v>
       </c>
       <c r="V3">
-        <v>0.8733217775655421</v>
+        <v>0.7767802791452841</v>
       </c>
       <c r="W3">
-        <v>0.8733217775655421</v>
+        <v>0.7963974816920375</v>
       </c>
       <c r="X3">
-        <v>0.8733217775655421</v>
+        <v>0.7963974816920375</v>
       </c>
       <c r="Y3">
-        <v>0.8733217775655421</v>
+        <v>0.7963974816920375</v>
       </c>
       <c r="Z3">
-        <v>0.8825488264978761</v>
+        <v>0.8279322331161483</v>
       </c>
       <c r="AA3">
-        <v>0.8825488264978761</v>
+        <v>0.8486568995914195</v>
       </c>
       <c r="AB3">
-        <v>0.9213819566213778</v>
+        <v>0.8989040759424028</v>
       </c>
       <c r="AC3">
-        <v>0.9213819566213778</v>
+        <v>0.8989040759424028</v>
       </c>
       <c r="AD3">
-        <v>0.9962801660087566</v>
+        <v>0.9719460654214519</v>
       </c>
       <c r="AE3">
-        <v>0.9962801660087566</v>
+        <v>0.9719460654214519</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004358509015333125</v>
+        <v>0.02848553347204516</v>
       </c>
       <c r="E4">
-        <v>0.1686669192389715</v>
+        <v>0.1677647545213568</v>
       </c>
       <c r="F4">
-        <v>0.1686669192389715</v>
+        <v>0.1677647545213568</v>
       </c>
       <c r="G4">
-        <v>0.3566436539715716</v>
+        <v>0.3234384899236858</v>
       </c>
       <c r="H4">
-        <v>0.7109503195382423</v>
+        <v>0.5943252154708407</v>
       </c>
       <c r="I4">
-        <v>0.7109503195382423</v>
+        <v>0.5943252154708407</v>
       </c>
       <c r="J4">
-        <v>0.715593975031744</v>
+        <v>0.6230082634744818</v>
       </c>
       <c r="K4">
-        <v>0.715593975031744</v>
+        <v>0.6230082634744818</v>
       </c>
       <c r="L4">
-        <v>0.715593975031744</v>
+        <v>0.6230082634744818</v>
       </c>
       <c r="M4">
-        <v>0.715593975031744</v>
+        <v>0.6230082634744818</v>
       </c>
       <c r="N4">
-        <v>0.715593975031744</v>
+        <v>0.6230082634744818</v>
       </c>
       <c r="O4">
-        <v>0.7726664172275944</v>
+        <v>0.6880075490629796</v>
       </c>
       <c r="P4">
-        <v>0.9239718606403144</v>
+        <v>0.8182799083915686</v>
       </c>
       <c r="Q4">
-        <v>0.9876246203504337</v>
+        <v>0.8878372314488463</v>
       </c>
       <c r="R4">
-        <v>0.9876246203504337</v>
+        <v>0.8999881163466759</v>
       </c>
       <c r="S4">
-        <v>0.9876246203504337</v>
+        <v>0.9013401023843119</v>
       </c>
       <c r="T4">
-        <v>0.9876246203504337</v>
+        <v>0.9013401023843119</v>
       </c>
       <c r="U4">
-        <v>0.9876246203504337</v>
+        <v>0.9126527415994621</v>
       </c>
       <c r="V4">
-        <v>0.9999999999999999</v>
+        <v>0.9466913804731781</v>
       </c>
       <c r="W4">
-        <v>0.9999999999999999</v>
+        <v>0.9682794148582782</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999999</v>
+        <v>0.9682794148582782</v>
       </c>
       <c r="Y4">
-        <v>0.9999999999999999</v>
+        <v>0.9682794148582782</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999999</v>
+        <v>0.9854438899949101</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9854438899949101</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9854438899949101</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9854438899949101</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9928807310612215</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9942057463035333</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9942057463035333</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9942057463035333</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9942057463035333</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3264872390527695</v>
+        <v>0.2704086414795412</v>
       </c>
       <c r="E5">
-        <v>0.3346350943945851</v>
+        <v>0.3015275633179595</v>
       </c>
       <c r="F5">
-        <v>0.5784038973978749</v>
+        <v>0.5097583142057277</v>
       </c>
       <c r="G5">
-        <v>0.7469735340278413</v>
+        <v>0.6614632679114002</v>
       </c>
       <c r="H5">
-        <v>0.7469735340278413</v>
+        <v>0.6614632679114002</v>
       </c>
       <c r="I5">
-        <v>0.7469735340278413</v>
+        <v>0.6692193843403008</v>
       </c>
       <c r="J5">
-        <v>0.7469735340278413</v>
+        <v>0.6754403633638977</v>
       </c>
       <c r="K5">
-        <v>0.7469735340278413</v>
+        <v>0.6867910062036026</v>
       </c>
       <c r="L5">
-        <v>0.7469735340278413</v>
+        <v>0.6867910062036026</v>
       </c>
       <c r="M5">
-        <v>0.7747143890302617</v>
+        <v>0.7326376169037035</v>
       </c>
       <c r="N5">
-        <v>0.8421170291415145</v>
+        <v>0.808297244543538</v>
       </c>
       <c r="O5">
-        <v>0.8421170291415145</v>
+        <v>0.815707120299948</v>
       </c>
       <c r="P5">
-        <v>0.8421170291415145</v>
+        <v>0.815707120299948</v>
       </c>
       <c r="Q5">
-        <v>0.9518183129617143</v>
+        <v>0.9231618418308477</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.9843734410223969</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9843734410223969</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9857634189841431</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9857634189841431</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9857634189841431</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9890496954535605</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9890496954535605</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9890496954535605</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9890496954535605</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9890496954535605</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9932177131061484</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004615369903935967</v>
       </c>
       <c r="E6">
-        <v>0.2390025433058243</v>
+        <v>0.2004275635301507</v>
       </c>
       <c r="F6">
-        <v>0.2390025433058243</v>
+        <v>0.2146594268090423</v>
       </c>
       <c r="G6">
-        <v>0.5030381498918424</v>
+        <v>0.4283077306531421</v>
       </c>
       <c r="H6">
-        <v>0.6899082489706023</v>
+        <v>0.5869754481617513</v>
       </c>
       <c r="I6">
-        <v>0.6899082489706023</v>
+        <v>0.5869754481617513</v>
       </c>
       <c r="J6">
-        <v>0.6899082489706023</v>
+        <v>0.6020240037136392</v>
       </c>
       <c r="K6">
-        <v>0.6899082489706023</v>
+        <v>0.6020240037136392</v>
       </c>
       <c r="L6">
-        <v>0.721233706931464</v>
+        <v>0.6498658374010202</v>
       </c>
       <c r="M6">
-        <v>0.721233706931464</v>
+        <v>0.6498658374010202</v>
       </c>
       <c r="N6">
-        <v>0.7691064362663724</v>
+        <v>0.709497636732209</v>
       </c>
       <c r="O6">
-        <v>0.8898092310749237</v>
+        <v>0.8210210108348903</v>
       </c>
       <c r="P6">
-        <v>0.8898092310749237</v>
+        <v>0.8210210108348903</v>
       </c>
       <c r="Q6">
-        <v>0.8898092310749237</v>
+        <v>0.8218419805216174</v>
       </c>
       <c r="R6">
-        <v>0.9294437055414327</v>
+        <v>0.8756040059385582</v>
       </c>
       <c r="S6">
-        <v>0.9794248768549433</v>
+        <v>0.9367380746123934</v>
       </c>
       <c r="T6">
-        <v>0.9794248768549433</v>
+        <v>0.9367380746123934</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9769202721414794</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9840156901168503</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9840156901168503</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9840156901168503</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9840156901168503</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9840156901168503</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9840156901168503</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9840156901168503</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5169723710923679</v>
+        <v>0.5301189958294436</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -1992,16 +1992,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5428415775262405</v>
+        <v>0.5180076012698134</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7109503195382423</v>
+        <v>0.5943252154708407</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5784038973978749</v>
+        <v>0.5097583142057277</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5030381498918424</v>
+        <v>0.5869754481617513</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7222468644926119</v>
+        <v>0.7986277575333243</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7049036217090943</v>
+        <v>0.7041218807669956</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2292,16 +2292,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7109503195382423</v>
+        <v>0.8182799083915686</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -2333,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7469735340278413</v>
+        <v>0.7326376169037035</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.709497636732209</v>
+      </c>
+      <c r="G6">
         <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.721233706931464</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9152233313974786</v>
+        <v>0.8483669085881089</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8247470574746472</v>
+        <v>0.8279322331161483</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9239718606403144</v>
+        <v>0.8182799083915686</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8421170291415145</v>
+        <v>0.808297244543538</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8898092310749237</v>
+        <v>0.8210210108348903</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9152233313974786</v>
+        <v>0.9428420677895784</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9719460654214519</v>
+      </c>
+      <c r="G3">
         <v>27</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9213819566213778</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9239718606403144</v>
+        <v>0.9013401023843119</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9518183129617143</v>
+        <v>0.9231618418308477</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9294437055414327</v>
+        <v>0.9367380746123934</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>39</v>
